--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.547962451237183</t>
+          <t>6.067842210189184</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.9047707662419384</t>
+          <t>3.764909768445463</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.01617078883847</t>
+          <t>20.956311582582003</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.57530961271688</t>
+          <t>87.10909162326847</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>57.94966035684939</t>
+          <t>60.30906568300776</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.434958266085417</t>
+          <t>17.589224463060724</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>18.14984714950058</t>
+          <t>17.66796999684945</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.026350885658147</t>
+          <t>4.531753576285752</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>53.06865428000209</t>
+          <t>54.0492137609958</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.521447311856896</t>
+          <t>13.81956907273102</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>15.532377942373671</t>
+          <t>16.257349174819872</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>33.86473434186557</t>
+          <t>35.0409995733643</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.956100564647954</t>
+          <t>5.890136048859006</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>19.26343549742021</t>
+          <t>19.53261939605787</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.95393307996165</t>
+          <t>28.89424062816132</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>18.64048739453882</t>
+          <t>19.99518496846315</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19.96984808745654</t>
+          <t>20.8777920308793</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>21.9114900784748</t>
+          <t>22.558227835020155</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.135001398420812</t>
+          <t>2.2297960242844805</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.383392607530432</t>
+          <t>3.541682366566593</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.298518621700081</t>
+          <t>9.553017239318237</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.118196527661009</t>
+          <t>7.5908704618779606</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>12.707168805255941</t>
+          <t>13.08433059209359</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>31.61481899031512</t>
+          <t>33.56009563167279</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.71598748029772</t>
+          <t>6.902784258008339</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16.31886397386635</t>
+          <t>16.93757134988094</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.893687752095674</t>
+          <t>6.933002283026221</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.585414959213793</t>
+          <t>13.23587279293077</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.026499267679171</t>
+          <t>4.26853813618181</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.9175015290583068</t>
+          <t>0.9387449971787949</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.3392901370840455</t>
+          <t>2.403266395197808</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.8158703610813253</t>
+          <t>0.7945846971214541</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6.761564733220285</t>
+          <t>7.059592269226642</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.6710774999411475</t>
+          <t>2.6859349762290274</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.4847792946620584</t>
+          <t>1.5277356468468333</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.303503888685872</t>
+          <t>4.335635962891417</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.0903579008552575</t>
+          <t>2.9864057519367293</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.97152329149856</t>
+          <t>16.18373323968819</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>17.71001832273468</t>
+          <t>18.84055087762368</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>27.00192289163539</t>
+          <t>28.58300087864185</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14.04862561005931</t>
+          <t>14.7879158292637</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.200752339335832</t>
+          <t>7.736264082227631</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.9856824814674594</t>
+          <t>3.96483253968034</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>79.07064363689487</t>
+          <t>80.1049860420074</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.2592585485475003</t>
+          <t>3.205999737596059</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.8319147155062794</t>
+          <t>2.887647650431368</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6.113509726289776</t>
+          <t>6.256630524860161</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.523560259650383</t>
+          <t>4.39990969462272</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.140591631788058</t>
+          <t>5.061400346083967</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>19.14704077868466</t>
+          <t>20.20044033029646</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9.47237498058018</t>
+          <t>9.749664118235861</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.0425826520461485</t>
+          <t>2.0884868177814266</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>56.7829835347027</t>
+          <t>58.79554017337368</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>89.94393091978084</t>
+          <t>91.20831944083174</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>8.156714136597625</t>
+          <t>8.462735258463704</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>12.34962668450388</t>
+          <t>12.66897255905846</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.441017155253837</t>
+          <t>5.580918908920379</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.5483719002642395</t>
+          <t>5.797547346221031</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.9065184133235364</t>
+          <t>2.9846785809572207</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.452871117111496</t>
+          <t>3.6085585123666895</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.17258326939508</t>
+          <t>2.194614954127161</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4.646607011063873</t>
+          <t>4.829562961732314</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.6330845344834053</t>
+          <t>2.812750743933072</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5.11636940154315</t>
+          <t>5.476999629492219</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.075015777482996</t>
+          <t>2.1518922219695007</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.8589915422656365</t>
+          <t>0.8875445194317576</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.745312858576534</t>
+          <t>2.8460733275695738</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.4521285080745505</t>
+          <t>5.5144752888001545</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.6542805009824938</t>
+          <t>0.6768990506835029</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.6168698679334895</t>
+          <t>0.6482330454557135</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.9972826127797174</t>
+          <t>1.0497334264541032</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>86.4372032997386</t>
+          <t>86.78638622121984</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>94.37428239343105</t>
+          <t>94.69063759768238</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.1460214345346</t>
+          <t>4.351615474119371</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.9725428034666512</t>
+          <t>3.009865685662151</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.2588663085103216</t>
+          <t>4.418833451675133</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>59.94041616552067</t>
+          <t>62.20938014842262</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,61 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>85.19734939825432</t>
+          <t>86.55973809396238</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Gogeta</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>3.327465610277528</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Vegito</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>1.8496675259400124</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.067842210189184</t>
+          <t>5.696598758511811</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.764909768445463</t>
+          <t>3.818517553014175</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>20.956311582582003</t>
+          <t>22.144402906627796</t>
         </is>
       </c>
     </row>
@@ -559,12 +559,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.10909162326847</t>
+          <t>3.906684120749602</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>60.30906568300776</t>
+          <t>57.84053181170461</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>17.589224463060724</t>
+          <t>18.456509987321198</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>17.66796999684945</t>
+          <t>19.843319419939053</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.531753576285752</t>
+          <t>4.9314143445799345</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>54.0492137609958</t>
+          <t>54.69872472320369</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.81956907273102</t>
+          <t>13.25182148881241</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16.257349174819872</t>
+          <t>16.56061675486444</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35.0409995733643</t>
+          <t>35.16114468331713</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.890136048859006</t>
+          <t>5.71080849085714</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>19.53261939605787</t>
+          <t>19.73480982813276</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28.89424062816132</t>
+          <t>28.28137535494477</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>19.99518496846315</t>
+          <t>14.80277166449105</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>20.8777920308793</t>
+          <t>19.677966080357013</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>22.558227835020155</t>
+          <t>19.96251751315123</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.2297960242844805</t>
+          <t>2.078338424284011</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.541682366566593</t>
+          <t>3.534219661007125</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>9.553017239318237</t>
+          <t>8.433048449326096</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>7.5908704618779606</t>
+          <t>6.388791847396377</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13.08433059209359</t>
+          <t>13.335101448477142</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>33.56009563167279</t>
+          <t>28.668662576458846</t>
         </is>
       </c>
     </row>
@@ -1288,12 +1288,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.902784258008339</t>
+          <t>4.273589215696049</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>16.93757134988094</t>
+          <t>15.93104084513172</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.933002283026221</t>
+          <t>6.027666649256536</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>13.23587279293077</t>
+          <t>12.973850446735419</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.26853813618181</t>
+          <t>4.0047827430609</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.9387449971787949</t>
+          <t>0.8328719180798306</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.403266395197808</t>
+          <t>1.5170543981963776</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.7945846971214541</t>
+          <t>0.633704428712041</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>7.059592269226642</t>
+          <t>6.749066567332407</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.6859349762290274</t>
+          <t>2.438539318596703</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.5277356468468333</t>
+          <t>1.4411376034045376</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4.335635962891417</t>
+          <t>3.840071254814815</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.9864057519367293</t>
+          <t>2.5406947672566944</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>16.18373323968819</t>
+          <t>15.82832822802871</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>18.84055087762368</t>
+          <t>12.77457806159319</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>28.58300087864185</t>
+          <t>26.21550919747231</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>14.7879158292637</t>
+          <t>12.02647221406633</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.462327848258931</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.736264082227631</t>
+          <t>7.425784556166912</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3.96483253968034</t>
+          <t>4.071393452088668</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>80.1049860420074</t>
+          <t>79.51497669485587</t>
         </is>
       </c>
     </row>
@@ -2125,12 +2125,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3.205999737596059</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2.887647650431368</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>6.256630524860161</t>
+          <t>5.77119090000875</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.39990969462272</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.061400346083967</t>
+          <t>4.451762656507924</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>1.5565458366404106</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.20044033029646</t>
+          <t>20.50974194942121</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9.749664118235861</t>
+          <t>8.722964966853882</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.0884868177814266</t>
+          <t>2.0308843274357904</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>58.79554017337368</t>
+          <t>61.177226516660724</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>91.20831944083174</t>
+          <t>3.85243130548119</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>8.462735258463704</t>
+          <t>4.2779141492590895</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>12.66897255905846</t>
+          <t>12.1226430570032</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.580918908920379</t>
+          <t>5.727105588156273</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.797547346221031</t>
+          <t>6.156574614992752</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.9846785809572207</t>
+          <t>2.7253303785266185</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.6085585123666895</t>
+          <t>3.639683761116679</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.194614954127161</t>
+          <t>2.1937562928547596</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4.829562961732314</t>
+          <t>1.69492327324574</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2.812750743933072</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5.476999629492219</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.1518922219695007</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.8875445194317576</t>
+          <t>0.8711227480484632</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.8460733275695738</t>
+          <t>2.3856841838706035</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.5144752888001545</t>
+          <t>5.406596150730659</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.6768990506835029</t>
+          <t>0.5748245171253306</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.6482330454557135</t>
+          <t>0.5889620832186431</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.0497334264541032</t>
+          <t>1.0593688104537335</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>86.78638622121984</t>
+          <t>87.31431175991204</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>94.69063759768238</t>
+          <t>94.73251981676458</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.351615474119371</t>
+          <t>3.8286428039547666</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>3.009865685662151</t>
+          <t>2.645639230790636</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.418833451675133</t>
+          <t>4.287224512095762</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>62.20938014842262</t>
+          <t>61.4817912039467</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>86.55973809396238</t>
+          <t>85.60854949826721</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3.327465610277528</t>
+          <t>3.126050436395258</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,520 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.8496675259400124</t>
+          <t>1.507809633922262</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Android 17 &amp; Hellfighter 17</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>61.57551353242523</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Dr. My &amp; Dr. Gero</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>8.665231482420895</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Android 17</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Beerus &amp; Whis</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2.705620361070899</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Super Saiyan Vegeta</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>3.753578413467693</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Super Saiyan God Goku</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>5.386370723402521</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Kale (Berserk)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>64.43383343733623</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Frost (Final Form)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3.97062317590529</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Super Saiyan 2 Caulifla &amp; Super Saiyan 2 Kale</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>14.545300979470984</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Super Buu</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>58.02936512681119</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Krillin</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>28.7419956548334</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Tien</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>8.441753357706789</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Piccolo Jr. (Giant Form)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>9.582503912987136</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Goku</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>81.60988561328092</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Piccolo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Bulma (Youth)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>78.97630657996092</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Amond &amp; Rasin</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>51.36405123077317</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Daiz &amp; Cacao</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>3.1963658094263954</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Turles</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>59.4615106255238</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.696598758511811</t>
+          <t>5.767204099485028</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.818517553014175</t>
+          <t>3.9033339680412524</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.144402906627796</t>
+          <t>7.608687871782777</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.906684120749602</t>
+          <t>3.8859165997796623</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>57.84053181170461</t>
+          <t>53.0387032619242</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.456509987321198</t>
+          <t>6.315309809750097</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>19.843319419939053</t>
+          <t>3.5717658932323246</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.9314143445799345</t>
+          <t>1.2181670906407334</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>54.69872472320369</t>
+          <t>54.37925079605963</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.25182148881241</t>
+          <t>13.400724656099129</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>16.56061675486444</t>
+          <t>7.06979334316111</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35.16114468331713</t>
+          <t>35.18331899231349</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.71080849085714</t>
+          <t>5.993839099631046</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>19.73480982813276</t>
+          <t>18.2596284024397</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>28.28137535494477</t>
+          <t>27.69762989625693</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>14.80277166449105</t>
+          <t>3.888563713611859</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19.677966080357013</t>
+          <t>19.727360431312473</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19.96251751315123</t>
+          <t>19.65944857936398</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.078338424284011</t>
+          <t>2.1198225405763864</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.534219661007125</t>
+          <t>3.582716849591991</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>8.433048449326096</t>
+          <t>7.403790804083492</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.388791847396377</t>
+          <t>5.988516513251039</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13.335101448477142</t>
+          <t>14.16132904786595</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28.668662576458846</t>
+          <t>28.20809271090983</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.273589215696049</t>
+          <t>4.293950351106375</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15.93104084513172</t>
+          <t>14.79525362987709</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>6.027666649256536</t>
+          <t>5.802465317514009</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.973850446735419</t>
+          <t>12.67299187565275</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.0047827430609</t>
+          <t>4.042147986709949</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.8328719180798306</t>
+          <t>0.7888832254004954</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.5170543981963776</t>
+          <t>0.9921148554000591</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.633704428712041</t>
+          <t>0.5495929689218249</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6.749066567332407</t>
+          <t>6.8868525284671875</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.438539318596703</t>
+          <t>2.3002032250612</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.4411376034045376</t>
+          <t>1.4645819764501293</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.840071254814815</t>
+          <t>3.138442477553484</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.5406947672566944</t>
+          <t>2.1505468262509604</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.82832822802871</t>
+          <t>15.644215867222227</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>12.77457806159319</t>
+          <t>8.385538887701486</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>26.21550919747231</t>
+          <t>21.96125952971862</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>12.02647221406633</t>
+          <t>7.33252184164282</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2.462327848258931</t>
+          <t>1.7074781311491245</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.425784556166912</t>
+          <t>6.56440926274318</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>4.336721449406419</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.071393452088668</t>
+          <t>4.6056676206592835</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>79.51497669485587</t>
+          <t>76.93606734635377</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.77119090000875</t>
+          <t>5.70999249683697</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.451762656507924</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.5565458366404106</t>
+          <t>1.527305234678113</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.50974194942121</t>
+          <t>20.5334079905041</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>8.722964966853882</t>
+          <t>7.849412189758371</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2.0308843274357904</t>
+          <t>1.7446919509223824</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>61.177226516660724</t>
+          <t>61.645354100052714</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.85243130548119</t>
+          <t>3.963608062809712</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.2779141492590895</t>
+          <t>4.1871581404266465</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>12.1226430570032</t>
+          <t>13.22562794905666</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.727105588156273</t>
+          <t>5.328779231040355</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>6.156574614992752</t>
+          <t>5.564412471272493</t>
         </is>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2.7253303785266185</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.639683761116679</t>
+          <t>3.8037469716505976</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.1937562928547596</t>
+          <t>2.1535535429297</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.69492327324574</t>
+          <t>1.68539883201443</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.8711227480484632</t>
+          <t>0.7881160228604436</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.3856841838706035</t>
+          <t>1.8831843195269589</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.406596150730659</t>
+          <t>5.85546460786448</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.5748245171253306</t>
+          <t>0.5037395933001295</t>
         </is>
       </c>
     </row>
@@ -3070,12 +3070,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.5889620832186431</t>
+          <t>0.9092595625199904</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.0593688104537335</t>
+          <t>1.0781697531359413</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>87.31431175991204</t>
+          <t>6.041355763662594</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>94.73251981676458</t>
+          <t>3.481924272994817</t>
         </is>
       </c>
     </row>
@@ -3340,12 +3340,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>3.8286428039547666</t>
+          <t>4.5338850868121</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.645639230790636</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.287224512095762</t>
+          <t>4.5402705874756535</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>61.4817912039467</t>
+          <t>61.37581386236634</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>85.60854949826721</t>
+          <t>86.05224954686759</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>3.126050436395258</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.507809633922262</t>
+          <t>1.5088727410371354</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>61.57551353242523</t>
+          <t>60.993693089954895</t>
         </is>
       </c>
     </row>
@@ -3637,12 +3637,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>8.665231482420895</t>
+          <t>3.8496228699707324</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2.705620361070899</t>
+          <t>2.7790755557504982</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>3.753578413467693</t>
+          <t>2.727452261502819</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>5.386370723402521</t>
+          <t>4.949025006366497</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>64.43383343733623</t>
+          <t>61.74882903271343</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3.97062317590529</t>
+          <t>3.078131168418452</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>14.545300979470984</t>
+          <t>14.152195963014742</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>58.02936512681119</t>
+          <t>58.36976129886233</t>
         </is>
       </c>
     </row>
@@ -3880,12 +3880,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>28.7419956548334</t>
+          <t>3.0767409641742205</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>8.441753357706789</t>
+          <t>8.302888769938333</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9.582503912987136</t>
+          <t>9.551496135061555</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>81.60988561328092</t>
+          <t>81.06076478529232</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>78.97630657996092</t>
+          <t>83.53558278926974</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>51.36405123077317</t>
+          <t>49.42691757403878</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3.1963658094263954</t>
+          <t>2.908017140181535</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,142 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>59.4615106255238</t>
+          <t>57.59800590101383</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Goku</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>20.6342730476685</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Beerus</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2.19923842046595</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Baby</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>5.90669777359366</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Super Saiyan 4 Goku</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.74447295654637</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Super Saiyan Goku (Angel) &amp; Super Saiyan Vegeta (Angel)</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.767204099485028</t>
+          <t>5.7055216623670475</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.9033339680412524</t>
+          <t>3.9070502238881204</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.608687871782777</t>
+          <t>7.660252291916876</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.8859165997796623</t>
+          <t>3.837082253994737</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>53.0387032619242</t>
+          <t>14.388922939085512</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.315309809750097</t>
+          <t>6.281433145300795</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.5717658932323246</t>
+          <t>3.5799042151467972</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.2181670906407334</t>
+          <t>1.1188865685998906</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>54.37925079605963</t>
+          <t>56.49429075730598</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.400724656099129</t>
+          <t>13.321085066626338</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.06979334316111</t>
+          <t>7.123918153178926</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>35.18331899231349</t>
+          <t>16.04800498023927</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.993839099631046</t>
+          <t>5.9392755080920665</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18.2596284024397</t>
+          <t>18.24960382539473</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.69762989625693</t>
+          <t>27.33744767390414</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.888563713611859</t>
+          <t>4.8539716600870015</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>19.727360431312473</t>
+          <t>8.95490702902628</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19.65944857936398</t>
+          <t>19.45419591102553</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.1198225405763864</t>
+          <t>2.107217052257554</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.582716849591991</t>
+          <t>3.534309962341405</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.403790804083492</t>
+          <t>7.587130771936929</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.988516513251039</t>
+          <t>6.586945614735713</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>14.16132904786595</t>
+          <t>13.949479128362649</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28.20809271090983</t>
+          <t>28.30912485910504</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.293950351106375</t>
+          <t>4.310376425990441</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14.79525362987709</t>
+          <t>15.60339066182523</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.802465317514009</t>
+          <t>5.987521201555024</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.67299187565275</t>
+          <t>17.21137313145519</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.042147986709949</t>
+          <t>4.01183163410391</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.7888832254004954</t>
+          <t>0.7943421821058155</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.9921148554000591</t>
+          <t>1.2913880135546931</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5495929689218249</t>
+          <t>0.5523308708324858</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6.8868525284671875</t>
+          <t>6.855158577248869</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.3002032250612</t>
+          <t>2.296719091985075</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.4645819764501293</t>
+          <t>1.6287238516302083</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.138442477553484</t>
+          <t>3.290067720269086</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.1505468262509604</t>
+          <t>2.181871290096288</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.644215867222227</t>
+          <t>15.458382086116341</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>8.385538887701486</t>
+          <t>11.61355486513886</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>21.96125952971862</t>
+          <t>24.10203681691038</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.33252184164282</t>
+          <t>8.46875983090403</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.7074781311491245</t>
+          <t>1.8650539038588163</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6.56440926274318</t>
+          <t>7.26986841670033</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.336721449406419</t>
+          <t>4.318187104876695</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.6056676206592835</t>
+          <t>5.282531776218338</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>76.93606734635377</t>
+          <t>68.20478076450037</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.70999249683697</t>
+          <t>5.761160391323197</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>4.432857173488263</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>7.279921538452807</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.527305234678113</t>
+          <t>1.5264462349854588</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.5334079905041</t>
+          <t>20.57845858197854</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.849412189758371</t>
+          <t>7.861053651749931</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.7446919509223824</t>
+          <t>1.8153991687246702</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>61.645354100052714</t>
+          <t>61.10959477411159</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.963608062809712</t>
+          <t>3.7879860552379654</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4.1871581404266465</t>
+          <t>3.5758317941220295</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>13.22562794905666</t>
+          <t>6.26349332754091</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.328779231040355</t>
+          <t>5.271571360306389</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.564412471272493</t>
+          <t>5.964955684765177</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.8037469716505976</t>
+          <t>3.7921947669850793</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.1535535429297</t>
+          <t>2.1341515436962304</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.68539883201443</t>
+          <t>1.67254457010646</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.7881160228604436</t>
+          <t>0.7771755913709087</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.8831843195269589</t>
+          <t>2.124750880848662</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>5.85546460786448</t>
+          <t>6.14998946991628</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.5037395933001295</t>
+          <t>0.5543908943668541</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.9092595625199904</t>
+          <t>0.9143628014663315</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.0781697531359413</t>
+          <t>1.0735039611587247</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>6.041355763662594</t>
+          <t>5.98585747559936</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3.481924272994817</t>
+          <t>3.326640762887863</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.5338850868121</t>
+          <t>4.704391408256507</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.5402705874756535</t>
+          <t>4.681169757993719</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>61.37581386236634</t>
+          <t>60.77320057602348</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>86.05224954686759</t>
+          <t>85.57330615730775</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.5088727410371354</t>
+          <t>1.580068219499846</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>60.993693089954895</t>
+          <t>61.13038690809325</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>3.8496228699707324</t>
+          <t>4.470238271863771</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2.7790755557504982</t>
+          <t>2.7555827839927947</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2.727452261502819</t>
+          <t>2.6423656249202168</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.949025006366497</t>
+          <t>4.932465346609206</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>61.74882903271343</t>
+          <t>61.33402329716175</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3.078131168418452</t>
+          <t>3.411114915436104</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>14.152195963014742</t>
+          <t>14.100796845631635</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>58.36976129886233</t>
+          <t>57.96013232109998</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3.0767409641742205</t>
+          <t>3.041129782560901</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>8.302888769938333</t>
+          <t>8.29412362874096</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9.551496135061555</t>
+          <t>9.77608816311465</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>81.06076478529232</t>
+          <t>81.94571650806544</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>83.53558278926974</t>
+          <t>87.27103880105795</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>49.42691757403878</t>
+          <t>52.53015638867574</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2.908017140181535</t>
+          <t>2.865583305907241</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>57.59800590101383</t>
+          <t>58.59285755965201</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>20.6342730476685</t>
+          <t>20.48107351316966</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2.19923842046595</t>
+          <t>2.1613836586587922</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5.90669777359366</t>
+          <t>5.977142218716144</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>97.74447295654637</t>
+          <t>97.7864482874931</t>
         </is>
       </c>
     </row>
@@ -4235,6 +4235,141 @@
         </is>
       </c>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Omega Shenron</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>75.2663836697202</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Super Baby 2 (Giant Ape)</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>6.1527408894416</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Super Saiyan Gohan (Youth)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Super Saiyan Trunks (Teen)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>65.21942032738994</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Super Saiyan Vegeta</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.7055216623670475</t>
+          <t>7.912839987040158</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.9070502238881204</t>
+          <t>4.570959572308823</t>
         </is>
       </c>
     </row>
@@ -532,12 +532,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.660252291916876</t>
+          <t>3.712938029010772</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.837082253994737</t>
+          <t>4.62652958924474</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>14.388922939085512</t>
+          <t>17.13133369873477</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.281433145300795</t>
+          <t>5.905931868102023</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.5799042151467972</t>
+          <t>6.551273631567064</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.1188865685998906</t>
+          <t>1.0542813136462996</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>56.49429075730598</t>
+          <t>43.68268721157316</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>13.321085066626338</t>
+          <t>10.85962875514511</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.123918153178926</t>
+          <t>2.947832417072732</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>16.04800498023927</t>
+          <t>12.656016739756588</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.9392755080920665</t>
+          <t>4.425311513076451</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>18.24960382539473</t>
+          <t>15.58154749861203</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.33744767390414</t>
+          <t>24.02446715459736</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.8539716600870015</t>
+          <t>5.035277573113991</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8.95490702902628</t>
+          <t>4.002833330585041</t>
         </is>
       </c>
     </row>
@@ -1018,12 +1018,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19.45419591102553</t>
+          <t>3.3453009494036294</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.107217052257554</t>
+          <t>1.3838252164330536</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.534309962341405</t>
+          <t>4.243629553793041</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.587130771936929</t>
+          <t>5.717681177316221</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.586945614735713</t>
+          <t>5.615669084559282</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>13.949479128362649</t>
+          <t>10.514024374096218</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28.30912485910504</t>
+          <t>7.318795915014669</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.310376425990441</t>
+          <t>2.528033413775617</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15.60339066182523</t>
+          <t>14.78201363866063</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.987521201555024</t>
+          <t>3.625328117123783</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>17.21137313145519</t>
+          <t>12.652657438039512</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.01183163410391</t>
+          <t>4.748174243491452</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.967492325883273</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.7943421821058155</t>
+          <t>0.5983488675810533</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.2913880135546931</t>
+          <t>1.1520759992382008</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5523308708324858</t>
+          <t>0.5718210746457707</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6.855158577248869</t>
+          <t>5.458341991150417</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.296719091985075</t>
+          <t>3.5440491957561613</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.6287238516302083</t>
+          <t>1.0962520218887915</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.290067720269086</t>
+          <t>2.5631303789342783</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.181871290096288</t>
+          <t>2.3420893892233123</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>15.458382086116341</t>
+          <t>22.71706873854725</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11.61355486513886</t>
+          <t>14.95727039534149</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>24.10203681691038</t>
+          <t>11.48142918124747</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>8.46875983090403</t>
+          <t>7.518176578229678</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.8650539038588163</t>
+          <t>1.883979160967098</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>7.26986841670033</t>
+          <t>8.794208713289109</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.318187104876695</t>
+          <t>6.354396761945151</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.282531776218338</t>
+          <t>4.64903098371089</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>17.294252953644023</t>
         </is>
       </c>
     </row>
@@ -2098,12 +2098,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>68.20478076450037</t>
+          <t>5.311092919738242</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.761160391323197</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>4.432857173488263</t>
+          <t>2.99812311178642</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7.279921538452807</t>
+          <t>10.1512688879176</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.5264462349854588</t>
+          <t>1.788952248061097</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.57845858197854</t>
+          <t>20.66975957906121</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>7.861053651749931</t>
+          <t>5.658237230275198</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.8153991687246702</t>
+          <t>1.2886409630020979</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>61.10959477411159</t>
+          <t>54.596458080117735</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.7879860552379654</t>
+          <t>3.938085669884487</t>
         </is>
       </c>
     </row>
@@ -2422,12 +2422,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3.5758317941220295</t>
+          <t>1.2618369634453401</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>0.8849092465550359</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>6.26349332754091</t>
+          <t>3.3113597334915887</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>5.271571360306389</t>
+          <t>3.6867806470994613</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>5.964955684765177</t>
+          <t>4.59516475151053</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.7921947669850793</t>
+          <t>3.473431099316194</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2.1341515436962304</t>
+          <t>1.4028594476708136</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.67254457010646</t>
+          <t>1.29345793866913</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>6.701031790381432</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>3.476913771754351</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.7771755913709087</t>
+          <t>0.4507586375951036</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2.124750880848662</t>
+          <t>1.650563886842963</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6.14998946991628</t>
+          <t>4.420977765740194</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.5543908943668541</t>
+          <t>0.4011268675356653</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.9143628014663315</t>
+          <t>1.0953645735156081</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1.0735039611587247</t>
+          <t>0.7952025691755397</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>5.98585747559936</t>
+          <t>8.658408253758097</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>3.326640762887863</t>
+          <t>2.800848513550875</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.704391408256507</t>
+          <t>4.098822510987579</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.1131258521013914</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>4.681169757993719</t>
+          <t>1.7186600313877114</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>60.77320057602348</t>
+          <t>49.74612562489364</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>85.57330615730775</t>
+          <t>83.24087837263117</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1.580068219499846</t>
+          <t>0.9247801227847511</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>61.13038690809325</t>
+          <t>60.41158462254755</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4.470238271863771</t>
+          <t>4.300444067114492</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2.7555827839927947</t>
+          <t>2.530573311781882</t>
         </is>
       </c>
     </row>
@@ -3718,12 +3718,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2.6423656249202168</t>
+          <t>4.050680714075128</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.932465346609206</t>
+          <t>4.505577519698207</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>61.33402329716175</t>
+          <t>61.57797811622344</t>
         </is>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>3.411114915436104</t>
+          <t>2.5</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>14.100796845631635</t>
+          <t>10.758960676656953</t>
         </is>
       </c>
     </row>
@@ -3853,12 +3853,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>57.96013232109998</t>
+          <t>3.285685527448422</t>
         </is>
       </c>
     </row>
@@ -3880,12 +3880,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3.041129782560901</t>
+          <t>3.7504915615499854</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>8.29412362874096</t>
+          <t>5.124587300705446</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9.77608816311465</t>
+          <t>9.744413224082606</t>
         </is>
       </c>
     </row>
@@ -3961,12 +3961,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>81.94571650806544</t>
+          <t>12.016050959351745</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4015,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>87.27103880105795</t>
+          <t>3.9055997171584522</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>52.53015638867574</t>
+          <t>54.315362834618576</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2.865583305907241</t>
+          <t>4.709688102997973</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>58.59285755965201</t>
+          <t>42.8255098705969</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>20.48107351316966</t>
+          <t>12.34968067050658</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2.1613836586587922</t>
+          <t>3.4544289291955494</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>5.977142218716144</t>
+          <t>3.218391591606207</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>97.7864482874931</t>
+          <t>97.65355030200648</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>75.2663836697202</t>
+          <t>71.58179465085897</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>6.1527408894416</t>
+          <t>5.829185399612205</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>65.21942032738994</t>
+          <t>63.7651158207861</t>
         </is>
       </c>
     </row>
@@ -4372,6 +4372,492 @@
       <c r="E146" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Launch</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Oceanus Shenron</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Android 18</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>7.822038188836305</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Mamba</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Super Saiyan God SS &amp; Super Saiyan God SS Vegeta</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>1.58446231545274</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Fusion Zamsasu</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.36280146019824</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Mai (Future)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>21.79174063128624</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Zamasu</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>5.319201728004825</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Trunks (Teen) (Future)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Zamasu</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Mai (Future)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Gowasu &amp; Zamasu</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>3.9031409057413464</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Gohan (Future)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>1.980002124467534</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Super Saiyan Trunks (Future)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4.728525627693699</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Super Saiyan Gohan (Future)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>97.99103154510482</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Goku Black (Super Saiyan Rose)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>18.463012517074315</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Zirloin, Rabanra &amp; Zarbuto</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Android 17 &amp; Android 18</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>87.55963550587013</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.551273631567064</t>
+          <t>44.68244166477252</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>43.68268721157316</t>
+          <t>43.68268721157317</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.3838252164330536</t>
+          <t>24.390507324843984</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.615669084559282</t>
+          <t>5.61566908455928</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.318795915014669</t>
+          <t>7.318795915014668</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5718210746457707</t>
+          <t>0.5718210746457706</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.5631303789342783</t>
+          <t>2.5631303789342788</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6.354396761945151</t>
+          <t>6.35439676194515</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.311092919738242</t>
+          <t>5.311092919738243</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.66975957906121</t>
+          <t>20.669759579061207</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>54.596458080117735</t>
+          <t>54.59645808011773</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.938085669884487</t>
+          <t>3.9380856698844866</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3.6867806470994613</t>
+          <t>3.686780647099461</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.476913771754351</t>
+          <t>3.4769137717543503</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.0953645735156081</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.7952025691755397</t>
+          <t>72.0596608343468</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>60.41158462254755</t>
+          <t>60.41158462254756</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2.530573311781882</t>
+          <t>8.0262382369288</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4.050680714075128</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>61.57797811622344</t>
+          <t>61.57797811622345</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3.7504915615499854</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5.829185399612205</t>
+          <t>5.829185399612206</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1.58446231545274</t>
+          <t>1.5844623154527397</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>18.463012517074315</t>
+          <t>18.46301251707431</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -667,12 +667,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.0542813136462996</t>
+          <t>2.865466333938727</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>15.58154749861203</t>
+          <t>10.769808480860371</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.625328117123783</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2.967492325883273</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>7.518176578229678</t>
+          <t>4.9359725356255915</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -4204,12 +4204,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>97.65355030200648</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.912839987040158</t>
+          <t>8.006161615185604</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.570959572308823</t>
+          <t>4.606924414770418</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.712938029010772</t>
+          <t>3.7402727526642394</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.62652958924474</t>
+          <t>4.693502094772626</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.13133369873477</t>
+          <t>17.168923830851085</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.905931868102023</t>
+          <t>5.94687539306458</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>44.68244166477252</t>
+          <t>6.566022469950667</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.865466333938727</t>
+          <t>0.8397554985167233</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>43.68268721157317</t>
+          <t>43.48832667369448</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.85962875514511</t>
+          <t>10.8743716071322</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.947832417072732</t>
+          <t>2.9395831054015495</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.656016739756588</t>
+          <t>12.663303242727942</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.425311513076451</t>
+          <t>4.496122101739189</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.769808480860371</t>
+          <t>10.775350678230108</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>24.02446715459736</t>
+          <t>23.68628661622445</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.035277573113991</t>
+          <t>4.993407706195121</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.002833330585041</t>
+          <t>4.03203743878062</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.3453009494036294</t>
+          <t>3.379473961619389</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24.390507324843984</t>
+          <t>1.3670642426911976</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.243629553793041</t>
+          <t>4.169633962394243</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.717681177316221</t>
+          <t>5.625380817421039</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.61566908455928</t>
+          <t>5.49531069550332</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10.514024374096218</t>
+          <t>10.49868704301904</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.318795915014668</t>
+          <t>7.2638625988623104</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.528033413775617</t>
+          <t>2.54773046200782</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14.78201363866063</t>
+          <t>14.56316576807197</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.652657438039512</t>
+          <t>12.507179010237532</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.748174243491452</t>
+          <t>4.643493034106768</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>24.01927568287092</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>17.89432502812413</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.5983488675810533</t>
+          <t>0.5814880091611094</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.1520759992382008</t>
+          <t>1.1374357806530127</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5718210746457706</t>
+          <t>0.5567765033768984</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.458341991150417</t>
+          <t>5.432477918236831</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.5440491957561613</t>
+          <t>3.4335129320758337</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.0962520218887915</t>
+          <t>1.0889457474751032</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.5631303789342788</t>
+          <t>2.4953867479190897</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.3420893892233123</t>
+          <t>2.33892579962715</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>22.71706873854725</t>
+          <t>22.38181115144198</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14.95727039534149</t>
+          <t>14.84777914869595</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11.48142918124747</t>
+          <t>11.38151207228451</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.9359725356255915</t>
+          <t>4.87663905844332</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.883979160967098</t>
+          <t>1.8429150235161127</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8.794208713289109</t>
+          <t>8.712345666546153</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6.35439676194515</t>
+          <t>6.401310324170314</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.64903098371089</t>
+          <t>4.693997582467941</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>17.294252953644023</t>
+          <t>17.313279975243763</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.311092919738243</t>
+          <t>5.3494593466352</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.99812311178642</t>
+          <t>2.965899006688393</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10.1512688879176</t>
+          <t>9.88179814082591</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.788952248061097</t>
+          <t>1.750559429739199</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.669759579061207</t>
+          <t>20.26808043465311</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.658237230275198</t>
+          <t>5.486043795177633</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.2886409630020979</t>
+          <t>1.276361523360335</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>54.59645808011773</t>
+          <t>54.07252981359464</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3.9380856698844866</t>
+          <t>4.01854211359246</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.2618369634453401</t>
+          <t>1.250672144936491</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.8849092465550359</t>
+          <t>0.8604193460838178</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.3113597334915887</t>
+          <t>3.3192957039006785</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3.686780647099461</t>
+          <t>3.6182988059561523</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.59516475151053</t>
+          <t>4.546671485745087</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.473431099316194</t>
+          <t>3.432217304961077</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.4028594476708136</t>
+          <t>1.4004042643876904</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.29345793866913</t>
+          <t>1.28156933822385</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6.701031790381432</t>
+          <t>6.5736518811180105</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.4769137717543503</t>
+          <t>3.4063527374919804</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.4507586375951036</t>
+          <t>0.44742867123839525</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.650563886842963</t>
+          <t>1.6223833140497252</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4.420977765740194</t>
+          <t>4.366855068037985</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.4011268675356653</t>
+          <t>0.3976157401778532</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>1.0810699922687406</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>72.0596608343468</t>
+          <t>0.7796399984198377</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>8.658408253758097</t>
+          <t>8.676891231506659</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2.800848513550875</t>
+          <t>2.8005348905121963</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.098822510987579</t>
+          <t>4.002197014066279</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.1131258521013914</t>
+          <t>2.058372994148601</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.7186600313877114</t>
+          <t>1.7127979956792942</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>49.74612562489364</t>
+          <t>49.56577310208046</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>83.24087837263117</t>
+          <t>82.95875859026279</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.9247801227847511</t>
+          <t>0.9297497792013262</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>60.41158462254756</t>
+          <t>60.06316797591067</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4.300444067114492</t>
+          <t>4.229127633850586</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>8.0262382369288</t>
+          <t>2.5287416735598325</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>4.065900232086001</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.505577519698207</t>
+          <t>4.613757260872163</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>61.57797811622345</t>
+          <t>61.4180786472004</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>10.758960676656953</t>
+          <t>10.758442184261444</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3.285685527448422</t>
+          <t>3.3385345848236483</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>3.743821950374197</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>5.124587300705446</t>
+          <t>5.033563259415903</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9.744413224082606</t>
+          <t>9.794649825086324</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>12.016050959351745</t>
+          <t>12.135444688483332</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3.9055997171584522</t>
+          <t>3.956101898012406</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>54.315362834618576</t>
+          <t>53.568414534572746</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4.709688102997973</t>
+          <t>4.603038273265105</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>42.8255098705969</t>
+          <t>42.86235352005351</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12.34968067050658</t>
+          <t>12.16312867635982</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3.4544289291955494</t>
+          <t>3.495290430203785</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3.218391591606207</t>
+          <t>3.134847026857715</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>71.58179465085897</t>
+          <t>71.2422940343525</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5.829185399612206</t>
+          <t>5.859003455898201</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>63.7651158207861</t>
+          <t>63.73247000157939</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7.822038188836305</t>
+          <t>7.594569612063516</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1.5844623154527397</t>
+          <t>1.6072617837455707</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>97.36280146019824</t>
+          <t>97.3202869754996</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>21.79174063128624</t>
+          <t>21.35993838258634</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.319201728004825</t>
+          <t>5.195708751193139</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3.9031409057413464</t>
+          <t>3.8455489519328507</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>1.980002124467534</t>
+          <t>2.0087262667457657</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4.728525627693699</t>
+          <t>4.7838059877067565</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>97.99103154510482</t>
+          <t>97.9529183749649</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>18.46301251707431</t>
+          <t>18.532170519269055</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,142 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>87.55963550587013</t>
+          <t>87.6127647122643</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Dark King Fu</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>12.73827846159867</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Super Full Power Saiyan 4 Limit Breaker Broly</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>INT</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4.05085083221628</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Super Saiyan SS Vegeta (Berserk Controlled)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>TEQ</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Crimson Masked Saiyan (Super Saiyan Rose 3)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>PHY</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>54.42737804336895</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Super Full Power Saiyan 4 Limit Breaker Vegito</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>AGL</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>63.89425542059427</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.006161615185604</t>
+          <t>7.953300546849064</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.606924414770418</t>
+          <t>4.586471682687275</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.7402727526642394</t>
+          <t>3.725977339874092</t>
         </is>
       </c>
     </row>
@@ -564,7 +564,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.693502094772626</t>
+          <t>4.643980587704704</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>17.168923830851085</t>
+          <t>17.176752551036024</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.94687539306458</t>
+          <t>5.91583631491676</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.566022469950667</t>
+          <t>6.580917858451265</t>
         </is>
       </c>
     </row>
@@ -672,7 +672,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.8397554985167233</t>
+          <t>0.8316273691095971</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>43.48832667369448</t>
+          <t>43.31029320774805</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.8743716071322</t>
+          <t>10.861464393217123</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.9395831054015495</t>
+          <t>2.9345126553437098</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>12.663303242727942</t>
+          <t>12.630365433446386</t>
         </is>
       </c>
     </row>
@@ -834,7 +834,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.496122101739189</t>
+          <t>4.447632628828671</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10.775350678230108</t>
+          <t>10.74767037872584</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.68628661622445</t>
+          <t>23.54911782918813</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.993407706195121</t>
+          <t>5.047734275976229</t>
         </is>
       </c>
     </row>
@@ -996,7 +996,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.03203743878062</t>
+          <t>4.001804988139185</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.379473961619389</t>
+          <t>3.3635065976514866</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.3670642426911976</t>
+          <t>1.3673193082166648</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4.169633962394243</t>
+          <t>4.179446565645152</t>
         </is>
       </c>
     </row>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.625380817421039</t>
+          <t>5.6467455644886595</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.49531069550332</t>
+          <t>5.563458365854474</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10.49868704301904</t>
+          <t>10.508361103850559</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.2638625988623104</t>
+          <t>7.301780037760977</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2.54773046200782</t>
+          <t>2.5333920583452496</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>14.56316576807197</t>
+          <t>14.5998251985406</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>12.507179010237532</t>
+          <t>12.593780552542746</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.643493034106768</t>
+          <t>4.6985470068456685</t>
         </is>
       </c>
     </row>
@@ -1504,12 +1504,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>24.01927568287092</t>
+          <t>2.334309513170247</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>17.89432502812413</t>
+          <t>15.351264913163991</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.5814880091611094</t>
+          <t>0.5812408087764626</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.1374357806530127</t>
+          <t>1.1330419049474356</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.5567765033768984</t>
+          <t>0.550231148102219</t>
         </is>
       </c>
     </row>
@@ -1644,7 +1644,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5.432477918236831</t>
+          <t>5.437517497920985</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.4335129320758337</t>
+          <t>3.44710842336222</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.0889457474751032</t>
+          <t>1.0843271259252083</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.4953867479190897</t>
+          <t>2.486428106206611</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.33892579962715</t>
+          <t>2.297722387185388</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1779,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>22.38181115144198</t>
+          <t>22.38745277764351</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>14.84777914869595</t>
+          <t>14.92595341110556</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>11.38151207228451</t>
+          <t>11.35031745559012</t>
         </is>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.87663905844332</t>
+          <t>4.91589382771485</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1.8429150235161127</t>
+          <t>1.8497757235907146</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>8.712345666546153</t>
+          <t>8.771913125587318</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>6.401310324170314</t>
+          <t>6.38770030594806</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4.693997582467941</t>
+          <t>4.655963752766076</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>17.313279975243763</t>
+          <t>17.3300552018847</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5.3494593466352</t>
+          <t>5.310684432140846</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.965899006688393</t>
+          <t>2.9458376764405765</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>9.88179814082591</t>
+          <t>9.895094733776656</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1.750559429739199</t>
+          <t>1.7532688716770595</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>20.26808043465311</t>
+          <t>20.38737902051043</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.486043795177633</t>
+          <t>5.478900849429557</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.276361523360335</t>
+          <t>1.268443040166403</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>54.07252981359464</t>
+          <t>54.20883829366797</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>4.01854211359246</t>
+          <t>3.9694963842593007</t>
         </is>
       </c>
     </row>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.250672144936491</t>
+          <t>1.2496739503328804</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0.8604193460838178</t>
+          <t>0.859995667378919</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>3.3192957039006785</t>
+          <t>3.3005852031267007</t>
         </is>
       </c>
     </row>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3.6182988059561523</t>
+          <t>3.592534748504375</t>
         </is>
       </c>
     </row>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4.546671485745087</t>
+          <t>4.552388264806379</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>3.432217304961077</t>
+          <t>3.443342726832755</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1.4004042643876904</t>
+          <t>1.377178211026834</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1.28156933822385</t>
+          <t>1.2763530427513103</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>6.5736518811180105</t>
+          <t>6.650703062257179</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3.4063527374919804</t>
+          <t>3.4340534470110917</t>
         </is>
       </c>
     </row>
@@ -2832,7 +2832,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.44742867123839525</t>
+          <t>0.44345436489767703</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1.6223833140497252</t>
+          <t>1.619191851919871</t>
         </is>
       </c>
     </row>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>4.366855068037985</t>
+          <t>4.336444886137201</t>
         </is>
       </c>
     </row>
@@ -3048,7 +3048,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.3976157401778532</t>
+          <t>0.39539131863151994</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3075,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1.0810699922687406</t>
+          <t>1.089953394938471</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>0.7796399984198377</t>
+          <t>0.7836741422617465</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>8.676891231506659</t>
+          <t>8.69032269465393</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>2.8005348905121963</t>
+          <t>2.784631094709269</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>4.002197014066279</t>
+          <t>4.030512923622615</t>
         </is>
       </c>
     </row>
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>2.058372994148601</t>
+          <t>2.0583950965716014</t>
         </is>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1.7127979956792942</t>
+          <t>1.6981141849685841</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>49.56577310208046</t>
+          <t>49.521640640256095</t>
         </is>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>82.95875859026279</t>
+          <t>83.08955784454183</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>0.9297497792013262</t>
+          <t>0.9280102054287258</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>60.06316797591067</t>
+          <t>60.29824443049583</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>4.229127633850586</t>
+          <t>4.263344208868034</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>2.5287416735598325</t>
+          <t>2.522342294145513</t>
         </is>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>4.065900232086001</t>
+          <t>4.066932146227799</t>
         </is>
       </c>
     </row>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>4.613757260872163</t>
+          <t>4.558329840297418</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>61.4180786472004</t>
+          <t>61.38919286265684</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>10.758442184261444</t>
+          <t>10.752363526689678</t>
         </is>
       </c>
     </row>
@@ -3858,7 +3858,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>3.3385345848236483</t>
+          <t>3.3198485871768924</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>3.743821950374197</t>
+          <t>3.7563990132433602</t>
         </is>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>5.033563259415903</t>
+          <t>5.028445674581727</t>
         </is>
       </c>
     </row>
@@ -3939,7 +3939,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>9.794649825086324</t>
+          <t>9.840593321400505</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3966,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>12.135444688483332</t>
+          <t>12.044007838921315</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3.956101898012406</t>
+          <t>3.9015109035647977</t>
         </is>
       </c>
     </row>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>53.568414534572746</t>
+          <t>54.05974919443851</t>
         </is>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>4.603038273265105</t>
+          <t>4.589939280911186</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>42.86235352005351</t>
+          <t>42.75078586491926</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>12.16312867635982</t>
+          <t>12.08932067527927</t>
         </is>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>3.495290430203785</t>
+          <t>3.4775022852390345</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>3.134847026857715</t>
+          <t>3.127084131125923</t>
         </is>
       </c>
     </row>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>71.2422940343525</t>
+          <t>71.48487493717154</t>
         </is>
       </c>
     </row>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>5.859003455898201</t>
+          <t>5.849640170119416</t>
         </is>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>63.73247000157939</t>
+          <t>63.67447865650009</t>
         </is>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>7.594569612063516</t>
+          <t>7.627986382614932</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4506,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>1.6072617837455707</t>
+          <t>1.5783601428107232</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>97.3202869754996</t>
+          <t>97.3728926432908</t>
         </is>
       </c>
     </row>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>21.35993838258634</t>
+          <t>21.50132519199474</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4587,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.195708751193139</t>
+          <t>5.213013695818579</t>
         </is>
       </c>
     </row>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>3.8455489519328507</t>
+          <t>3.883199951939406</t>
         </is>
       </c>
     </row>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>2.0087262667457657</t>
+          <t>1.9947951949582958</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>4.7838059877067565</t>
+          <t>4.769813190912998</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>97.9529183749649</t>
+          <t>97.97865836037987</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>18.532170519269055</t>
+          <t>18.505142760529168</t>
         </is>
       </c>
     </row>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>87.6127647122643</t>
+          <t>87.75953154826179</t>
         </is>
       </c>
     </row>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>12.73827846159867</t>
+          <t>12.79915897874381</t>
         </is>
       </c>
     </row>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>4.05085083221628</t>
+          <t>4.521395035260309</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.9125676977243344</t>
         </is>
       </c>
     </row>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>54.42737804336895</t>
+          <t>9.660221919529228</t>
         </is>
       </c>
     </row>
@@ -4987,12 +4987,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>63.89425542059427</t>
+          <t>4.04544147620112</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.119489145234795</t>
+          <t>9.761091559169799</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LR_PHY_Buu_Bois</t>
+          <t>DFLR_PHY_Buu_Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.88881714613055</t>
+          <t>20.550341814468673</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LR_STR_GT_Duo</t>
+          <t>DFLR_STR_GT_Duo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.602065457321771</t>
+          <t>5.100269432844584</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_TEQ_Fusion_Zamasu</t>
+          <t>DFLR_TEQ_Fusion_Zamasu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.64603469490743</t>
+          <t>89.05775365126465</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.1966119657344</t>
+          <t>28.360934907238175</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.831383098427764</t>
+          <t>12.367395542094705</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.164681246660392</t>
+          <t>15.54309710321133</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82.57898631023029</t>
+          <t>64.33532095603707</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.161636520099421</t>
+          <t>7.773118256406022</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,161 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.3196996008513815</t>
+          <t>6.303014270008721</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DF_INT_ToP_Androids</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.0987740482617</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BU_STR_Universe_2</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DF_AGL_Berserk_Kale</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.571905174214976</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DF_PHY_God_Goku</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.912581234610627</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DF_PHY_Kid_Goku</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>29.12503072830121</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DF_TEQ_Fusing_Kefla</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DF_STR_Costume_Videl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.0</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.761091559169799</t>
+          <t>10.373584225778686</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.550341814468673</t>
+          <t>21.446181856241402</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.100269432844584</t>
+          <t>5.20590039031066</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.05775365126465</t>
+          <t>88.2506295351034</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.360934907238175</t>
+          <t>25.93989040877791</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.367395542094705</t>
+          <t>12.40117173496779</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.54309710321133</t>
+          <t>15.125651448587158</t>
         </is>
       </c>
     </row>
@@ -710,12 +710,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>64.33532095603707</t>
+          <t>5.515328241847598</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.773118256406022</t>
+          <t>8.045269717192497</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.303014270008721</t>
+          <t>5.712479049338848</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>28.0987740482617</t>
+          <t>25.31299817839232</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.571905174214976</t>
+          <t>7.942940406441323</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.912581234610627</t>
+          <t>15.761524393444859</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>29.12503072830121</t>
+          <t>30.477289742607276</t>
         </is>
       </c>
     </row>
@@ -914,6 +914,50 @@
       <c r="D22" t="inlineStr">
         <is>
           <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CLR_INT_Kid_Gohan</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>30.96990782306011</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CLR_AGL_Kai_Goku</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>62.97910095461852</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C4282-94D5-4D6B-BA44-886FCA036AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C6415-7CF3-4A1A-8D79-76C103CDD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>DFLR_AGL_DBS_Broly</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>CLR_PHY_Gogeta_Blue</t>
   </si>
 </sst>
 </file>
@@ -615,16 +621,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{35B82391-4231-4217-B46F-811B952FE41F}" name="Table1" displayName="Table1" ref="A1:D67" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D67" xr:uid="{35B82391-4231-4217-B46F-811B952FE41F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D67">
-    <sortCondition descending="1" ref="D1:D67"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85F9D06-840D-46E3-AB02-124C2F3367FB}" name="Table1" displayName="Table1" ref="A1:D68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D68" xr:uid="{E85F9D06-840D-46E3-AB02-124C2F3367FB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
+    <sortCondition descending="1" ref="D1:D68"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B0C3DCA1-B483-4DB7-B645-23EBCCD5CEA8}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{DCA31141-8ED1-4812-B8E9-F49F77CBA54F}" name="Common Name"/>
-    <tableColumn id="3" xr3:uid="{2FF79328-D6F8-424C-A726-86FF7B09F0C5}" name="# Copies"/>
-    <tableColumn id="4" xr3:uid="{19A15790-3FEA-4813-A9A5-1A98703A2C92}" name="Summon Rating"/>
+    <tableColumn id="1" xr3:uid="{5790A8BE-6B83-4A1A-976D-128186521871}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6D37370C-6611-48D1-BB5F-65BE92143A09}" name="Common Name"/>
+    <tableColumn id="3" xr3:uid="{90627F1D-5BF3-460D-BA47-500044C36871}" name="# Copies"/>
+    <tableColumn id="4" xr3:uid="{D48277A1-1A4F-42F0-97D7-05C1ACEBDD8B}" name="Summon Rating"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -915,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -944,436 +950,436 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>93.803264153432806</v>
+        <v>97.362689732708205</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>78.969568381164905</v>
+        <v>86.513634158761704</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>76.145341389351302</v>
+        <v>66.915389722843699</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>68.905703118634804</v>
+        <v>63.468843729376502</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>48.2458537877311</v>
+        <v>55.506508164532299</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>45.835647225630403</v>
+        <v>37.833154521239997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>37.3863520132874</v>
+        <v>35.287443620906203</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>29.478620581304899</v>
+        <v>27.357707161422699</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>29.274123759218501</v>
+        <v>22.548672210498701</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>24.737825728871002</v>
+        <v>21.9394500939054</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>22.129505909279199</v>
+        <v>18.8881804915661</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>18.2064475420515</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>19.876577075070699</v>
+        <v>17.877552167988298</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>17.1818139063747</v>
+        <v>15.256853473637999</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
       </c>
       <c r="D16">
-        <v>16.905306380266801</v>
+        <v>13.295220899274</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>16.2099721400802</v>
+        <v>13.270525895604999</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>14.149066374115799</v>
+        <v>13.1276625730876</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>12.921313780808999</v>
+        <v>13.0804463577312</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D20">
-        <v>12.6706705453947</v>
+        <v>12.733362500568999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>12.2690964812011</v>
+        <v>12.430338207970101</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>12.1285796675886</v>
+        <v>11.9135095524554</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>11.272154588775001</v>
+        <v>11.6666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>10.4949801153462</v>
+        <v>11.482224098817101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>10.251153307094</v>
+        <v>10.171447375334401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>10.1267278537278</v>
+        <v>9.7672188192035492</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>10.0034825749372</v>
+        <v>9.1009991119393305</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>7.9774199273968902</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>9.4004187644125992</v>
+        <v>7.9235922479616496</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>9.0639496475002108</v>
+        <v>7.8862404504678603</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>8.72438750339502</v>
+        <v>7.81128504196103</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>8.4700490874334502</v>
+        <v>7.3373246991474401</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1387,63 +1393,63 @@
         <v>12</v>
       </c>
       <c r="D33">
-        <v>7.9791295799636499</v>
+        <v>6.4923747346875</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7.8995738385133398</v>
+        <v>6.4800186856588304</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>7.8988020716405796</v>
+        <v>6.4349171523538899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D36">
-        <v>7.8776612836862503</v>
+        <v>6.3553836036461497</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>7.27205810884249</v>
+        <v>5.9953001861686399</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1457,186 +1463,186 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>7.0580260157208699</v>
+        <v>5.8957185078455998</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>6.7260577012078597</v>
+        <v>5.8811229486653902</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D40">
-        <v>5.9867092789305802</v>
+        <v>5.7082038466488196</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
-        <v>5.3226172882364997</v>
+        <v>5.4895071829400504</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>5.00839980153855</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C43" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>4.2811798382092299</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>3.88888888888888</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D45">
-        <v>4.9561141665459703</v>
+        <v>3.2712620901076299</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D46">
-        <v>4.5022365738085597</v>
+        <v>3.2627471490064002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D47">
-        <v>4.0702008422459199</v>
+        <v>3.10217010377563</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D48">
-        <v>4.0498720081135398</v>
+        <v>3.0781020852924299</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D49">
-        <v>3.5634061359873002</v>
+        <v>2.8337315067920499</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D50">
-        <v>3.2174985308677502</v>
+        <v>2.5650989206881998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <v>2.5</v>
@@ -1644,136 +1650,136 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
       </c>
       <c r="D52">
-        <v>2.5</v>
+        <v>2.1647129764519399</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>2.5</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D55">
-        <v>2.5</v>
+        <v>1.0805233839916</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D56">
-        <v>2.2737983891978</v>
+        <v>0.64814814814814703</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D57">
-        <v>1.4707223053919201</v>
+        <v>0.64814814814814703</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>0.625</v>
+        <v>0.55555555555555503</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>0.625</v>
+        <v>0.28127936749385801</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D60">
-        <v>0.2</v>
+        <v>0.27777777777777701</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
@@ -1784,10 +1790,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
@@ -1798,10 +1804,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -1812,10 +1818,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
@@ -1826,10 +1832,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
@@ -1840,10 +1846,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
@@ -1854,15 +1860,29 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
         <v>0.2</v>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181C6415-7CF3-4A1A-8D79-76C103CDD7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE3626-950A-44B7-A84D-8365EECFB3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,16 +621,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85F9D06-840D-46E3-AB02-124C2F3367FB}" name="Table1" displayName="Table1" ref="A1:D68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D68" xr:uid="{E85F9D06-840D-46E3-AB02-124C2F3367FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DEBCCCA-EAC1-419C-8DD0-3BBC81E4B863}" name="Table1" displayName="Table1" ref="A1:D68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D68" xr:uid="{4DEBCCCA-EAC1-419C-8DD0-3BBC81E4B863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
     <sortCondition descending="1" ref="D1:D68"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5790A8BE-6B83-4A1A-976D-128186521871}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{6D37370C-6611-48D1-BB5F-65BE92143A09}" name="Common Name"/>
-    <tableColumn id="3" xr3:uid="{90627F1D-5BF3-460D-BA47-500044C36871}" name="# Copies"/>
-    <tableColumn id="4" xr3:uid="{D48277A1-1A4F-42F0-97D7-05C1ACEBDD8B}" name="Summon Rating"/>
+    <tableColumn id="1" xr3:uid="{1C0F2F64-856D-4A6C-8BDC-A24E1DBAE3F3}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4C513DDC-FF2B-4CA5-8D4D-2A0E5CEF73F6}" name="Common Name"/>
+    <tableColumn id="3" xr3:uid="{429A3662-531A-406D-8A15-EA015D1B036A}" name="# Copies"/>
+    <tableColumn id="4" xr3:uid="{084306BA-0C1D-4CFA-9D39-B9E42B1DF7A8}" name="Summon Rating"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -924,7 +924,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -959,7 +959,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>97.362689732708205</v>
+        <v>97.289028294785098</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>86.513634158761704</v>
+        <v>87.111588280457596</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -987,7 +987,7 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>66.915389722843699</v>
+        <v>66.7162302824254</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1001,7 +1001,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>63.468843729376502</v>
+        <v>66.173367480768405</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -1015,35 +1015,35 @@
         <v>12</v>
       </c>
       <c r="D6">
-        <v>55.506508164532299</v>
+        <v>58.404595678348798</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>37.833154521239997</v>
+        <v>37.314536194994602</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>35.287443620906203</v>
+        <v>35.572172698369798</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -1057,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="D9">
-        <v>27.357707161422699</v>
+        <v>25.474533440763899</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -1071,7 +1071,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>22.548672210498701</v>
+        <v>21.650107050428801</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -1085,35 +1085,35 @@
         <v>12</v>
       </c>
       <c r="D11">
-        <v>21.9394500939054</v>
+        <v>21.131272104885198</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>18.8881804915661</v>
+        <v>20.850034715305899</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>18.2064475420515</v>
+        <v>18.601354765816101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1127,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>17.877552167988298</v>
+        <v>18.2679421600415</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -1141,7 +1141,7 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>15.256853473637999</v>
+        <v>17.999833336750701</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>13.295220899274</v>
+        <v>13.868222670004601</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -1169,7 +1169,7 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>13.270525895604999</v>
+        <v>13.588417901608301</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -1183,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>13.1276625730876</v>
+        <v>13.1893802705131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -1197,49 +1197,49 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>13.0804463577312</v>
+        <v>12.8859814594589</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>12.733362500568999</v>
+        <v>12.733009048835299</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
       </c>
       <c r="D21">
-        <v>12.430338207970101</v>
+        <v>12.269960172870899</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>11.9135095524554</v>
+        <v>11.8369627941298</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -1267,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="D24">
-        <v>11.482224098817101</v>
+        <v>11.1609041340877</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -1281,7 +1281,7 @@
         <v>12</v>
       </c>
       <c r="D25">
-        <v>10.171447375334401</v>
+        <v>10.0540333718135</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -1295,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="D26">
-        <v>9.7672188192035492</v>
+        <v>9.9169089561652299</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1309,49 +1309,49 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>9.1009991119393305</v>
+        <v>9.1778231659976495</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>7.9774199273968902</v>
+        <v>8.7721361902766404</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="D29">
-        <v>7.9235922479616496</v>
+        <v>8.0693539279991597</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>7.8862404504678603</v>
+        <v>7.80020529402496</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1365,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>7.81128504196103</v>
+        <v>7.7558330044186903</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1379,77 +1379,77 @@
         <v>6</v>
       </c>
       <c r="D32">
-        <v>7.3373246991474401</v>
+        <v>7.48717829743872</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>6.4923747346875</v>
+        <v>6.7195086483953901</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D34">
-        <v>6.4800186856588304</v>
+        <v>6.5919615687956403</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>6.4349171523538899</v>
+        <v>6.2709605473800503</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>6.3553836036461497</v>
+        <v>6.14367825330587</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
-        <v>5.9953001861686399</v>
+        <v>6.08271645739402</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1463,49 +1463,49 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>5.8957185078455998</v>
+        <v>5.8691380601277601</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>5.8811229486653902</v>
+        <v>5.6332727773910101</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>5.7082038466488196</v>
+        <v>5.60064792754397</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41">
-        <v>5.4895071829400504</v>
+        <v>5.51652602120976</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1519,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="D42">
-        <v>5.00839980153855</v>
+        <v>5.0267067982988296</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1533,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>4.2811798382092299</v>
+        <v>4.3435066172070398</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1552,30 +1552,30 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>3.2712620901076299</v>
+        <v>3.4802198346159301</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D46">
-        <v>3.2627471490064002</v>
+        <v>3.1833180885313501</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1589,21 +1589,21 @@
         <v>4</v>
       </c>
       <c r="D47">
-        <v>3.10217010377563</v>
+        <v>3.1551464656112098</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>3.0781020852924299</v>
+        <v>3.1105053178457802</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1617,35 +1617,35 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>2.8337315067920499</v>
+        <v>2.5141742618609602</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50">
-        <v>2.5650989206881998</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B51" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51">
-        <v>2.5</v>
+        <v>2.33659526928952</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -1659,29 +1659,29 @@
         <v>4</v>
       </c>
       <c r="D52">
-        <v>2.1647129764519399</v>
+        <v>2.3340224522152702</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
       </c>
       <c r="D53">
-        <v>1.6666666666666601</v>
+        <v>1.8789236961097799</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1692,16 +1692,16 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>1.0805233839916</v>
+        <v>1.6666666666666601</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -1748,30 +1748,30 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D59">
-        <v>0.28127936749385801</v>
+        <v>0.27777777777777701</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D60">
-        <v>0.27777777777777701</v>
+        <v>0.24605078861170401</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7AE3626-950A-44B7-A84D-8365EECFB3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A6A715-7E9F-4561-8888-D1AFD2C41742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="187">
   <si>
     <t>ID</t>
   </si>
@@ -437,6 +437,150 @@
   </si>
   <si>
     <t>CLR_PHY_Gogeta_Blue</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>BU_PHY_Gohan_Teen</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>BU_PHY_Super_Buu</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>BU_AGL_Pan_GT</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>BU_AGL_General_Rilldo</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>BU_STR_SS_Cabba</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>BU_STR_Hit_</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>BU_TEQ_Tien_</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>BU_TEQ_2ndForm_Cell</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>BU_INT_Kid_Gohan</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>BU_INT_Namek_Vegeta</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>LR_TEQ_SS3_Goku</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>CLR_INT_SS_Trio</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>LR_PHY_Android_Trio</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>DFLR_STR_Beast_Gohan</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>BU_AGL_Krillin_Android18</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>CLR_INT_Gammas_</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>DF_PHY_Goku_Black</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>DFLR_INT_Vegeta_Trunks</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>DF_INT_Future_Gohan</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>BU_STR_Future_Mai</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>BU_PHY_Gowasu_Zamasu</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>BU_PHY_Zamasu_</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DFLR_AGL_MUI_Goku</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>DFLR_INT_EvoBlue_Vegeta</t>
   </si>
 </sst>
 </file>
@@ -621,16 +765,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DEBCCCA-EAC1-419C-8DD0-3BBC81E4B863}" name="Table1" displayName="Table1" ref="A1:D68" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D68" xr:uid="{4DEBCCCA-EAC1-419C-8DD0-3BBC81E4B863}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D68">
-    <sortCondition descending="1" ref="D1:D68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0FEF9C7E-91E2-44A9-92F4-EBBBFB648A27}" name="Table1" displayName="Table1" ref="A1:D92" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:D92" xr:uid="{0FEF9C7E-91E2-44A9-92F4-EBBBFB648A27}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D92">
+    <sortCondition descending="1" ref="D1:D92"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1C0F2F64-856D-4A6C-8BDC-A24E1DBAE3F3}" name="ID" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{4C513DDC-FF2B-4CA5-8D4D-2A0E5CEF73F6}" name="Common Name"/>
-    <tableColumn id="3" xr3:uid="{429A3662-531A-406D-8A15-EA015D1B036A}" name="# Copies"/>
-    <tableColumn id="4" xr3:uid="{084306BA-0C1D-4CFA-9D39-B9E42B1DF7A8}" name="Summon Rating"/>
+    <tableColumn id="1" xr3:uid="{24A5448C-BE72-4C01-9B68-5FA765127099}" name="ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B64D5E85-36D6-485D-AC15-B49C1333B6F7}" name="Common Name"/>
+    <tableColumn id="3" xr3:uid="{9C94F3AE-624C-414D-A1B2-98EF1F1DFE54}" name="# Copies"/>
+    <tableColumn id="4" xr3:uid="{A9F172DA-28EF-4041-83AE-3A3B14407870}" name="Summon Rating"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -921,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -950,44 +1094,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
-        <v>97.289028294785098</v>
+        <v>98.022791969058602</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>87.111588280457596</v>
+        <v>96.495374875435004</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4">
-        <v>66.7162302824254</v>
+        <v>85.055648767041205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1001,119 +1145,119 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>66.173367480768405</v>
+        <v>62.287452463178298</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>58.404595678348798</v>
+        <v>58.971861162038699</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>37.314536194994602</v>
+        <v>55.3008264725526</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>35.572172698369798</v>
+        <v>55.183099313816598</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>25.474533440763899</v>
+        <v>42.797618346763898</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>21.650107050428801</v>
+        <v>29.062581578640501</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>21.131272104885198</v>
+        <v>27.691554700876399</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12">
-        <v>20.850034715305899</v>
+        <v>23.600607159267501</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>18.601354765816101</v>
+        <v>23.511003663161901</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1127,762 +1271,1098 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>18.2679421600415</v>
+        <v>20.174910457734601</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>17.999833336750701</v>
+        <v>19.240499008663299</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>13.868222670004601</v>
+        <v>16.844476417734501</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>13.588417901608301</v>
+        <v>16.349158732050501</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
       <c r="D18">
-        <v>13.1893802705131</v>
+        <v>16.262813926256602</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>12.8859814594589</v>
+        <v>14.204405241348001</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>12.733009048835299</v>
+        <v>13.750329784951701</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>12.269960172870899</v>
+        <v>13.579073838291899</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>11.8369627941298</v>
+        <v>13.365643779770799</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>147</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23">
-        <v>11.6666666666666</v>
+        <v>13.3119237019917</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
       <c r="D24">
-        <v>11.1609041340877</v>
+        <v>13.233046680733599</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25">
-        <v>10.0540333718135</v>
+        <v>12.971046056864401</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>9.9169089561652299</v>
+        <v>12.785916836244599</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>9.1778231659976495</v>
+        <v>12.6178566953346</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D28">
-        <v>8.7721361902766404</v>
+        <v>11.8298659921367</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>8.0693539279991597</v>
+        <v>11.6666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>7.80020529402496</v>
+        <v>11.5670437365851</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>7.7558330044186903</v>
+        <v>11.408016765277599</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>7.48717829743872</v>
+        <v>10.869052458020599</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
       </c>
       <c r="D33">
-        <v>6.7195086483953901</v>
+        <v>9.6066074326758901</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>6.5919615687956403</v>
+        <v>9.3761759717375295</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>6.2709605473800503</v>
+        <v>8.2997609121394902</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>6.14367825330587</v>
+        <v>7.85247831518359</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>6.08271645739402</v>
+        <v>7.3199674435065001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38">
-        <v>5.8691380601277601</v>
+        <v>6.9521253620835601</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39">
-        <v>5.6332727773910101</v>
+        <v>6.6998545492117598</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
       <c r="D40">
-        <v>5.60064792754397</v>
+        <v>6.5226240495562697</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D41">
-        <v>5.51652602120976</v>
+        <v>6.3477442214732998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>5.0267067982988296</v>
+        <v>5.7911200096659501</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43">
-        <v>4.3435066172070398</v>
+        <v>5.4597627790951702</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
       </c>
       <c r="D44">
-        <v>3.88888888888888</v>
+        <v>5.4519385305758199</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D45">
-        <v>3.4802198346159301</v>
+        <v>5.05429540757802</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46">
-        <v>3.1833180885313501</v>
+        <v>5.0410396600824701</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D47">
-        <v>3.1551464656112098</v>
+        <v>4.9976255404624901</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D48">
-        <v>3.1105053178457802</v>
+        <v>4.6486413553941697</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D49">
-        <v>2.5141742618609602</v>
+        <v>4.6221957927295003</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D50">
-        <v>2.5</v>
+        <v>4.4021357567781303</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>2.33659526928952</v>
+        <v>4.4019043011400703</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>2.3340224522152702</v>
+        <v>4.3603645422644801</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D53">
-        <v>1.8789236961097799</v>
+        <v>4.1836348485379302</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D54">
-        <v>1.6666666666666601</v>
+        <v>3.88888888888888</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>1.6666666666666601</v>
+        <v>3.8157703791333</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>0.64814814814814703</v>
+        <v>3.4648028576480998</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
       <c r="D57">
-        <v>0.64814814814814703</v>
+        <v>3.4362522990822399</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>0.55555555555555503</v>
+        <v>3.3848706695484698</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>0.27777777777777701</v>
+        <v>3.2983788050727698</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>0.24605078861170401</v>
+        <v>3.2956759038100101</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D61">
-        <v>0.2</v>
+        <v>3.1371966377698</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D62">
-        <v>0.2</v>
+        <v>2.91498962976025</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D63">
-        <v>0.2</v>
+        <v>2.8557738182725201</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D64">
-        <v>0.2</v>
+        <v>2.77896129611488</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D65">
-        <v>0.2</v>
+        <v>2.75496618181108</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>0.2</v>
+        <v>2.4655432270393001</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>0.2</v>
+        <v>2.4544420742647302</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68">
+        <v>2.3881794717804898</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>2.1077973015887501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>2.0981509746717699</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>1.6948660689989099</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>1.6704665412926301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>1.6666666666666601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>1.5606830856595799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>94</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>1.27619381381577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B77" t="s">
+        <v>182</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>0.78170609828939897</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>0.64814814814814703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>0.64814814814814703</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>0.27777777777777701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>98</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B90" t="s">
         <v>124</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C90" t="s">
         <v>13</v>
       </c>
-      <c r="D68">
+      <c r="D90">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
         <v>0.2</v>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.972514902832145</t>
+          <t>14.133340412625804</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.410838986358154</t>
+          <t>19.077895625846853</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.650310174391976</t>
+          <t>16.868613330468833</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.539487960232243</t>
+          <t>10.352530283634735</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.92740889203912</t>
+          <t>10.34971053072163</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.691451999173708</t>
+          <t>6.510814244639059</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.711740702908826</t>
+          <t>5.578333906768179</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.219838303694438</t>
+          <t>7.309310127153189</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.988977739627039</t>
+          <t>10.940510380601005</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.8384657405812717</t>
+          <t>2.6268567181014317</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.72467347850123</t>
+          <t>22.2859941312868</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.45539082548779</t>
+          <t>9.389287054125319</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.198148175704631</t>
+          <t>14.190860551586304</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.3636599358607</t>
+          <t>10.98307009639102</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.609374730635527</t>
+          <t>4.082528974969949</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27.93713354888283</t>
+          <t>27.08002772244592</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22.73258870469467</t>
+          <t>21.97372854706214</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.48789194612867</t>
+          <t>4.462902158067706</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.5120981025986335</t>
+          <t>7.114561657913072</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.2595112082838</t>
+          <t>15.724323622620199</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9.155712695763006</t>
+          <t>8.877955651729955</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.982700694071748</t>
+          <t>2.685810565637707</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.2700325082870787</t>
+          <t>3.067226924536795</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>7.159001145377904</t>
+          <t>6.59582218088197</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>61.11789243840044</t>
+          <t>64.78687639641227</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.021177050309134</t>
+          <t>14.134038143912903</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13.697531098961761</t>
+          <t>13.745754425097564</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.9026921747339287</t>
+          <t>2.83537508308558</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.6152746899239623</t>
+          <t>2.5284272519392257</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62.70960043427856</t>
+          <t>62.34850144228113</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.783749618205675</t>
+          <t>6.795075598727976</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12.05835809736988</t>
+          <t>11.34255459010593</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.1865071665576927</t>
+          <t>1.0477672544943877</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.513698487640049</t>
+          <t>3.2532313569149847</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.2186149367987724</t>
+          <t>3.2795068569092893</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.106392065022155</t>
+          <t>2.1615896714057374</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.797291489616786</t>
+          <t>6.865860983112577</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.2202147483669443</t>
+          <t>2.921017307124261</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.427887581710476</t>
+          <t>1.2962962962962958</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20.420389897583362</t>
+          <t>20.311560476932023</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.600513207820268</t>
+          <t>4.669913530351197</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.518224883595008</t>
+          <t>5.655445028056643</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5.058758282468045</t>
+          <t>4.900064301327429</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.30571430479678</t>
+          <t>4.117636032410978</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.6889718802432885</t>
+          <t>3.4799681180262105</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.446786643714773</t>
+          <t>12.612343854748275</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11.73672107134577</t>
+          <t>12.18306577064891</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16.22300733610504</t>
+          <t>16.07008016401693</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>84.53678030551835</t>
+          <t>83.1312508532607</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.65576530942496</t>
+          <t>96.55930484816379</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.525706534336909</t>
+          <t>2.3591775203152823</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4.080637633290956</t>
+          <t>3.831163045718534</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.5473346699357378</t>
+          <t>2.383002484969857</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.8792378957230493</t>
+          <t>3.6776361212976343</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12.674919353436763</t>
+          <t>12.36190870176738</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.3319072378465915</t>
+          <t>4.128562334741663</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.5086634805707633</t>
+          <t>1.386542352415373</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5.090311905066295</t>
+          <t>4.836681769311175</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12.222203010965654</t>
+          <t>11.908048677191992</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.1851064819689223</t>
+          <t>2.974753956948206</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.058174473298449</t>
+          <t>1.9379151650275726</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>41.87972829063806</t>
+          <t>39.31061310425023</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.304179304603709</t>
+          <t>8.179683151192107</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>98.01678357597685</t>
+          <t>98.09400349519292</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.422463491454412</t>
+          <t>2.271869476881736</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>53.80327721004567</t>
+          <t>52.51537479829067</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>26.34169436548518</t>
+          <t>24.76966023485272</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.59317021085576</t>
+          <t>13.803210325440759</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.671748018887158</t>
+          <t>4.659542244013985</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.5467567232234287</t>
+          <t>1.4287527744381399</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.7500051326379014</t>
+          <t>2.7266508617553966</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.776438877854699</t>
+          <t>0.7004388124634752</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,205 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11.857060478308021</t>
+          <t>11.798349300571095</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DFLR_PHY_Buutenks_</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DFLR_STR_SS_Vegito</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>BU_INT_Dodoria_</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>16.43953697967035</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DF_AGL_1stForm_Frieza</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>48.09467853489954</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DF_AGL_SS_Bardock</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>BU_AGL_King_Vegeta</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>12.20756811006764</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DF_TEQ_SS_Vegeta</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>75.73779918278534</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DF_AGL_DragonFist_Goku</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.0054013442748255</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DFLR_INT_SFPS4_Goku</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.968161313573148</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.133340412625804</t>
+          <t>14.132857333438793</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.077895625846853</t>
+          <t>19.078635313671487</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.868613330468833</t>
+          <t>16.86804957264372</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.352530283634735</t>
+          <t>10.352979166817128</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.34971053072163</t>
+          <t>10.35100322721796</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.510814244639059</t>
+          <t>6.5104002628833495</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.578333906768179</t>
+          <t>5.5784055063340965</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.309310127153189</t>
+          <t>7.308084443450454</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.940510380601005</t>
+          <t>10.941165841762583</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.6268567181014317</t>
+          <t>2.6268304323492213</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.2859941312868</t>
+          <t>22.2901640142887</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.389287054125319</t>
+          <t>9.389159900756226</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.190860551586304</t>
+          <t>14.191060735235943</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.98307009639102</t>
+          <t>10.985494960541278</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.082528974969949</t>
+          <t>4.083060905109048</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27.08002772244592</t>
+          <t>27.08307945869664</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21.97372854706214</t>
+          <t>21.9791299340416</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.462902158067706</t>
+          <t>4.462258580812701</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.114561657913072</t>
+          <t>7.1144524098602515</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15.724323622620199</t>
+          <t>15.72633295413688</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.877955651729955</t>
+          <t>8.876157870353966</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.685810565637707</t>
+          <t>2.686678092555963</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.067226924536795</t>
+          <t>3.0680096503521805</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.59582218088197</t>
+          <t>6.596082923040191</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>64.78687639641227</t>
+          <t>64.78256506104303</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.134038143912903</t>
+          <t>14.134553587646586</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13.745754425097564</t>
+          <t>13.74467659989817</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.83537508308558</t>
+          <t>2.8351612877348416</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.5284272519392257</t>
+          <t>2.528322711879049</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62.34850144228113</t>
+          <t>62.34615746532614</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.795075598727976</t>
+          <t>6.7937218939612976</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11.34255459010593</t>
+          <t>11.34285606471344</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.0477672544943877</t>
+          <t>1.0478559782110182</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.2532313569149847</t>
+          <t>3.2537511408730624</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.2795068569092893</t>
+          <t>28.037927745968446</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.1615896714057374</t>
+          <t>2.1617461901411605</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.865860983112577</t>
+          <t>6.865160109630305</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.921017307124261</t>
+          <t>2.921401860711616</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20.311560476932023</t>
+          <t>20.3115961545465</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.669913530351197</t>
+          <t>4.669968356634079</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.655445028056643</t>
+          <t>5.654864944514908</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.900064301327429</t>
+          <t>4.900284055080419</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.117636032410978</t>
+          <t>4.117522396646869</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.4799681180262105</t>
+          <t>3.48046501322629</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.612343854748275</t>
+          <t>12.612790636182957</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.18306577064891</t>
+          <t>12.181641524022865</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16.07008016401693</t>
+          <t>16.06909372770657</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>83.1312508532607</t>
+          <t>83.13221356728918</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.55930484816379</t>
+          <t>96.55924705790383</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.3591775203152823</t>
+          <t>2.359899243802385</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.831163045718534</t>
+          <t>3.83224625823254</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.383002484969857</t>
+          <t>2.383768508382552</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.6776361212976343</t>
+          <t>3.67853795375526</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12.36190870176738</t>
+          <t>12.365358993764211</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.128562334741663</t>
+          <t>4.129497221360352</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.386542352415373</t>
+          <t>1.3869765361553135</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.836681769311175</t>
+          <t>4.8377838645686735</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11.908048677191992</t>
+          <t>11.91122583150462</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.974753956948206</t>
+          <t>2.9755835678819724</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.9379151650275726</t>
+          <t>11.791371934329248</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>39.31061310425023</t>
+          <t>39.32001335034202</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.179683151192107</t>
+          <t>8.179218536621091</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>98.09400349519292</t>
+          <t>98.09406650013413</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.271869476881736</t>
+          <t>2.271762874101956</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>52.51537479829067</t>
+          <t>52.51438959676666</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>24.76966023485272</t>
+          <t>24.765808193381645</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.803210325440759</t>
+          <t>13.802628746663991</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.659542244013985</t>
+          <t>4.659457557810683</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.4287527744381399</t>
+          <t>1.4288398482509048</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.7266508617553966</t>
+          <t>2.7263747212195844</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.7004388124634752</t>
+          <t>0.7005651266453613</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11.798349300571095</t>
+          <t>11.798381623277185</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16.43953697967035</t>
+          <t>16.43805485276187</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>48.09467853489954</t>
+          <t>48.10705139526472</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12.20756811006764</t>
+          <t>12.20922342273179</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>75.73779918278534</t>
+          <t>75.73586210801837</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4.0054013442748255</t>
+          <t>4.005429435016678</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5.968161313573148</t>
+          <t>6.24945950943237</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.132857333438793</t>
+          <t>13.934954281365059</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.078635313671487</t>
+          <t>19.035593574077964</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.86804957264372</t>
+          <t>19.901058498794868</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.352979166817128</t>
+          <t>11.300157497601113</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.35100322721796</t>
+          <t>9.926541036355664</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.5104002628833495</t>
+          <t>6.1816095001537885</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.5784055063340965</t>
+          <t>4.991222839904612</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.6666666666666665</t>
+          <t>8.412312983206034</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.308084443450454</t>
+          <t>7.49275496744513</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.941165841762583</t>
+          <t>9.774961204644338</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.6268304323492213</t>
+          <t>2.5836959965259223</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>22.2901640142887</t>
+          <t>19.05937584544865</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.389159900756226</t>
+          <t>9.517985418043608</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.191060735235943</t>
+          <t>14.566050696452443</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>10.985494960541278</t>
+          <t>9.357082390747884</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.083060905109048</t>
+          <t>2.9730996990419536</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27.08307945869664</t>
+          <t>23.23027850337947</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>21.9791299340416</t>
+          <t>16.93275173856362</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.462258580812701</t>
+          <t>4.7252001536921995</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.1144524098602515</t>
+          <t>6.446832018979371</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15.72633295413688</t>
+          <t>14.25381018171481</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.876157870353966</t>
+          <t>8.747648457909381</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.686678092555963</t>
+          <t>2.18261000241064</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.0680096503521805</t>
+          <t>2.5839933339357533</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.596082923040191</t>
+          <t>6.638241569004541</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>64.78256506104303</t>
+          <t>65.01268366690563</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.134553587646586</t>
+          <t>14.053877173651252</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>13.74467659989817</t>
+          <t>14.794289422218831</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.8351612877348416</t>
+          <t>2.7260882651222715</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.528322711879049</t>
+          <t>2.5535317954126344</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62.34615746532614</t>
+          <t>61.34300115917299</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.7937218939612976</t>
+          <t>6.835508382880107</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>11.34285606471344</t>
+          <t>9.836309705958687</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.0478559782110182</t>
+          <t>0.9406161446268191</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.2537511408730624</t>
+          <t>2.8616949148832447</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>28.037927745968446</t>
+          <t>3.168604258497858</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.1617461901411605</t>
+          <t>2.1707193134793017</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.865160109630305</t>
+          <t>6.933379759489893</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.921401860711616</t>
+          <t>2.494397583781649</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20.3115961545465</t>
+          <t>22.1618068514503</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.669968356634079</t>
+          <t>4.671107436913601</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.654864944514908</t>
+          <t>6.402615961486824</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.900284055080419</t>
+          <t>4.646886764483501</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4.117522396646869</t>
+          <t>3.7499798132990203</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.48046501322629</t>
+          <t>3.0175146563212394</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.612790636182957</t>
+          <t>12.381994208450607</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.181641524022865</t>
+          <t>12.83472547598808</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>16.06909372770657</t>
+          <t>14.93260168321146</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>83.13221356728918</t>
+          <t>82.52739392452331</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.55924705790383</t>
+          <t>96.31607374932025</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.359899243802385</t>
+          <t>2.0205276212676924</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.83224625823254</t>
+          <t>3.4982038137681917</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.383768508382552</t>
+          <t>2.027940036196047</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.67853795375526</t>
+          <t>3.302721796228818</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>12.365358993764211</t>
+          <t>9.840930698694669</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.129497221360352</t>
+          <t>3.6406973647383065</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.3869765361553135</t>
+          <t>1.2140543893681053</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.8377838645686735</t>
+          <t>4.268686775178663</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11.91122583150462</t>
+          <t>9.576760260326383</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.9755835678819724</t>
+          <t>2.5266172193502854</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>11.791371934329248</t>
+          <t>1.5982367569850346</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>39.32001335034202</t>
+          <t>33.57440915245268</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.179218536621091</t>
+          <t>7.987440422893156</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>98.09406650013413</t>
+          <t>98.0986991916288</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.271762874101956</t>
+          <t>2.284209578073396</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>52.51438959676666</t>
+          <t>51.53004071295709</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>24.765808193381645</t>
+          <t>23.01044381585481</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.802628746663991</t>
+          <t>14.65374177292904</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.659457557810683</t>
+          <t>4.758393337804574</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.4288398482509048</t>
+          <t>1.294013085761021</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.7263747212195844</t>
+          <t>2.5712136554720697</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.7005651266453613</t>
+          <t>0.6481481481481479</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>11.798381623277185</t>
+          <t>12.484757439768945</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>16.43805485276187</t>
+          <t>15.251566052517921</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>48.10705139526472</t>
+          <t>45.48782593897761</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>12.20922342273179</t>
+          <t>9.572266208968365</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>75.73586210801837</t>
+          <t>75.8966766473182</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>4.005429435016678</t>
+          <t>3.8144061182985984</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,95 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.24945950943237</t>
+          <t>6.982956709293447</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DFLR_TEQ_Go_Bros</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.326442140299841</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DF_PHY_Piccolo_</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>LR_INT_Fusion_Zamasu</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.9720419998764775</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>LR_INT_Goku_Black</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>8.555417355974136</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.934954281365059</t>
+          <t>14.589804341435155</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>19.035593574077964</t>
+          <t>20.854124790528125</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.901058498794868</t>
+          <t>16.984729991962325</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.300157497601113</t>
+          <t>10.356779154211353</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.926541036355664</t>
+          <t>7.206688351726884</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.1816095001537885</t>
+          <t>6.354207268926832</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.991222839904612</t>
+          <t>5.038470949168282</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.412312983206034</t>
+          <t>6.900958017746405</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.49275496744513</t>
+          <t>7.669544051209691</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.774961204644338</t>
+          <t>10.672923962169463</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.5836959965259223</t>
+          <t>2.60348166941442</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19.05937584544865</t>
+          <t>19.66880683241171</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.517985418043608</t>
+          <t>9.710386432641243</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.566050696452443</t>
+          <t>15.57292112834179</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.357082390747884</t>
+          <t>8.677309743774583</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2.9730996990419536</t>
+          <t>3.527089481191787</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>23.23027850337947</t>
+          <t>22.49148945197069</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16.93275173856362</t>
+          <t>17.94968445850152</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.7252001536921995</t>
+          <t>4.778063804373289</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.446832018979371</t>
+          <t>7.65253181664792</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>14.25381018171481</t>
+          <t>7.589337173957095</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.747648457909381</t>
+          <t>8.236560436423867</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.18261000241064</t>
+          <t>2.311431337857575</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.5839933339357533</t>
+          <t>2.794373256974354</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>6.638241569004541</t>
+          <t>5.872655149507822</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>65.01268366690563</t>
+          <t>68.51553475151057</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.053877173651252</t>
+          <t>14.755007853276119</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14.794289422218831</t>
+          <t>16.384512482801455</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.7260882651222715</t>
+          <t>3.098924013516587</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.5535317954126344</t>
+          <t>2.23357432122815</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>61.34300115917299</t>
+          <t>61.48384605619722</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.835508382880107</t>
+          <t>7.12366104782557</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.836309705958687</t>
+          <t>8.328637324859862</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.9406161446268191</t>
+          <t>0.8720740010474293</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.8616949148832447</t>
+          <t>3.353630519759747</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.168604258497858</t>
+          <t>3.5813216045594807</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.1707193134793017</t>
+          <t>2.0761490939369196</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.933379759489893</t>
+          <t>7.074549657927937</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.494397583781649</t>
+          <t>2.3124792504445297</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22.1618068514503</t>
+          <t>22.860367013747716</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.671107436913601</t>
+          <t>4.867246441619151</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6.402615961486824</t>
+          <t>5.959771494630895</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.646886764483501</t>
+          <t>4.7432138064109886</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.7499798132990203</t>
+          <t>3.780460838308182</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.0175146563212394</t>
+          <t>3.1930161051425703</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.381994208450607</t>
+          <t>12.630598916234156</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.83472547598808</t>
+          <t>12.656745032895726</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14.93260168321146</t>
+          <t>14.44544647467232</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>82.52739392452331</t>
+          <t>85.54624612828991</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.31607374932025</t>
+          <t>96.43763932146867</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.0205276212676924</t>
+          <t>1.6351440640725547</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.4982038137681917</t>
+          <t>2.953419850015226</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.027940036196047</t>
+          <t>1.6287602656635634</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.302721796228818</t>
+          <t>2.834979578039315</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.840930698694669</t>
+          <t>10.699866597513472</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.6406973647383065</t>
+          <t>3.1920692232811447</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.2140543893681053</t>
+          <t>0.9223822619910239</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>4.268686775178663</t>
+          <t>3.7693533681629017</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9.576760260326383</t>
+          <t>10.18554783947497</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.5266172193502854</t>
+          <t>2.0614566299868953</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.5982367569850346</t>
+          <t>1.6536686828492022</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>33.57440915245268</t>
+          <t>31.53271985269456</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>7.987440422893156</t>
+          <t>8.401943254626385</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>98.0986991916288</t>
+          <t>98.0921210955674</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.284209578073396</t>
+          <t>2.093806629911286</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>51.53004071295709</t>
+          <t>59.57960072192399</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>23.01044381585481</t>
+          <t>24.80629077653259</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14.65374177292904</t>
+          <t>14.607519263962956</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.758393337804574</t>
+          <t>4.568348993452484</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.294013085761021</t>
+          <t>1.23881275308567</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.5712136554720697</t>
+          <t>2.6118501626631905</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12.484757439768945</t>
+          <t>12.358500603284773</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15.251566052517921</t>
+          <t>15.564929166305157</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>45.48782593897761</t>
+          <t>46.52548206389854</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>9.572266208968365</t>
+          <t>10.26307633104856</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>75.8966766473182</t>
+          <t>76.67727049724866</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.8144061182985984</t>
+          <t>3.3196787826973377</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>6.982956709293447</t>
+          <t>5.679271197990943</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.326442140299841</t>
+          <t>2.5156626764131946</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.9720419998764775</t>
+          <t>3.8888888888888884</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>8.555417355974136</t>
+          <t>9.332405768320687</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.589804341435155</t>
+          <t>11.353187998316297</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.854124790528125</t>
+          <t>17.519086146450714</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.984729991962325</t>
+          <t>15.232529467994773</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.356779154211353</t>
+          <t>10.03125323883453</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.206688351726884</t>
+          <t>10.49504222473521</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.354207268926832</t>
+          <t>6.149353801886269</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.038470949168282</t>
+          <t>3.2870886236530987</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.900958017746405</t>
+          <t>8.410782465788142</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.669544051209691</t>
+          <t>7.631557603668593</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.672923962169463</t>
+          <t>6.285097018491789</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.60348166941442</t>
+          <t>2.1089142213330376</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19.66880683241171</t>
+          <t>15.454293667383022</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.39709130264988013</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.710386432641243</t>
+          <t>10.078549691259084</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.57292112834179</t>
+          <t>18.278781325841173</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.677309743774583</t>
+          <t>8.91490341706496</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.6666666666666665</t>
+          <t>2.70690616905692</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.527089481191787</t>
+          <t>4.270641708193391</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22.49148945197069</t>
+          <t>23.69222884044686</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>17.94968445850152</t>
+          <t>19.31687467059426</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.778063804373289</t>
+          <t>7.017827157023305</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>7.65253181664792</t>
+          <t>9.47999965778686</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.589337173957095</t>
+          <t>17.94592308023474</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.236560436423867</t>
+          <t>4.23536973247941</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.311431337857575</t>
+          <t>4.512020779680933</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2.794373256974354</t>
+          <t>2.84034259870056</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.872655149507822</t>
+          <t>20.23722520197704</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>68.51553475151057</t>
+          <t>77.40295821862559</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.755007853276119</t>
+          <t>12.445469209509255</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16.384512482801455</t>
+          <t>16.11105233197334</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.098924013516587</t>
+          <t>1.6732885302367322</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2.23357432122815</t>
+          <t>2.8313235608866547</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>61.48384605619722</t>
+          <t>68.58428344541099</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>7.12366104782557</t>
+          <t>6.660534657601808</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8.328637324859862</t>
+          <t>10.20920087954417</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.8720740010474293</t>
+          <t>1.2439162832818218</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.353630519759747</t>
+          <t>3.5504109256793686</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3.5813216045594807</t>
+          <t>0.9538209170277838</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.0761490939369196</t>
+          <t>1.357703525959936</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>7.074549657927937</t>
+          <t>4.901122086106489</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.3124792504445297</t>
+          <t>3.4448023357448507</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.2962962962962958</t>
+          <t>3.007405796334575</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>22.860367013747716</t>
+          <t>18.564977148252055</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4.867246441619151</t>
+          <t>3.924244705839137</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>5.959771494630895</t>
+          <t>5.45562270208913</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.7432138064109886</t>
+          <t>2.556622893784091</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.780460838308182</t>
+          <t>2.7647717727251475</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3.1930161051425703</t>
+          <t>2.3365087507828903</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12.630598916234156</t>
+          <t>16.06399941634622</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.656745032895726</t>
+          <t>11.48314931127112</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>14.44544647467232</t>
+          <t>10.09777343249209</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>85.54624612828991</t>
+          <t>69.45482311840028</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.43763932146867</t>
+          <t>96.57212300621113</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1.6351440640725547</t>
+          <t>3.54117214398631</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.953419850015226</t>
+          <t>4.379623136540538</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1.6287602656635634</t>
+          <t>3.7028371988955247</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.834979578039315</t>
+          <t>3.395349771176958</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.699866597513472</t>
+          <t>9.258665794400434</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.1920692232811447</t>
+          <t>3.8430239123728667</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.9223822619910239</t>
+          <t>2.478993451901222</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.7693533681629017</t>
+          <t>4.483861821460064</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.18554783947497</t>
+          <t>8.565327698904229</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.0614566299868953</t>
+          <t>4.350589640072904</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1.6536686828492022</t>
+          <t>2.216411171248977</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>31.53271985269456</t>
+          <t>31.17451991056549</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.401943254626385</t>
+          <t>4.30352774474598</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>98.0921210955674</t>
+          <t>97.43080630954731</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2.093806629911286</t>
+          <t>9.953734950909968</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>59.57960072192399</t>
+          <t>65.81200100728582</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>24.80629077653259</t>
+          <t>21.33705188756745</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>14.607519263962956</t>
+          <t>12.971280446404158</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>4.568348993452484</t>
+          <t>3.316766738063796</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.23881275308567</t>
+          <t>1.849000626018656</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.6118501626631905</t>
+          <t>3.2927349025181853</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.6481481481481479</t>
+          <t>2.726907968203696</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>12.358500603284773</t>
+          <t>11.492709787308248</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>15.564929166305157</t>
+          <t>8.15890025469404</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>46.52548206389854</t>
+          <t>45.70430064950802</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10.26307633104856</t>
+          <t>7.633793458938506</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>76.67727049724866</t>
+          <t>59.6807642613682</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>3.3196787826973377</t>
+          <t>7.682602009103578</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5.679271197990943</t>
+          <t>8.424503897093615</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2.5156626764131946</t>
+          <t>3.5702660080228537</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.8888888888888884</t>
+          <t>5.862032249342874</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,95 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9.332405768320687</t>
+          <t>6.880260788693622</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>BU_INT_Android_16</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>BU_AGL_Super_Vegeta</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Katoplesa_</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.580412919186132</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DF_PHY_God_Toppo</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>54.61421947340465</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.98464027187722</t>
+          <t>11.831552161391901</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.81632228491424</t>
+          <t>18.865243600830862</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.670128507789435</t>
+          <t>17.045792397130548</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.779449282744984</t>
+          <t>11.004678224411967</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.069755913353578</t>
+          <t>7.464498465816321</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.545969232712519</t>
+          <t>8.324405987640091</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.393985131377108</t>
+          <t>3.244533343986805</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.126982821459984</t>
+          <t>8.899597581246573</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.269219091469733</t>
+          <t>9.236140747099189</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.909994637220741</t>
+          <t>10.899051728084249</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.989361552648458</t>
+          <t>1.8457203378790603</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.85293109141862</t>
+          <t>12.37265568191357</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.3050506033778324</t>
+          <t>0.27454729924090027</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.888833644662878</t>
+          <t>10.870031590368622</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.80569618934063</t>
+          <t>15.944297737624375</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.208131642805629</t>
+          <t>8.904345282826338</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.8034594720231127</t>
+          <t>1.6710216861779568</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.690792539908896</t>
+          <t>5.269549312541744</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>20.1374856138919</t>
+          <t>19.26771015679671</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19.47726823253392</t>
+          <t>19.23614383129296</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.521399364068017</t>
+          <t>7.5789712905802</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.646935905065352</t>
+          <t>12.51544006339998</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17.48916189869929</t>
+          <t>16.86613355271769</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.510444215289831</t>
+          <t>3.303007482302551</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.731376397735968</t>
+          <t>2.488697419459435</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.175366256516248</t>
+          <t>3.946694174844686</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>14.35681503630623</t>
+          <t>13.29380787023753</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.063302810638149</t>
+          <t>7.277794574597735</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.99002107941979</t>
+          <t>15.244862289977306</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>17.940796833796618</t>
+          <t>18.16229608061427</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.5223394674371598</t>
+          <t>2.4643361213188903</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.331625406675613</t>
+          <t>9.636049484568034</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.6913197336292285</t>
+          <t>6.883256321742216</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.234096402720219</t>
+          <t>5.661725848335156</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.5717833623538922</t>
+          <t>1.4334463134037372</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.202101044302566</t>
+          <t>6.892376094439616</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.3406966707695906</t>
+          <t>1.349658915816568</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.966791201549794</t>
+          <t>6.131079614005122</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.881411671353371</t>
+          <t>2.5858726593845778</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.148495015889104</t>
+          <t>1.933836925594399</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21.392600832862687</t>
+          <t>21.65213104079763</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.282147649100413</t>
+          <t>3.3878580805698926</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.764797890582246</t>
+          <t>4.87076700956093</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.126361989993416</t>
+          <t>4.116088307066736</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.879681124402371</t>
+          <t>3.7710823835607705</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.8938301565593767</t>
+          <t>1.8286921725011407</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13.423346503514395</t>
+          <t>13.764561172489742</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>11.97859372991087</t>
+          <t>12.198312601725787</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9.506565238521619</t>
+          <t>9.167809410181473</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.21996778179548</t>
+          <t>66.665150477882</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.83614028335707</t>
+          <t>96.86286012267351</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.489370286978596</t>
+          <t>2.339339401789047</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.1021845615262396</t>
+          <t>2.933814532843228</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.283272355355134</t>
+          <t>2.1362095025487036</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.8153120828676177</t>
+          <t>2.653835838749993</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8.91979897054182</t>
+          <t>8.715771576707143</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.2683005633412368</t>
+          <t>3.0956932854922137</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.6067998728074424</t>
+          <t>1.491315981658925</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.8263475523279085</t>
+          <t>3.6392120376778534</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9.063961302952114</t>
+          <t>8.841385064732254</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.114184270908587</t>
+          <t>2.9317733949160405</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.46021246944615</t>
+          <t>2.3875364035489377</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28.72294564536658</t>
+          <t>28.16101952371616</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.75541671671033</t>
+          <t>8.812451409825492</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>97.40689745769092</t>
+          <t>97.36032724035324</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.207844494625291</t>
+          <t>6.722314951447006</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>64.185660315817</t>
+          <t>63.80449971194248</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>37.94503804470168</t>
+          <t>37.53481951924789</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.911705012008472</t>
+          <t>13.870203385418435</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.205751840161507</t>
+          <t>3.2418971919053305</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.171588463634489</t>
+          <t>1.062932824070475</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4.459860494854679</t>
+          <t>4.339769043271715</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.7261289855604818</t>
+          <t>1.557210736925179</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.949310894496527</t>
+          <t>10.235511923251384</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7.842619771654296</t>
+          <t>7.580369700791524</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>34.18469738465</t>
+          <t>33.96823159126019</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>8.269520788191583</t>
+          <t>8.0848461885901</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>59.27117281080202</t>
+          <t>58.90949790256493</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8.5160909701179</t>
+          <t>8.439537914634345</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>8.964239201457275</t>
+          <t>9.084920892664798</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.190715660110174</t>
+          <t>3.145595345686149</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11.67359634818022</t>
+          <t>11.58740582811013</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.5625996561197284</t>
+          <t>3.286035242495202</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>54.06242455621986</t>
+          <t>53.59419674411378</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.204637120834608</t>
+          <t>2.182199159538662</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>0.8651510829330604</t>
+          <t>0.8333333333333333</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.930238329058986</t>
+          <t>3.92061353850341</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.7658979094883114</t>
+          <t>1.7065828127292724</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.086131022360018</t>
+          <t>3.120513788907431</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>6.970760668149644</t>
+          <t>6.766507931208841</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10.851386052103877</t>
+          <t>10.983909482628682</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4.0959071327251735</t>
+          <t>4.068130441077461</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.219994973580941</t>
+          <t>3.9293440943846907</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.7419269523104819</t>
+          <t>0.7095955316784615</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7.451138287519237</t>
+          <t>7.34690326178181</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.2774488530951817</t>
+          <t>2.243710352124539</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.731496149943908</t>
+          <t>2.770312790787763</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.8259328653614775</t>
+          <t>1.7684220713826808</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.9001096295724693</t>
+          <t>2.849292850082561</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.327025039415391</t>
+          <t>3.295011372180511</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2.0866336612469993</t>
+          <t>2.0609874068856904</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.965914279865298</t>
+          <t>7.902756037892871</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,403 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4.377973998754808</t>
+          <t>4.329832805655142</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DF_AGL_Fusion_Zamasu</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>DF_AGL_Android_13</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>6.806138018569181</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>BU_AGL_Golden_Frieza</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>BU_AGL_Cell_Jr</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>BU_AGL_SFPS4LB_Vegito</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>10.534202809218332</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>DF_AGL_Gamma_2</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>6.268160989303597</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>BU_AGL_Android_8</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>5.655122541031831</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>BU_PHY_Giant_Ribrianne</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>BU_INT_Pride_Troopers</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2.316418805196531</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>BU_AGL_SS_Gotenks</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.840730414097611</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>DF_INT_Transforming_Gotenks</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>DF_TEQ_SS3_Gotenks</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>4.406762494815183</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LR_INT_Ginyu_Force</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>29.71939089954485</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Evil_Buu</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>22.14203582973073</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>BU_PHY_Gotenks_</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>32.02084134397278</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DF_INT_Fat_Buu</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>75.62872320287043</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>DF_AGL_SS3_Goku</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>66.49816305543904</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>DF_AGL_Android_21</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>18.49955492714302</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -1260,12 +1260,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18.16229608061427</t>
+          <t>4.278122515108052</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6.883256321742216</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>22.14203582973073</t>
+          <t>10.349995642106158</t>
         </is>
       </c>
     </row>
@@ -3966,12 +3966,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>75.62872320287043</t>
+          <t>9.314485782358119</t>
         </is>
       </c>
     </row>
@@ -3988,12 +3988,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>66.49816305543904</t>
+          <t>13.03949542959866</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.831552161391901</t>
+          <t>11.663833691289161</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.865243600830862</t>
+          <t>18.010432354973535</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.045792397130548</t>
+          <t>17.837131774036884</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.004678224411967</t>
+          <t>10.976376585653838</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.464498465816321</t>
+          <t>8.07692848685158</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.324405987640091</t>
+          <t>8.34944875296181</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.244533343986805</t>
+          <t>3.1821858151560356</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.899597581246573</t>
+          <t>9.079257284880988</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.236140747099189</t>
+          <t>9.180197010715503</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.899051728084249</t>
+          <t>10.816402344229868</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.8457203378790603</t>
+          <t>1.9289052627888021</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.37265568191357</t>
+          <t>12.30739668659515</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.27454729924090027</t>
+          <t>0.2951247212325932</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.870031590368622</t>
+          <t>10.74623823870914</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.944297737624375</t>
+          <t>15.632870201549451</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.904345282826338</t>
+          <t>8.510731179988824</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.6710216861779568</t>
+          <t>1.8334204926724222</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.269549312541744</t>
+          <t>5.309951431668836</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19.26771015679671</t>
+          <t>19.36290716994727</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19.23614383129296</t>
+          <t>19.8909654024957</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.5789712905802</t>
+          <t>7.414401812822788</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.51544006339998</t>
+          <t>12.244879019549916</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>16.86613355271769</t>
+          <t>11.765020173505818</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.303007482302551</t>
+          <t>3.505336870477523</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.488697419459435</t>
+          <t>2.583253172261679</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.946694174844686</t>
+          <t>3.9450266825332645</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.29380787023753</t>
+          <t>13.9459440069738</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.277794574597735</t>
+          <t>7.044292563694667</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15.244862289977306</t>
+          <t>14.710758799952913</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.278122515108052</t>
+          <t>4.233449871659474</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.4643361213188903</t>
+          <t>2.44262478771531</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.636049484568034</t>
+          <t>9.373206922436196</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.661725848335156</t>
+          <t>5.770579092523903</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.4334463134037372</t>
+          <t>1.474471322660532</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.892376094439616</t>
+          <t>7.008804635461907</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.349658915816568</t>
+          <t>1.328303261335029</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.131079614005122</t>
+          <t>5.988475984576654</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.5858726593845778</t>
+          <t>2.651753354301844</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.933836925594399</t>
+          <t>1.898101200847184</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>21.65213104079763</t>
+          <t>20.948399513955543</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.3878580805698926</t>
+          <t>3.326578472533916</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4.87076700956093</t>
+          <t>2.452181224866032</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.116088307066736</t>
+          <t>4.029809650341747</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.7710823835607705</t>
+          <t>3.7375630933001105</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.8286921725011407</t>
+          <t>1.8664425952236348</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13.764561172489742</t>
+          <t>13.431866350304361</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.198312601725787</t>
+          <t>12.069079893281241</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9.167809410181473</t>
+          <t>9.596595944700887</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.665150477882</t>
+          <t>66.50062071847199</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.86286012267351</t>
+          <t>96.89033428563904</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.339339401789047</t>
+          <t>2.514888377801021</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2.933814532843228</t>
+          <t>3.074200100867454</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.1362095025487036</t>
+          <t>2.3648043934612706</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.653835838749993</t>
+          <t>2.837814078396113</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8.715771576707143</t>
+          <t>9.012856695338726</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.0956932854922137</t>
+          <t>3.285813083414789</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.491315981658925</t>
+          <t>1.6377363222743135</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.6392120376778534</t>
+          <t>3.849099572933798</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.841385064732254</t>
+          <t>9.13884118324241</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.9317733949160405</t>
+          <t>3.1643040302159555</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.3875364035489377</t>
+          <t>2.2410436122285176</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28.16101952371616</t>
+          <t>28.4133699292662</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.812451409825492</t>
+          <t>8.786672885306675</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>97.36032724035324</t>
+          <t>97.41493499755694</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.722314951447006</t>
+          <t>7.638149759067333</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>63.80449971194248</t>
+          <t>63.06786759934968</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>37.53481951924789</t>
+          <t>41.28549874711065</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.870203385418435</t>
+          <t>13.737462498371316</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.2418971919053305</t>
+          <t>3.27448237882845</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.062932824070475</t>
+          <t>1.850962986830786</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4.339769043271715</t>
+          <t>4.400940082399113</t>
         </is>
       </c>
     </row>
@@ -2404,12 +2404,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.557210736925179</t>
+          <t>2.296555417779827</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10.235511923251384</t>
+          <t>10.39496434205949</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>7.580369700791524</t>
+          <t>3.178620577306468</t>
         </is>
       </c>
     </row>
@@ -2580,12 +2580,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>33.96823159126019</t>
+          <t>19.252096036880747</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>8.0848461885901</t>
+          <t>8.53657746209501</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>58.90949790256493</t>
+          <t>58.96658321755441</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8.439537914634345</t>
+          <t>9.868938065597492</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9.084920892664798</t>
+          <t>9.168135381920365</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.145595345686149</t>
+          <t>3.1225862799667126</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11.58740582811013</t>
+          <t>11.689874854284746</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.286035242495202</t>
+          <t>3.4731425721569</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>53.59419674411378</t>
+          <t>53.87866989328539</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.182199159538662</t>
+          <t>2.161121166489931</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.92061353850341</t>
+          <t>3.7693796075664614</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.7065828127292724</t>
+          <t>1.6484240849692453</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.120513788907431</t>
+          <t>3.0930739071694973</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>6.766507931208841</t>
+          <t>6.671750498526453</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10.983909482628682</t>
+          <t>11.359121457155227</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4.068130441077461</t>
+          <t>4.040086274706322</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.9293440943846907</t>
+          <t>4.115447265687816</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.7095955316784615</t>
+          <t>0.6907986685150674</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7.34690326178181</t>
+          <t>7.6955453991733735</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.243710352124539</t>
+          <t>2.1268983474332903</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.770312790787763</t>
+          <t>2.883971357293909</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.7684220713826808</t>
+          <t>1.7372094676010446</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.849292850082561</t>
+          <t>2.85942690877199</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.295011372180511</t>
+          <t>3.342395750932411</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2.0609874068856904</t>
+          <t>1.9796519230677987</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.902756037892871</t>
+          <t>7.628835899920812</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4.329832805655142</t>
+          <t>4.253297159458121</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6.806138018569181</t>
+          <t>6.431671567256396</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10.534202809218332</t>
+          <t>10.598608910489745</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>6.268160989303597</t>
+          <t>4.304328904308898</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>5.655122541031831</t>
+          <t>5.60324181694959</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.316418805196531</t>
+          <t>2.343980219410103</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.840730414097611</t>
+          <t>2.7634476419219314</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4.406762494815183</t>
+          <t>4.344133515159922</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29.71939089954485</t>
+          <t>29.97006172294734</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10.349995642106158</t>
+          <t>10.425668949150342</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>32.02084134397278</t>
+          <t>33.24785597148502</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.314485782358119</t>
+          <t>8.94990283094134</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>13.03949542959866</t>
+          <t>12.880942866287782</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,557 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>18.49955492714302</t>
+          <t>16.77437321608755</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>DF_TEQ_Exchange_Buu</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2.7299376954687853</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>DF_TEQ_Ultimate_Gohan</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LR_AGL_Ultimate_Gohan</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>23.01141905249355</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>BU_INT_Hercule_</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>BU_PHY_Buutenks_</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>BU_INT_SS_Goten</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Kid_Trunks</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DF_PHY_Kid_Buu</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>9.865812410020636</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DF_STR_SS3_Vegeta</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>BU_INT_Cheelai_</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>5.38438826496148</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>BU_PHY_Android_21</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2.9630865047527397</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>F2PLR_PHY_Babidi_Buu</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>F2P_PHY_Buyon_</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>F2P_PHY_Gohan_Goku</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>F2PLR_INT_Babidi_</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>BU_PHY_Robelu_</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>BU_PHY_Whirus_</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>F2P_PHY_UI_Goku</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>BU_PHY_Kid_Chichi</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.24228266550931224</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>BU_STR_Pan_GT</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>BU_STR_Whis_</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>BU_INT_Masked_King</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>4.325209282104981</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>BU_INT_Zamasu_</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>1.7624819467658195</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>BU_AGL_SS2_Trunks</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>6.296467248621603</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>F2PLR_TEQ_Trunks_Broly</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.663833691289161</t>
+          <t>7.00125581793807</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.010432354973535</t>
+          <t>18.18106152555067</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.837131774036884</t>
+          <t>15.405470857358104</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.976376585653838</t>
+          <t>11.02527024434395</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.07692848685158</t>
+          <t>15.24629309802655</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.6481481481481479</t>
+          <t>1.223397094665883</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.34944875296181</t>
+          <t>4.56751784851377</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.1821858151560356</t>
+          <t>3.0173208239170215</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.079257284880988</t>
+          <t>7.523022290725629</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.180197010715503</t>
+          <t>5.294391496089599</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.816402344229868</t>
+          <t>6.179548214014371</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.9289052627888021</t>
+          <t>2.328968768452001</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.30739668659515</t>
+          <t>18.59358351616655</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2951247212325932</t>
+          <t>0.647666530357951</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10.74623823870914</t>
+          <t>6.960966425765491</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15.632870201549451</t>
+          <t>13.867956926581197</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8.510731179988824</t>
+          <t>9.963165664938009</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.8334204926724222</t>
+          <t>1.6666666666666665</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.309951431668836</t>
+          <t>10.50304467205885</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19.36290716994727</t>
+          <t>13.31828235994885</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19.8909654024957</t>
+          <t>23.69995088746306</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.414401812822788</t>
+          <t>5.746087006334193</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12.244879019549916</t>
+          <t>10.073704872497864</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.6481481481481479</t>
+          <t>1.161105319430709</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11.765020173505818</t>
+          <t>8.66667164459012</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.505336870477523</t>
+          <t>4.640470709578461</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.583253172261679</t>
+          <t>6.190018173070623</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.9450266825332645</t>
+          <t>5.367560448078883</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>13.9459440069738</t>
+          <t>9.37542754743455</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.3085772175724033</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>7.044292563694667</t>
+          <t>10.368802560851293</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.710758799952913</t>
+          <t>15.498391768041266</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.233449871659474</t>
+          <t>4.305021780361216</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.44262478771531</t>
+          <t>1.3153392264818216</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.373206922436196</t>
+          <t>9.229380821846753</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.770579092523903</t>
+          <t>9.507924771580578</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.474471322660532</t>
+          <t>1.72490112816681</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>7.008804635461907</t>
+          <t>6.417439640237978</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.328303261335029</t>
+          <t>1.9576480770579963</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.988475984576654</t>
+          <t>6.738294715590431</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.651753354301844</t>
+          <t>3.669234327511709</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>1.898101200847184</t>
+          <t>5.179329421152897</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>20.948399513955543</t>
+          <t>16.90788902928376</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.326578472533916</t>
+          <t>3.788260123247462</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.452181224866032</t>
+          <t>2.68980340678425</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>4.029809650341747</t>
+          <t>3.476848846862527</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.7375630933001105</t>
+          <t>3.0246484155003017</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.8664425952236348</t>
+          <t>1.2504680436988096</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>13.431866350304361</t>
+          <t>15.743417980337945</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.069079893281241</t>
+          <t>14.742251465731405</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>9.596595944700887</t>
+          <t>5.487777470589715</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.50062071847199</t>
+          <t>62.131923584303415</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.89033428563904</t>
+          <t>97.75432385995181</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2.514888377801021</t>
+          <t>5.281512175033996</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.074200100867454</t>
+          <t>6.677186150993855</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2.3648043934612706</t>
+          <t>5.156567945015006</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.837814078396113</t>
+          <t>6.3766929002507196</t>
         </is>
       </c>
     </row>
@@ -2030,12 +2030,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.012856695338726</t>
+          <t>10.949336838255695</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.285813083414789</t>
+          <t>6.413516022363499</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.6377363222743135</t>
+          <t>4.2053747950115925</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3.849099572933798</t>
+          <t>7.2934283404549065</t>
         </is>
       </c>
     </row>
@@ -2118,12 +2118,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>9.13884118324241</t>
+          <t>11.629762028953508</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>3.1643040302159555</t>
+          <t>6.275241514054455</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.2410436122285176</t>
+          <t>2.2813165990281257</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>28.4133699292662</t>
+          <t>31.90215041013898</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8.786672885306675</t>
+          <t>6.062142768927471</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>97.41493499755694</t>
+          <t>97.17369585216825</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.638149759067333</t>
+          <t>6.148021850146486</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>63.06786759934968</t>
+          <t>52.70714262584076</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>41.28549874711065</t>
+          <t>20.70708002724976</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>13.737462498371316</t>
+          <t>6.96550331865076</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>3.27448237882845</t>
+          <t>2.261882487645324</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.850962986830786</t>
+          <t>2.694072545987147</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>4.400940082399113</t>
+          <t>2.8015977724579972</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.296555417779827</t>
+          <t>2.1535106112862357</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10.39496434205949</t>
+          <t>9.720542863144471</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.178620577306468</t>
+          <t>2.3134371469143318</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>19.252096036880747</t>
+          <t>17.910813156441193</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>8.53657746209501</t>
+          <t>10.85451432016265</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>58.96658321755441</t>
+          <t>35.04874550692206</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>9.868938065597492</t>
+          <t>8.0926812297495</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>9.168135381920365</t>
+          <t>14.69523223640136</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.1225862799667126</t>
+          <t>3.718058546835266</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.8888888888888884</t>
+          <t>7.268226953783222</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>11.689874854284746</t>
+          <t>8.53875368311424</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3.4731425721569</t>
+          <t>4.75178969675777</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>53.87866989328539</t>
+          <t>27.762573225063264</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2.161121166489931</t>
+          <t>1.2392089946503297</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>3.7693796075664614</t>
+          <t>1.9458589733905547</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.6484240849692453</t>
+          <t>1.555481855357869</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>3.0930739071694973</t>
+          <t>2.5652075080612384</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>6.671750498526453</t>
+          <t>5.6276649566023655</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>11.359121457155227</t>
+          <t>7.316651835313637</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>4.040086274706322</t>
+          <t>2.5288039932725077</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.115447265687816</t>
+          <t>4.611418313649975</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.6907986685150674</t>
+          <t>0.7868324244146881</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>7.6955453991733735</t>
+          <t>5.064448938181682</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2.1268983474332903</t>
+          <t>1.0275081092310234</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.883971357293909</t>
+          <t>1.7360583803464422</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.7372094676010446</t>
+          <t>2.186850504245083</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2.85942690877199</t>
+          <t>1.6226885990956772</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>3.342395750932411</t>
+          <t>1.7646542352029062</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1.9796519230677987</t>
+          <t>1.2431309730473306</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>7.628835899920812</t>
+          <t>5.189966230618012</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>4.253297159458121</t>
+          <t>3.357216905734619</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>6.431671567256396</t>
+          <t>4.637041361816966</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10.598608910489745</t>
+          <t>7.296433888480809</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>4.304328904308898</t>
+          <t>5.743132279718387</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>5.60324181694959</t>
+          <t>3.8979447917578343</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.343980219410103</t>
+          <t>1.4674930199345926</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.7634476419219314</t>
+          <t>2.5925324559983056</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4.344133515159922</t>
+          <t>2.6187461360502176</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>29.97006172294734</t>
+          <t>17.57663229286313</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10.425668949150342</t>
+          <t>7.375423894911321</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>33.24785597148502</t>
+          <t>22.69168319193339</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.94990283094134</t>
+          <t>8.206030969521436</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>12.880942866287782</t>
+          <t>14.514306765888032</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>16.77437321608755</t>
+          <t>20.40767967911299</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.7299376954687853</t>
+          <t>2.8079386075396315</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>23.01141905249355</t>
+          <t>19.37982005758283</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>9.865812410020636</t>
+          <t>7.6734720005695545</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.38438826496148</t>
+          <t>3.774891872536209</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2.9630865047527397</t>
+          <t>2.16905820169203</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.24228266550931224</t>
+          <t>0.21556458258495984</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>4.325209282104981</t>
+          <t>2.587934943265097</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1.7624819467658195</t>
+          <t>1.2131349573636137</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>6.296467248621603</t>
+          <t>6.560918731638093</t>
         </is>
       </c>
     </row>
@@ -4566,6 +4566,402 @@
       <c r="D188" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>BU_PHY_SS_Bardock</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>BU_PHY_WT_Tien</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2.1887690444231502</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>BU_INT_Amond_Rasin</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>3.3304733042400247</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>F2P_INT_GT_Vegeta</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>BU_INT_Bota_Magetta</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.45120629558588554</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>DF_TEQ_Golden_Frieza</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.4323748579089417</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Bulla_</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Tapion_</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_Candy_Vegito</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_SS3_Goku</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>BU_INT_Whis_</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.8425460347912974</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>F2PLR_TEQ_Dragon_Ball</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>BU_INT_Future_Mai</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>F2P_INT_Bulma_Youth</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Future_Gohan</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>BU_AGL_Daiz_Cacao</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>1.588571792364669</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>BU_AGL_GoldenMetal_Cooler</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>1.1252304447106596</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>BU_AGL_Baby_Janemba</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>4.919802248761799</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D206"/>
+  <dimension ref="A1:D208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.00125581793807</t>
+          <t>6.9667626840750305</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18.18106152555067</t>
+          <t>18.216304573772064</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.405470857358104</t>
+          <t>15.4180568220143</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.02527024434395</t>
+          <t>11.014273477579465</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.24629309802655</t>
+          <t>2.615193911195492</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.223397094665883</t>
+          <t>1.169388648381368</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.56751784851377</t>
+          <t>4.527718302241469</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.0173208239170215</t>
+          <t>2.9854207825155896</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.523022290725629</t>
+          <t>7.429402657703734</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.294391496089599</t>
+          <t>5.24229683571912</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.179548214014371</t>
+          <t>6.11692379959776</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.328968768452001</t>
+          <t>2.27469226756499</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>18.59358351616655</t>
+          <t>17.97663329366144</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.647666530357951</t>
+          <t>0.6292047728246069</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.960966425765491</t>
+          <t>6.918846971693611</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13.867956926581197</t>
+          <t>13.571044169233557</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>9.963165664938009</t>
+          <t>9.71585403432499</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>10.50304467205885</t>
+          <t>10.42159781884809</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>13.31828235994885</t>
+          <t>13.14881252234674</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.69995088746306</t>
+          <t>23.4916170794295</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>5.746087006334193</t>
+          <t>5.811081708540122</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10.073704872497864</t>
+          <t>10.14356788063326</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.161105319430709</t>
+          <t>1.115936516246394</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.66667164459012</t>
+          <t>8.607949414599169</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.640470709578461</t>
+          <t>4.592163694848494</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>6.190018173070623</t>
+          <t>5.976408713623273</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>5.367560448078883</t>
+          <t>5.274353156366566</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9.37542754743455</t>
+          <t>9.159258964860198</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.3085772175724033</t>
+          <t>0.29779526965767994</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.368802560851293</t>
+          <t>10.383875022037586</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>15.498391768041266</t>
+          <t>15.607211125698168</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.305021780361216</t>
+          <t>4.368100343755906</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.3153392264818216</t>
+          <t>1.302330718183331</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>9.229380821846753</t>
+          <t>9.336238747067569</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>9.507924771580578</t>
+          <t>9.180609418787322</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.72490112816681</t>
+          <t>1.678820322091341</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6.417439640237978</t>
+          <t>6.341816958910249</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1.9576480770579963</t>
+          <t>1.9986329290887446</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.738294715590431</t>
+          <t>6.772204841987297</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.669234327511709</t>
+          <t>3.5313775700989245</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.179329421152897</t>
+          <t>5.021422395418529</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.90788902928376</t>
+          <t>16.96025156874719</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>3.788260123247462</t>
+          <t>3.822476972100237</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.68980340678425</t>
+          <t>2.706590429110162</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3.476848846862527</t>
+          <t>3.6022167360972617</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3.0246484155003017</t>
+          <t>2.9800956227657593</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.2504680436988096</t>
+          <t>1.1574972082516801</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>15.743417980337945</t>
+          <t>15.82419327156831</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>14.742251465731405</t>
+          <t>14.906195474002615</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5.487777470589715</t>
+          <t>5.49838866907761</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>62.131923584303415</t>
+          <t>62.044720137403985</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>97.75432385995181</t>
+          <t>97.7412430620552</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5.281512175033996</t>
+          <t>5.087686711911912</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.677186150993855</t>
+          <t>6.4304066644483875</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5.156567945015006</t>
+          <t>5.053875600734999</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.3766929002507196</t>
+          <t>6.1710371190593145</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.949336838255695</t>
+          <t>10.83383810404464</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.413516022363499</t>
+          <t>6.213705288868297</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.2053747950115925</t>
+          <t>4.031431222296694</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.2934283404549065</t>
+          <t>7.066040685998699</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>11.629762028953508</t>
+          <t>11.501793810149758</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>6.275241514054455</t>
+          <t>6.157151125960255</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2.2813165990281257</t>
+          <t>2.2580410308929695</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>31.90215041013898</t>
+          <t>31.56092230739421</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.062142768927471</t>
+          <t>6.018828598867377</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>97.17369585216825</t>
+          <t>97.20874403656161</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6.148021850146486</t>
+          <t>5.820985968882995</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>52.70714262584076</t>
+          <t>52.77651061655666</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>20.70708002724976</t>
+          <t>21.06291981123531</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6.96550331865076</t>
+          <t>7.099654217721278</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.261882487645324</t>
+          <t>2.2657358522993483</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2.694072545987147</t>
+          <t>2.6394802556481385</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.8015977724579972</t>
+          <t>2.753105854585758</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2.1535106112862357</t>
+          <t>2.1137887169049625</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.720542863144471</t>
+          <t>9.768577429647825</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.3134371469143318</t>
+          <t>2.5840521618723002</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>17.910813156441193</t>
+          <t>17.888948855465888</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10.85451432016265</t>
+          <t>9.878696507059887</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>35.04874550692206</t>
+          <t>35.60874297104152</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>8.0926812297495</t>
+          <t>8.036132052181465</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>14.69523223640136</t>
+          <t>14.68900767515202</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3.718058546835266</t>
+          <t>3.6991703637703273</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.268226953783222</t>
+          <t>7.027083127492007</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>8.53875368311424</t>
+          <t>8.126607144328327</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>4.75178969675777</t>
+          <t>4.616558666132426</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>27.762573225063264</t>
+          <t>28.95446748303285</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2392089946503297</t>
+          <t>1.2401489301094522</t>
         </is>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>1.9458589733905547</t>
+          <t>1.9211743648529134</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>1.555481855357869</t>
+          <t>1.5340499148584974</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.5652075080612384</t>
+          <t>2.4595967428047594</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.6276649566023655</t>
+          <t>5.557904661820517</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>7.316651835313637</t>
+          <t>7.324425859719417</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.5288039932725077</t>
+          <t>2.530805572590431</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.611418313649975</t>
+          <t>4.671694801720752</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.7868324244146881</t>
+          <t>0.7601028303713676</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>5.064448938181682</t>
+          <t>5.075832483742792</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>1.0275081092310234</t>
+          <t>1.0222644306594952</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>1.7360583803464422</t>
+          <t>1.719488014239836</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2.186850504245083</t>
+          <t>1.9094982154803504</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>1.6226885990956772</t>
+          <t>1.6106802320527374</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.7646542352029062</t>
+          <t>1.7627147342777594</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>1.2431309730473306</t>
+          <t>1.2151095059894388</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>5.189966230618012</t>
+          <t>5.205194755643085</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>3.357216905734619</t>
+          <t>3.351443603319481</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>4.637041361816966</t>
+          <t>4.598331837425944</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7.296433888480809</t>
+          <t>7.259925637855471</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>5.743132279718387</t>
+          <t>5.558988818435955</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3.8979447917578343</t>
+          <t>3.9568585634751443</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1.4674930199345926</t>
+          <t>1.4609420131193311</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2.5925324559983056</t>
+          <t>2.5594630100466604</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.6187461360502176</t>
+          <t>2.7772405843490935</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>17.57663229286313</t>
+          <t>20.05518490402368</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>7.375423894911321</t>
+          <t>7.21920171056221</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>22.69168319193339</t>
+          <t>21.93014516643336</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.206030969521436</t>
+          <t>8.420427933635551</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>14.514306765888032</t>
+          <t>14.715914339578738</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20.40767967911299</t>
+          <t>20.16683141864389</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.8079386075396315</t>
+          <t>2.78979506075777</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>19.37982005758283</t>
+          <t>19.37339835397187</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>7.6734720005695545</t>
+          <t>7.5739079189197565</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.774891872536209</t>
+          <t>3.4393860179321076</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2.16905820169203</t>
+          <t>2.17596679545961</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>0.21556458258495984</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.587934943265097</t>
+          <t>2.6125888783614886</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>1.2131349573636137</t>
+          <t>1.2201080173465464</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>6.560918731638093</t>
+          <t>6.662783815230913</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.1887690444231502</t>
+          <t>2.1535083589247277</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.3304733042400247</t>
+          <t>3.3798177043478095</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.45120629558588554</t>
+          <t>0.45046323207982575</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.4323748579089417</t>
+          <t>0.3958504147254784</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.8425460347912974</t>
+          <t>0.8156739444713403</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>1.588571792364669</t>
+          <t>1.5847112916995192</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.1252304447106596</t>
+          <t>1.0521317185743104</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,51 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>4.919802248761799</t>
+          <t>4.9059541421725195</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>F2P_AGL_Gohan_Boujack</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>1.1490314836699023</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>F2P_AGL_SS_Goku</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.474756050958218</t>
+          <t>6.510991088346941</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.606935480456514</t>
+          <t>14.588790469144943</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.763550598917483</t>
+          <t>15.6210816715299</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.218541477857634</t>
+          <t>10.156099979675318</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.457042395270181</t>
+          <t>2.453443932553161</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.60070446640276</t>
+          <t>2.601066124439504</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.238196387926559</t>
+          <t>4.24517908045933</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3941725956229525</t>
+          <t>2.404620225356609</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.521895081420658</t>
+          <t>5.481499719242273</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.522546699104538</t>
+          <t>6.53814128115005</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.147140128905642</t>
+          <t>5.175782502460448</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.151044361399612</t>
+          <t>2.156335619836752</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.97120217509342</t>
+          <t>13.07493222931647</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7815611541796448</t>
+          <t>0.7746107088501071</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.866958278701372</t>
+          <t>6.857809185195201</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.953403789815729</t>
+          <t>11.00013283213941</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.769635422459029</t>
+          <t>5.7870973454020245</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.7648225511130473</t>
+          <t>1.7708919295911514</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.1628669578436925</t>
+          <t>7.189066819653046</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.66380106434119</t>
+          <t>8.700731569972938</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14.398029773609501</t>
+          <t>14.31918703317261</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.529515388808896</t>
+          <t>7.510256917463714</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.402506113685444</t>
+          <t>6.406154051288723</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.017020283374017</t>
+          <t>2.016343307111821</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.686755393690472</t>
+          <t>7.718649103927191</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.47321363567575</t>
+          <t>4.473972854601171</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.443403279943981</t>
+          <t>5.450994211587928</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.017909392293133</t>
+          <t>4.04010875372221</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.91517172239336</t>
+          <t>19.00573056723628</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.70628976951376</t>
+          <t>12.64190448995248</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.207900083966734</t>
+          <t>14.267172434978168</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.541428794157305</t>
+          <t>4.5315654449678675</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.059080696942576</t>
+          <t>5.081308195036425</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0137068378616902</t>
+          <t>1.0135197066759503</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.931525678155552</t>
+          <t>6.8466454601268225</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14.51796287013563</t>
+          <t>14.58108445959512</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.0629522609889315</t>
+          <t>2.060712520172907</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.402265240650131</t>
+          <t>5.427370831544469</t>
         </is>
       </c>
     </row>
@@ -1524,12 +1524,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2.0827222643918453</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.385253046352943</t>
+          <t>5.369929225290783</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.8086271857010257</t>
+          <t>3.8322029508242164</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6.0293751023258</t>
+          <t>6.020638960066443</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.92388300821059</t>
+          <t>16.900442607864697</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.712071077067707</t>
+          <t>2.6853168210577514</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.434529081062497</t>
+          <t>3.455405048934389</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.5235479846512447</t>
+          <t>2.4896677269189738</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1220461229668572</t>
+          <t>2.0965381679588972</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.73500048213136</t>
+          <t>0.7277424537243995</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14.814485915396716</t>
+          <t>14.801633002057985</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.50443542854559</t>
+          <t>20.483082481664113</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.20080705353478</t>
+          <t>4.213828436419126</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>67.26094282775222</t>
+          <t>66.69691616855667</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>96.23704314497574</t>
+          <t>1.9986479977269769</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.7929366632240615</t>
+          <t>4.795610473014448</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.320041498106473</t>
+          <t>6.327156477508683</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.821732666031284</t>
+          <t>4.8274791542491675</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.1176640479462785</t>
+          <t>6.123545731153057</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.084415154674407</t>
+          <t>10.107518955896381</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.3186815591634105</t>
+          <t>6.331155452986026</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.322976429104807</t>
+          <t>4.322777770235618</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.386383397959349</t>
+          <t>7.390692612695843</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.520712840784926</t>
+          <t>10.555391333413285</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.8693496804742145</t>
+          <t>5.863305642748751</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7196025029237322</t>
+          <t>0.7162744399930162</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>23.08057736969915</t>
+          <t>22.89061255984706</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.747806461768775</t>
+          <t>6.749208095173364</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>96.82393292697817</t>
+          <t>96.8578988553095</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.04993416445959</t>
+          <t>10.13142260941335</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>43.90476181828181</t>
+          <t>44.00538834717269</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.68392412173727</t>
+          <t>11.5415412104724</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.8726544114834045</t>
+          <t>5.898189917330005</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1488130774900327</t>
+          <t>2.1311354298729257</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.7965677276906784</t>
+          <t>1.8060643804548806</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4561095003445605</t>
+          <t>2.47578811199496</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3352192166401968</t>
+          <t>1.339902903048063</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.71531760286989</t>
+          <t>9.612820029193019</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.71626250025475</t>
+          <t>2.6909079917033623</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.83627108048014</t>
+          <t>24.559278979285175</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.997298934766859</t>
+          <t>6.024357161539602</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>41.06339413464224</t>
+          <t>41.01633630101539</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.245100554532082</t>
+          <t>7.227378972394604</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.174131810919924</t>
+          <t>22.227844491497905</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.354105326660035</t>
+          <t>1.3313474960898783</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.207269716217014</t>
+          <t>7.190780218570347</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>6.605819394318069</t>
+          <t>2.629450013390013</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.866283793093427</t>
+          <t>5.884877491490481</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.614338033126362</t>
+          <t>21.71118499099919</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1887817469672406</t>
+          <t>1.1897711914984228</t>
         </is>
       </c>
     </row>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>0.82128706723693</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.4448185990347905</t>
+          <t>0.44352384617970736</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.3450548152875896</t>
+          <t>2.3292109980534406</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.128024322526831</t>
+          <t>5.135605751781755</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.20067710757057</t>
+          <t>9.193991057692914</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.02599351915552</t>
+          <t>2.01063676801701</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.805548862569262</t>
+          <t>3.833838349128162</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3783936278851606</t>
+          <t>0.3734338331414063</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.698231712809861</t>
+          <t>4.699424910626298</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.29798891421675044</t>
+          <t>0.29597733044804714</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.800788286662929</t>
+          <t>2.8076816086164804</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5582769158373029</t>
+          <t>1.5482781993494916</t>
         </is>
       </c>
     </row>
@@ -3460,12 +3460,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>0.8512788845653407</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.5633169434393412</t>
+          <t>1.5695190605791147</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5851818907497996</t>
+          <t>0.5869528664291401</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8701969572671189</t>
+          <t>1.871479071712933</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.9196598362992816</t>
+          <t>1.9310834757975606</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.6505297799929006</t>
+          <t>2.649822016538045</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.06549188930564</t>
+          <t>6.003182410819932</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.8020979416021135</t>
+          <t>3.785243013475296</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4.058464199388233</t>
+          <t>4.090752820891906</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>1.4485495067085858</t>
+          <t>2.4047860113982975</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.8427645652485519</t>
+          <t>0.8426975914418731</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5755248053419155</t>
+          <t>2.5421338347649454</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.78652016589884</t>
+          <t>16.73107393975572</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.1261494656911</t>
+          <t>9.05339592575438</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20.06217138544796</t>
+          <t>20.09173819957381</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.495010298766815</t>
+          <t>9.40150410172319</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.327610424314724</t>
+          <t>22.276283963065353</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>13.68443823155348</t>
+          <t>13.737621071772809</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.9675944461007857</t>
+          <t>2.9631891649912263</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.47995112216935</t>
+          <t>17.36413326103893</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.421446694609869</t>
+          <t>6.431065433223343</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.48371184014329</t>
+          <t>4.53762514153669</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.7910403480497796</t>
+          <t>1.7766854752819903</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.403681844924487</t>
+          <t>2.417963010636889</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.710991294744386</t>
+          <t>0.714353552986007</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5.822108365191348</t>
+          <t>5.823894435465505</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4658650725573317</t>
+          <t>2.4690751799355386</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.23918979838642</t>
+          <t>2.2613004351860857</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.28971829752201217</t>
+          <t>0.2903321946374669</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3693760788974763</t>
+          <t>0.37109046303432025</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.41517533181810806</t>
+          <t>0.41733652349577405</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2.095254672617168</t>
+          <t>2.094222677497262</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3852385706025796</t>
+          <t>1.3730299688363399</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.1745505456926275</t>
+          <t>1.1807645002316691</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3651280578754472</t>
+          <t>0.3670617504883882</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8662044420274604</t>
+          <t>0.8639194995601552</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.647020773002538</t>
+          <t>12.62847784465026</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>88.59492168528274</t>
+          <t>88.2797265635388</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.11429377364909</t>
+          <t>18.04464607538679</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>9.691544026871432</t>
+          <t>17.23839258105204</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.42454244470254</t>
+          <t>95.46308518441533</t>
         </is>
       </c>
     </row>
@@ -5314,6 +5314,28 @@
       <c r="D222" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>LR_PHY_Android17_Frieza</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>15.914107164345772</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.510991088346941</t>
+          <t>6.383546099936529</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.588790469144943</t>
+          <t>14.634324127024342</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.6210816715299</t>
+          <t>15.79817369428104</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.156099979675318</t>
+          <t>10.292218606973776</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.453443932553161</t>
+          <t>2.431846660795866</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.601066124439504</t>
+          <t>2.550616616523602</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.24517908045933</t>
+          <t>4.1981274565522995</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.404620225356609</t>
+          <t>2.3471359001780394</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.481499719242273</t>
+          <t>5.469687521711519</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.53814128115005</t>
+          <t>6.424455860483661</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.175782502460448</t>
+          <t>5.085396026800183</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.156335619836752</t>
+          <t>2.112077660399388</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.07493222931647</t>
+          <t>12.7588908643051</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7746107088501071</t>
+          <t>0.770695734808178</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.857809185195201</t>
+          <t>6.8066508652153885</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11.00013283213941</t>
+          <t>10.855429779270368</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.7870973454020245</t>
+          <t>5.703745607959053</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.7708919295911514</t>
+          <t>1.7259517381505685</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.189066819653046</t>
+          <t>7.053284035489621</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.700731569972938</t>
+          <t>8.541869171748704</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14.31918703317261</t>
+          <t>14.18193722237707</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.510256917463714</t>
+          <t>7.566513530381187</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.406154051288723</t>
+          <t>6.341723403578616</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.016343307111821</t>
+          <t>1.985225413352753</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.718649103927191</t>
+          <t>7.584287818150859</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.473972854601171</t>
+          <t>4.383615487507941</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.450994211587928</t>
+          <t>5.359241516524241</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.04010875372221</t>
+          <t>3.9544454070318107</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19.00573056723628</t>
+          <t>18.72040473915525</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.64190448995248</t>
+          <t>12.716225390066489</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.267172434978168</t>
+          <t>14.068107271475633</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.5315654449678675</t>
+          <t>4.544613705128157</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5.081308195036425</t>
+          <t>4.97713731167704</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0135197066759503</t>
+          <t>1.007412545058461</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.8466454601268225</t>
+          <t>7.008275121520107</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14.58108445959512</t>
+          <t>14.32467743483205</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.060712520172907</t>
+          <t>2.0246685171009466</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.427370831544469</t>
+          <t>5.322568935330892</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.369929225290783</t>
+          <t>5.401361760961947</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.8322029508242164</t>
+          <t>3.741883589236524</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>6.020638960066443</t>
+          <t>5.919717267418947</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.900442607864697</t>
+          <t>16.841726653085438</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.6853168210577514</t>
+          <t>2.7458798428930042</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.455405048934389</t>
+          <t>3.444268655584417</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.4896677269189738</t>
+          <t>2.542836679912405</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0965381679588972</t>
+          <t>2.133688271056947</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7277424537243995</t>
+          <t>0.7345069963688591</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14.801633002057985</t>
+          <t>14.779370914347247</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.483082481664113</t>
+          <t>20.592690534500996</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.213828436419126</t>
+          <t>4.145017945685868</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.69691616855667</t>
+          <t>66.66235213990926</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1.9986479977269769</t>
+          <t>2.0367265336869735</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.795610473014448</t>
+          <t>4.7041786044181215</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.327156477508683</t>
+          <t>6.2016542407186925</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.8274791542491675</t>
+          <t>4.731574951260397</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.123545731153057</t>
+          <t>6.005338958038752</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.107518955896381</t>
+          <t>9.921561366611508</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.331155452986026</t>
+          <t>6.1963808498610105</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.322777770235618</t>
+          <t>4.244322834282525</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.390692612695843</t>
+          <t>7.248532557356445</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.555391333413285</t>
+          <t>10.346652882818672</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.863305642748751</t>
+          <t>5.769496395535808</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7162744399930162</t>
+          <t>0.7052768823542114</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.89061255984706</t>
+          <t>22.94984658231897</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.749208095173364</t>
+          <t>6.684418640127454</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>96.8578988553095</t>
+          <t>96.7862678453972</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.13142260941335</t>
+          <t>9.855574909396328</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>44.00538834717269</t>
+          <t>43.58059268264996</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.5415412104724</t>
+          <t>11.54809473879132</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.898189917330005</t>
+          <t>5.79296172981181</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1311354298729257</t>
+          <t>2.1300586522030267</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.8060643804548806</t>
+          <t>1.7626320669635267</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.47578811199496</t>
+          <t>2.4129770447307437</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.339902903048063</t>
+          <t>1.3098857553034104</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.612820029193019</t>
+          <t>9.740275936547933</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.6909079917033623</t>
+          <t>2.7044788790088</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.559278979285175</t>
+          <t>24.827810366997618</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6.024357161539602</t>
+          <t>5.896282825111442</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>41.01633630101539</t>
+          <t>40.87111442860539</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.227378972394604</t>
+          <t>7.255201882181451</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.227844491497905</t>
+          <t>22.100106362848848</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.3313474960898783</t>
+          <t>1.344561252394988</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.190780218570347</t>
+          <t>7.118402266179311</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.629450013390013</t>
+          <t>2.6452003491139453</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.884877491490481</t>
+          <t>5.760951281628627</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.71118499099919</t>
+          <t>21.24479906601324</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1897711914984228</t>
+          <t>1.1687117473140312</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.44352384617970736</t>
+          <t>0.43741491584374104</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.3292109980534406</t>
+          <t>2.3078804119795677</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.135605751781755</t>
+          <t>5.062104536223866</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.193991057692914</t>
+          <t>9.154164301930619</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.01063676801701</t>
+          <t>2.049054367945791</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.833838349128162</t>
+          <t>3.7694447255371064</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3734338331414063</t>
+          <t>0.3756685985989271</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.699424910626298</t>
+          <t>4.606383134619714</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.29597733044804714</t>
+          <t>0.2938361980686532</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.8076816086164804</t>
+          <t>2.7777377653366493</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5482781993494916</t>
+          <t>1.5415476633099505</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.5695190605791147</t>
+          <t>1.5366765770740098</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5869528664291401</t>
+          <t>0.5765726367923385</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.871479071712933</t>
+          <t>1.8666868020926444</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.9310834757975606</t>
+          <t>1.8857845986430897</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.649822016538045</t>
+          <t>2.595176338952942</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.003182410819932</t>
+          <t>6.051937359014278</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.785243013475296</t>
+          <t>3.763693499947238</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>4.090752820891906</t>
+          <t>3.96984405647109</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.4047860113982975</t>
+          <t>2.3659682268771594</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.8426975914418731</t>
+          <t>0.8346174301824273</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5421338347649454</t>
+          <t>2.5880738377271513</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.73107393975572</t>
+          <t>16.61318112226862</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.05339592575438</t>
+          <t>9.15053279214219</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>20.09173819957381</t>
+          <t>19.78754117496522</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.40150410172319</t>
+          <t>9.59833194162411</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.276283963065353</t>
+          <t>22.357290858113505</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>13.737621071772809</t>
+          <t>13.431560537320888</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.9631891649912263</t>
+          <t>2.9608386981309094</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.36413326103893</t>
+          <t>17.30140178227087</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.431065433223343</t>
+          <t>6.386943009185952</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.53762514153669</t>
+          <t>4.416625552728682</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.7766854752819903</t>
+          <t>1.7814210035081697</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.417963010636889</t>
+          <t>2.3554843321073164</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.714353552986007</t>
+          <t>0.6947141858971432</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5.823894435465505</t>
+          <t>5.80468111452241</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4690751799355386</t>
+          <t>2.4305834624004348</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.2613004351860857</t>
+          <t>2.20002032472453</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.2903321946374669</t>
+          <t>0.28323177374269676</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.37109046303432025</t>
+          <t>0.3625160056077975</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.41733652349577405</t>
+          <t>0.4073344279239269</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2.094222677497262</t>
+          <t>2.0581513375229585</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3730299688363399</t>
+          <t>1.3747447007115206</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.1807645002316691</t>
+          <t>1.1493518974489787</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3670617504883882</t>
+          <t>0.35989552172144706</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8639194995601552</t>
+          <t>0.8559175129745157</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.62847784465026</t>
+          <t>12.497970656994898</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>88.2797265635388</t>
+          <t>82.28086548853786</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.04464607538679</t>
+          <t>17.82812392743921</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.23839258105204</t>
+          <t>17.336941334911018</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.46308518441533</t>
+          <t>95.3296974837797</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>15.914107164345772</t>
+          <t>15.987841789556805</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.383546099936529</t>
+          <t>6.37632562457711</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.634324127024342</t>
+          <t>14.637989362345085</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.79817369428104</t>
+          <t>15.810561449629022</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.292218606973776</t>
+          <t>10.269321654999558</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.431846660795866</t>
+          <t>2.427615066640635</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.550616616523602</t>
+          <t>2.546548380998475</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.1981274565522995</t>
+          <t>4.2015699487283396</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3471359001780394</t>
+          <t>2.34820770565918</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.469687521711519</t>
+          <t>5.473564005455468</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.424455860483661</t>
+          <t>6.430840546867309</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.085396026800183</t>
+          <t>5.074897300499384</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.112077660399388</t>
+          <t>2.1098563988051193</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.7588908643051</t>
+          <t>12.68429271447673</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.770695734808178</t>
+          <t>0.7712496821925272</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.8066508652153885</t>
+          <t>6.8115696071666</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.855429779270368</t>
+          <t>10.851483964559458</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.703745607959053</t>
+          <t>5.68214487220917</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.7259517381505685</t>
+          <t>1.7281619174213612</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.053284035489621</t>
+          <t>7.050245004990942</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.541869171748704</t>
+          <t>8.530209824755405</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14.18193722237707</t>
+          <t>14.06608577073376</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.566513530381187</t>
+          <t>7.584452299997466</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.341723403578616</t>
+          <t>6.349527232251154</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.985225413352753</t>
+          <t>1.982134295944779</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.584287818150859</t>
+          <t>7.581071574418942</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.383615487507941</t>
+          <t>4.386088009954863</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.359241516524241</t>
+          <t>5.342219454354002</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.9544454070318107</t>
+          <t>3.9315233387901625</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.72040473915525</t>
+          <t>18.7355189998293</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.716225390066489</t>
+          <t>12.72436054811363</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.068107271475633</t>
+          <t>14.077351771980636</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.544613705128157</t>
+          <t>4.548024109543142</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.97713731167704</t>
+          <t>4.968394052950249</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.007412545058461</t>
+          <t>1.00771638044802</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.008275121520107</t>
+          <t>7.018863192545318</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14.32467743483205</t>
+          <t>14.30659213177179</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.0246685171009466</t>
+          <t>2.0249631229255742</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.322568935330892</t>
+          <t>5.32640328305607</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.401361760961947</t>
+          <t>5.40522224533119</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.741883589236524</t>
+          <t>3.737871855704123</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.919717267418947</t>
+          <t>5.918653708507097</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.841726653085438</t>
+          <t>16.84424457928631</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.7458798428930042</t>
+          <t>2.746403364385035</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.444268655584417</t>
+          <t>3.44498357515081</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.542836679912405</t>
+          <t>2.544789606884329</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.133688271056947</t>
+          <t>2.1355322402961505</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7345069963688591</t>
+          <t>0.7349282260217898</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14.779370914347247</t>
+          <t>14.79052575228991</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.592690534500996</t>
+          <t>20.202554779682536</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.145017945685868</t>
+          <t>4.137871572923594</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>66.66235213990926</t>
+          <t>75.53734087275534</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.0367265336869735</t>
+          <t>2.0550087424665264</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.7041786044181215</t>
+          <t>4.6904200117001515</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.2016542407186925</t>
+          <t>6.185120714599598</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.731574951260397</t>
+          <t>4.712910075774253</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.005338958038752</t>
+          <t>5.98917452111926</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.921561366611508</t>
+          <t>9.91049401614133</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.1963808498610105</t>
+          <t>6.179908529279587</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.244322834282525</t>
+          <t>4.231544968281098</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.248532557356445</t>
+          <t>7.230325301975195</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.346652882818672</t>
+          <t>10.335636177509354</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.769496395535808</t>
+          <t>5.753596095761784</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7052768823542114</t>
+          <t>0.7057354171204595</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.94984658231897</t>
+          <t>22.95388476217289</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.684418640127454</t>
+          <t>6.6857474162912816</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>96.7862678453972</t>
+          <t>96.78167349910503</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9.855574909396328</t>
+          <t>9.834949930463743</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>43.58059268264996</t>
+          <t>43.48660725790063</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.54809473879132</t>
+          <t>12.45242338739863</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.79296172981181</t>
+          <t>5.792870089277115</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1300586522030267</t>
+          <t>2.1324162546209573</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.7626320669635267</t>
+          <t>1.759583149849845</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4129770447307437</t>
+          <t>2.4108123467650544</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3098857553034104</t>
+          <t>1.308197811798181</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.740275936547933</t>
+          <t>9.747642269411108</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.7044788790088</t>
+          <t>2.7052132254043</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.827810366997618</t>
+          <t>24.855748049467188</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.896282825111442</t>
+          <t>5.869178962246176</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.87111442860539</t>
+          <t>40.8951168320198</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.255201882181451</t>
+          <t>7.259490745487004</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.100106362848848</t>
+          <t>22.1004788736988</t>
         </is>
       </c>
     </row>
@@ -2717,7 +2717,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.344561252394988</t>
+          <t>1.3455717716039233</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.118402266179311</t>
+          <t>7.114400308121961</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.6452003491139453</t>
+          <t>2.64772765297398</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.760951281628627</t>
+          <t>5.764061235966218</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.24479906601324</t>
+          <t>21.21411771073802</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1687117473140312</t>
+          <t>1.1704637820302892</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.43741491584374104</t>
+          <t>0.43758979377584517</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.3078804119795677</t>
+          <t>2.3119148846580018</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.062104536223866</t>
+          <t>5.071622736239579</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.154164301930619</t>
+          <t>9.164076992184583</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.049054367945791</t>
+          <t>2.0515469862802007</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.7694447255371064</t>
+          <t>3.770307462668546</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3756685985989271</t>
+          <t>0.37597752388730604</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.606383134619714</t>
+          <t>4.613173510921976</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2938361980686532</t>
+          <t>0.2938871194131131</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.7777377653366493</t>
+          <t>2.7790200213606404</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5415476633099505</t>
+          <t>1.5429381724920674</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.5366765770740098</t>
+          <t>1.5371379841690436</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5765726367923385</t>
+          <t>0.5766293490807008</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8666868020926444</t>
+          <t>1.866942179953085</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8857845986430897</t>
+          <t>1.8869496557045216</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.595176338952942</t>
+          <t>2.5967256189951096</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.051937359014278</t>
+          <t>6.061535597579528</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.763693499947238</t>
+          <t>3.7598169538776336</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3.96984405647109</t>
+          <t>3.977102310729566</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.3659682268771594</t>
+          <t>2.364702110842875</t>
         </is>
       </c>
     </row>
@@ -3839,7 +3839,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.8346174301824273</t>
+          <t>0.8345435242855277</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5880738377271513</t>
+          <t>2.5903710691932207</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.61318112226862</t>
+          <t>16.61159760445597</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.15053279214219</t>
+          <t>9.167574413979871</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>19.78754117496522</t>
+          <t>19.79604225553276</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.59833194162411</t>
+          <t>9.60809745399905</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.357290858113505</t>
+          <t>22.372326922838695</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>13.431560537320888</t>
+          <t>13.42000546627794</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.9608386981309094</t>
+          <t>2.9633351177829974</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.30140178227087</t>
+          <t>17.31134230584965</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.386943009185952</t>
+          <t>6.383774019915773</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.416625552728682</t>
+          <t>4.40903942137464</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.7814210035081697</t>
+          <t>1.7840390227554954</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.3554843321073164</t>
+          <t>2.3606454353698547</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.6947141858971432</t>
+          <t>0.696097880043544</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5.80468111452241</t>
+          <t>5.811252869765881</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4305834624004348</t>
+          <t>2.4351914080931376</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.20002032472453</t>
+          <t>2.198737239288866</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.28323177374269676</t>
+          <t>0.28384418931991534</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3625160056077975</t>
+          <t>0.36272899202234754</t>
         </is>
       </c>
     </row>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.4073344279239269</t>
+          <t>0.40680695568551983</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2.0581513375229585</t>
+          <t>2.0631122721488673</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3747447007115206</t>
+          <t>1.3778231213128702</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.1493518974489787</t>
+          <t>1.1513359738702909</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.35989552172144706</t>
+          <t>0.35994806169069243</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8559175129745157</t>
+          <t>0.8570983944895296</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.497970656994898</t>
+          <t>12.489790205676222</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>82.28086548853786</t>
+          <t>82.33539619162269</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.82812392743921</t>
+          <t>17.8598189530847</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.336941334911018</t>
+          <t>17.31511670490435</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.3296974837797</t>
+          <t>95.77899130394034</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>15.987841789556805</t>
+          <t>15.986454877423068</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -490,12 +490,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.637989362345085</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.269321654999558</t>
+          <t>6.114675604710329</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.546548380998475</t>
+          <t>1.5881873585002881</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1040,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.982134295944779</t>
+          <t>0.882890415443834</t>
         </is>
       </c>
     </row>
@@ -1656,12 +1656,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.746403364385035</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1700,12 +1700,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>3.44498357515081</t>
+          <t>2.278896667554875</t>
         </is>
       </c>
     </row>
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.544789606884329</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.137871572923594</t>
+          <t>3.4343440543921933</t>
         </is>
       </c>
     </row>
@@ -3482,12 +3482,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>1.5371379841690436</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3834,12 +3834,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>0.8345435242855277</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4538,12 +4538,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>5.811252869765881</t>
+          <t>2.7514720464501536</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.198737239288866</t>
+          <t>0.8070508367907463</t>
         </is>
       </c>
     </row>
@@ -4802,12 +4802,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>0.40680695568551983</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4912,12 +4912,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>2.0631122721488673</t>
+          <t>0.654466649878696</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.37632562457711</t>
+          <t>6.549937413252412</t>
         </is>
       </c>
     </row>
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>15.810561449629022</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.114675604710329</t>
+          <t>6.037369449425611</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.427615066640635</t>
+          <t>2.469219189886164</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5881873585002881</t>
+          <t>1.5681806283602544</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.2015699487283396</t>
+          <t>4.171609628170581</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.34820770565918</t>
+          <t>2.3221745795147504</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.473564005455468</t>
+          <t>5.426033303808402</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.430840546867309</t>
+          <t>6.358715696002861</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.074897300499384</t>
+          <t>5.027612840522217</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.1098563988051193</t>
+          <t>2.086384373440504</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.68429271447673</t>
+          <t>12.64658658765209</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7712496821925272</t>
+          <t>0.7654782019193629</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.8115696071666</t>
+          <t>6.714408823725101</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.851483964559458</t>
+          <t>10.77988173208803</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.68214487220917</t>
+          <t>5.654634785273151</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.7281619174213612</t>
+          <t>1.691478199968012</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.050245004990942</t>
+          <t>7.033203777410014</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.530209824755405</t>
+          <t>8.595103880648434</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14.06608577073376</t>
+          <t>14.014534051767962</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.584452299997466</t>
+          <t>4.709777885551745</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.349527232251154</t>
+          <t>6.292467779255011</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.882890415443834</t>
+          <t>0.8795000385622009</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.581071574418942</t>
+          <t>7.524152524510821</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.386088009954863</t>
+          <t>4.351531987020248</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.342219454354002</t>
+          <t>5.318094067265153</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.9315233387901625</t>
+          <t>3.9028130790672986</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.7355189998293</t>
+          <t>18.67026632083008</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.72436054811363</t>
+          <t>12.705443795970572</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14.077351771980636</t>
+          <t>13.980664023725135</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.548024109543142</t>
+          <t>4.524575577182446</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.968394052950249</t>
+          <t>4.938930348827703</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.00771638044802</t>
+          <t>0.9950409818274402</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>7.018863192545318</t>
+          <t>6.993137326207581</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14.30659213177179</t>
+          <t>14.29193967587813</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.0249631229255742</t>
+          <t>2.0030551759799975</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.32640328305607</t>
+          <t>5.302103469377421</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.40522224533119</t>
+          <t>5.870525244263555</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.737871855704123</t>
+          <t>3.698774874968567</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.918653708507097</t>
+          <t>5.849773397438331</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.84424457928631</t>
+          <t>16.68436984034377</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.278896667554875</t>
+          <t>2.280225995237052</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1355322402961505</t>
+          <t>2.1256037667298386</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7349282260217898</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1832,12 +1832,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>14.79052575228991</t>
+          <t>4.033270713373156</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.202554779682536</t>
+          <t>20.16777088288982</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>3.4343440543921933</t>
+          <t>1.4301115683429888</t>
         </is>
       </c>
     </row>
@@ -1898,12 +1898,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>75.53734087275534</t>
+          <t>14.494443201341015</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.0550087424665264</t>
+          <t>2.0310160465093787</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.6904200117001515</t>
+          <t>4.681345931488255</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.185120714599598</t>
+          <t>6.162043806138468</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.712910075774253</t>
+          <t>4.704155095439699</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.98917452111926</t>
+          <t>5.970678255455472</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.91049401614133</t>
+          <t>9.837789876770735</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.179908529279587</t>
+          <t>6.150145481788255</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.231544968281098</t>
+          <t>4.22616568769431</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.230325301975195</t>
+          <t>7.185193204433799</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.335636177509354</t>
+          <t>10.256863134473782</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.753596095761784</t>
+          <t>5.745419861452669</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7057354171204595</t>
+          <t>0.695727114575787</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.95388476217289</t>
+          <t>22.7476059307773</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.6857474162912816</t>
+          <t>6.639362148407837</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>96.78167349910503</t>
+          <t>96.77039710499108</t>
         </is>
       </c>
     </row>
@@ -2250,12 +2250,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>9.834949930463743</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>43.48660725790063</t>
+          <t>43.83594235809645</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12.45242338739863</t>
+          <t>12.63130215885073</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.792870089277115</t>
+          <t>5.703076370317405</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1324162546209573</t>
+          <t>2.1081818659122695</t>
         </is>
       </c>
     </row>
@@ -2360,12 +2360,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1.759583149849845</t>
+          <t>0.5055390812673553</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4108123467650544</t>
+          <t>2.397140842381139</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.308197811798181</t>
+          <t>1.3046946284373147</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.747642269411108</t>
+          <t>9.735423493837777</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.7052132254043</t>
+          <t>2.6867783546523505</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.855748049467188</t>
+          <t>24.68949413272273</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.869178962246176</t>
+          <t>7.280545468311852</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.8951168320198</t>
+          <t>41.16391525262874</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.259490745487004</t>
+          <t>7.261461879355725</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.1004788736988</t>
+          <t>22.321014626152348</t>
         </is>
       </c>
     </row>
@@ -2712,12 +2712,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>1.3455717716039233</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>7.114400308121961</t>
+          <t>3.9556493087561453</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2.64772765297398</t>
+          <t>5.0103519545005355</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.764061235966218</t>
+          <t>5.739936232901687</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.21411771073802</t>
+          <t>21.49221054524137</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1704637820302892</t>
+          <t>1.1547230697608502</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.43758979377584517</t>
+          <t>0.4305179407637379</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.3119148846580018</t>
+          <t>2.3011887943052685</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.071622736239579</t>
+          <t>5.047886353364553</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.164076992184583</t>
+          <t>9.117712627760413</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.0515469862802007</t>
+          <t>2.0322878185339697</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.770307462668546</t>
+          <t>3.745633566697131</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.37597752388730604</t>
+          <t>0.3707261390744961</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.613173510921976</t>
+          <t>4.5555256366430505</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2938871194131131</t>
+          <t>0.29753309377859793</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.7790200213606404</t>
+          <t>2.7529915438882497</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5429381724920674</t>
+          <t>1.5225568407618855</t>
         </is>
       </c>
     </row>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5766293490807008</t>
+          <t>0.5729445973690197</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.866942179953085</t>
+          <t>1.8578879374309096</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8869496557045216</t>
+          <t>1.8704702886862687</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5967256189951096</t>
+          <t>2.566936101316664</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>6.061535597579528</t>
+          <t>5.161832060164009</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.7598169538776336</t>
+          <t>3.7379472547471657</t>
         </is>
       </c>
     </row>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>3.977102310729566</t>
+          <t>2.648405294595719</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.364702110842875</t>
+          <t>2.3367866009358673</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5903710691932207</t>
+          <t>2.582700535854</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.61159760445597</t>
+          <t>16.44933708540542</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.167574413979871</t>
+          <t>9.215660444409963</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>19.79604225553276</t>
+          <t>11.639977072863608</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.60809745399905</t>
+          <t>9.576367224955163</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.372326922838695</t>
+          <t>22.265668909176977</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>13.42000546627794</t>
+          <t>14.45232124836745</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.9633351177829974</t>
+          <t>2.9559916954013006</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.31134230584965</t>
+          <t>17.17844038858385</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.383774019915773</t>
+          <t>6.3605374361425815</t>
         </is>
       </c>
     </row>
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.40903942137464</t>
+          <t>4.744594450678349</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.7840390227554954</t>
+          <t>1.168985883619797</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.3606454353698547</t>
+          <t>2.3410999212577313</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.696097880043544</t>
+          <t>0.684723641131261</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.7514720464501536</t>
+          <t>2.76564360452538</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4351914080931376</t>
+          <t>2.416807393898779</t>
         </is>
       </c>
     </row>
@@ -4626,12 +4626,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>0.8070508367907463</t>
+          <t>3.0374624681029143</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.28384418931991534</t>
+          <t>0.2866389319083305</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.36272899202234754</t>
+          <t>0.35750094335913774</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.654466649878696</t>
+          <t>0.6493090569443929</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3778231213128702</t>
+          <t>1.35953360261402</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.1513359738702909</t>
+          <t>1.4928719938720576</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.35994806169069243</t>
+          <t>0.3567214201941076</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8570983944895296</t>
+          <t>0.8500121541829382</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.489790205676222</t>
+          <t>11.753179575654634</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>82.33539619162269</t>
+          <t>83.87324377453572</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.8598189530847</t>
+          <t>17.81503847467284</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.31511670490435</t>
+          <t>16.803472857847492</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.77899130394034</t>
+          <t>95.98049454616478</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,205 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>15.986454877423068</t>
+          <t>16.022784174128166</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BU_STR_Bardock_Gine</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BU_INT_Paragus_Broly</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>F2P_INT_Tien</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>1.117904969068504</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>F2P_PHY_ChiChi</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>F2P_INT_Gohan_Youth</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>1.1547837274773178</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>F2P_INT_Caulifla</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>1.092433204551842</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_Kale</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>3.459658703576146</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>CLR_AGL_Jiren</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>63.6656098693319</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LR_TEQ_Full_Power_Jiren</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>4.052197543667063</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.549937413252412</t>
+          <t>6.11545008123986</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.037369449425611</t>
+          <t>6.27490599467579</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.469219189886164</t>
+          <t>2.542081985459353</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5681806283602544</t>
+          <t>1.5556014917515486</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.171609628170581</t>
+          <t>4.422047863530979</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3221745795147504</t>
+          <t>2.304960369165922</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.426033303808402</t>
+          <t>5.453652379257703</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.358715696002861</t>
+          <t>6.427772743439789</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.027612840522217</t>
+          <t>5.644494092444191</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.086384373440504</t>
+          <t>2.052750144555856</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.64658658765209</t>
+          <t>11.94926583826945</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7654782019193629</t>
+          <t>0.7535432542524587</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.714408823725101</t>
+          <t>6.786299761142569</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.77988173208803</t>
+          <t>10.049787810155049</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.654634785273151</t>
+          <t>5.312048075474504</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.691478199968012</t>
+          <t>13.786959159024141</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.033203777410014</t>
+          <t>6.906675732467392</t>
         </is>
       </c>
     </row>
@@ -952,12 +952,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.595103880648434</t>
+          <t>7.109338359815634</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14.014534051767962</t>
+          <t>12.83995146692927</t>
         </is>
       </c>
     </row>
@@ -996,12 +996,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.709777885551745</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.292467779255011</t>
+          <t>6.302897338930329</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8795000385622009</t>
+          <t>0.8636385550273713</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.524152524510821</t>
+          <t>7.53840323730951</t>
         </is>
       </c>
     </row>
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4.351531987020248</t>
+          <t>2.1608215059348588</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.318094067265153</t>
+          <t>5.066948487718873</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.9028130790672986</t>
+          <t>3.750524431909625</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.67026632083008</t>
+          <t>18.2796452591809</t>
         </is>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.2777777777777778</t>
+          <t>0.8333333333333333</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.705443795970572</t>
+          <t>12.856231429104213</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.980664023725135</t>
+          <t>12.766321083683543</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.524575577182446</t>
+          <t>4.643071183915694</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.938930348827703</t>
+          <t>4.868453509675474</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9950409818274402</t>
+          <t>0.9922632515675289</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.993137326207581</t>
+          <t>6.9772949462574445</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14.29193967587813</t>
+          <t>15.38523387306618</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.0030551759799975</t>
+          <t>1.9768251066610851</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.302103469377421</t>
+          <t>5.366616198181649</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.870525244263555</t>
+          <t>5.964576934318563</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.698774874968567</t>
+          <t>3.668459543628785</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.849773397438331</t>
+          <t>5.702890791435186</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.68436984034377</t>
+          <t>16.580848597487226</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.280225995237052</t>
+          <t>2.3195449635213743</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1256037667298386</t>
+          <t>2.1203936765118243</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.033270713373156</t>
+          <t>4.070132287159069</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.16777088288982</t>
+          <t>20.61979443799106</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.4301115683429888</t>
+          <t>1.4392265881006914</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.494443201341015</t>
+          <t>15.018968710523298</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.0310160465093787</t>
+          <t>2.2040004983621913</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.681345931488255</t>
+          <t>4.500720641404691</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.162043806138468</t>
+          <t>5.956935427694018</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.704155095439699</t>
+          <t>4.486375551306492</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.970678255455472</t>
+          <t>5.774133015511304</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.837789876770735</t>
+          <t>9.589624515691256</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.150145481788255</t>
+          <t>5.952288994515822</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.22616568769431</t>
+          <t>4.0596309733351</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.185193204433799</t>
+          <t>6.950615071248759</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.256863134473782</t>
+          <t>10.021962878765017</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.745419861452669</t>
+          <t>5.552080161802569</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.695727114575787</t>
+          <t>0.7021884894386865</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.7476059307773</t>
+          <t>22.46400192251106</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.639362148407837</t>
+          <t>6.645728300315836</t>
         </is>
       </c>
     </row>
@@ -2228,12 +2228,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>96.77039710499108</t>
+          <t>1.9396855478448458</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>43.83594235809645</t>
+          <t>42.74192584264514</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12.63130215885073</t>
+          <t>12.01409257127779</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.703076370317405</t>
+          <t>5.641302748406673</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1081818659122695</t>
+          <t>2.1122305554045937</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5055390812673553</t>
+          <t>0.5016350562401737</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.397140842381139</t>
+          <t>2.4156982725398315</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3046946284373147</t>
+          <t>1.2773740054139364</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.735423493837777</t>
+          <t>9.73331457067624</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.6867783546523505</t>
+          <t>2.6699410504004</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.68949413272273</t>
+          <t>24.394470447357204</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.280545468311852</t>
+          <t>7.1393086630784675</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>41.16391525262874</t>
+          <t>40.32568842583122</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.261461879355725</t>
+          <t>6.8741683962756355</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.321014626152348</t>
+          <t>22.385471906796866</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.9556493087561453</t>
+          <t>3.952974355555727</t>
         </is>
       </c>
     </row>
@@ -2778,12 +2778,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>5.0103519545005355</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.739936232901687</t>
+          <t>5.700939811512467</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.49221054524137</t>
+          <t>20.72226447011987</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1547230697608502</t>
+          <t>1.1671306784512687</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.4305179407637379</t>
+          <t>0.42863570533424217</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.3011887943052685</t>
+          <t>2.292078616747048</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.047886353364553</t>
+          <t>5.086885316461945</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.117712627760413</t>
+          <t>9.25628439118298</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.0322878185339697</t>
+          <t>1.9699876882149603</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>3.745633566697131</t>
+          <t>1.4952538844550782</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3707261390744961</t>
+          <t>0.3646659370464228</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.5555256366430505</t>
+          <t>4.569452076842946</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.29753309377859793</t>
+          <t>0.28953390457891637</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.7529915438882497</t>
+          <t>2.7752299789332078</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5225568407618855</t>
+          <t>1.5405794164196758</t>
         </is>
       </c>
     </row>
@@ -3504,12 +3504,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>0.5729445973690197</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8578879374309096</t>
+          <t>1.8588578166572205</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8704702886862687</t>
+          <t>1.837911913934768</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.566936101316664</t>
+          <t>2.5703941998119855</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>5.161832060164009</t>
+          <t>4.927702078788279</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.7379472547471657</t>
+          <t>3.714127879685252</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.648405294595719</t>
+          <t>2.5790811366399407</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.3367866009358673</t>
+          <t>2.3586022179077406</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.582700535854</t>
+          <t>2.581544516435581</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.44933708540542</t>
+          <t>16.09442866479277</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.215660444409963</t>
+          <t>9.132311536934552</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11.639977072863608</t>
+          <t>11.767612348524938</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>9.576367224955163</t>
+          <t>8.612058552793911</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>22.265668909176977</t>
+          <t>19.26312054861664</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.45232124836745</t>
+          <t>14.33938226100928</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.9559916954013006</t>
+          <t>2.8036560248374474</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.17844038858385</t>
+          <t>18.21105772737175</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.3605374361425815</t>
+          <t>6.517590653794161</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>4.744594450678349</t>
+          <t>5.3118859217946195</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.168985883619797</t>
+          <t>1.1697667648707197</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.3410999212577313</t>
+          <t>2.3629369710683066</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.684723641131261</t>
+          <t>0.6924498408200123</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.76564360452538</t>
+          <t>2.721877585410958</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.416807393898779</t>
+          <t>2.4621859600262628</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.0374624681029143</t>
+          <t>2.9047785773041968</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.2866389319083305</t>
+          <t>0.28788642909844087</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.35750094335913774</t>
+          <t>0.36440565465395625</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.6493090569443929</t>
+          <t>0.6473173923297697</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.35953360261402</t>
+          <t>1.3654983433760393</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.4928719938720576</t>
+          <t>1.529806423338707</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3567214201941076</t>
+          <t>0.350181289122239</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8500121541829382</t>
+          <t>0.8467162812669354</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>11.753179575654634</t>
+          <t>12.109464576823973</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.87324377453572</t>
+          <t>83.57753665429692</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.81503847467284</t>
+          <t>17.96412808624451</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.803472857847492</t>
+          <t>16.57477246978912</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.98049454616478</t>
+          <t>95.48693558295376</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>16.022784174128166</t>
+          <t>16.111457504315194</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.117904969068504</t>
+          <t>1.1195104047103641</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1547837274773178</t>
+          <t>1.1631527449973917</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1.092433204551842</t>
+          <t>1.0960402331273116</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.459658703576146</t>
+          <t>3.4622349747431294</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.6656098693319</t>
+          <t>63.766094900227</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,73 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.052197543667063</t>
+          <t>4.118400432365031</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>BU_AGL_Bulma_Bunny</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>22.84769220628832</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DF_STR_Master_Roshi</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>24.18639538682225</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>F2PLR_PHY_Pajamas_Beerus</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -5330,12 +5330,12 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>16.111457504315194</t>
+          <t>6.68491054074687</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.11545008123986</t>
+          <t>6.126409615703768</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.27490599467579</t>
+          <t>6.299025608177714</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.542081985459353</t>
+          <t>2.551940117044956</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5556014917515486</t>
+          <t>1.5567069214352767</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.422047863530979</t>
+          <t>4.4400677834812505</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.304960369165922</t>
+          <t>2.3089630611547722</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.453652379257703</t>
+          <t>5.438720539843782</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.427772743439789</t>
+          <t>6.431256229306559</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.644494092444191</t>
+          <t>5.649024600226481</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.052750144555856</t>
+          <t>2.059622672872867</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.94926583826945</t>
+          <t>11.900908065753761</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7535432542524587</t>
+          <t>0.7582921951485071</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.786299761142569</t>
+          <t>6.8046969361695275</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.049787810155049</t>
+          <t>10.057325323279041</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.312048075474504</t>
+          <t>5.30835842789118</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.786959159024141</t>
+          <t>13.66104025001445</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.906675732467392</t>
+          <t>6.924395186439783</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.109338359815634</t>
+          <t>7.092286234370638</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.83995146692927</t>
+          <t>12.89522762875426</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.302897338930329</t>
+          <t>6.302908904314965</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8636385550273713</t>
+          <t>0.8670281694194908</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.53840323730951</t>
+          <t>7.538160886955179</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.1608215059348588</t>
+          <t>2.1673975032969413</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.066948487718873</t>
+          <t>5.086198149983105</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.750524431909625</t>
+          <t>3.758451177709153</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.2796452591809</t>
+          <t>18.29012463323369</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.856231429104213</t>
+          <t>12.842934517501716</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.766321083683543</t>
+          <t>12.785995248542182</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.643071183915694</t>
+          <t>4.64113372913355</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.868453509675474</t>
+          <t>4.90139506024834</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9922632515675289</t>
+          <t>0.9900661890465906</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.9772949462574445</t>
+          <t>6.9371523073015595</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.38523387306618</t>
+          <t>15.42020587100708</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.9768251066610851</t>
+          <t>1.9813752129402813</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.366616198181649</t>
+          <t>5.385520699568108</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.964576934318563</t>
+          <t>5.964555768226057</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.668459543628785</t>
+          <t>3.681720034147137</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.702890791435186</t>
+          <t>5.695692827540766</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.580848597487226</t>
+          <t>16.54881142933445</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.3195449635213743</t>
+          <t>2.326244459100528</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1203936765118243</t>
+          <t>2.1147665768293678</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.070132287159069</t>
+          <t>4.065172888453759</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.61979443799106</t>
+          <t>20.674298041111967</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.4392265881006914</t>
+          <t>1.4318649802935806</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15.018968710523298</t>
+          <t>14.975056973014276</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.2040004983621913</t>
+          <t>2.172683459669571</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.500720641404691</t>
+          <t>4.504903565657519</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.956935427694018</t>
+          <t>5.9705835036177435</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.486375551306492</t>
+          <t>4.4902994596248655</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.774133015511304</t>
+          <t>5.7807307691137515</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.589624515691256</t>
+          <t>9.583253009680035</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.952288994515822</t>
+          <t>5.957342976306959</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.0596309733351</t>
+          <t>4.06474430829893</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.950615071248759</t>
+          <t>6.951665907740321</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.021962878765017</t>
+          <t>10.016148483738107</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.552080161802569</t>
+          <t>5.559923807801083</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7021884894386865</t>
+          <t>0.698555100013008</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.46400192251106</t>
+          <t>22.41543408372273</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.645728300315836</t>
+          <t>6.6277405106475955</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.9396855478448458</t>
+          <t>1.9399113517551285</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42.74192584264514</t>
+          <t>42.7413615362914</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12.01409257127779</t>
+          <t>11.94913843781582</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.641302748406673</t>
+          <t>5.626087734619789</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1122305554045937</t>
+          <t>2.1076350430196484</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5016350562401737</t>
+          <t>0.501551590677523</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4156982725398315</t>
+          <t>2.419123308367877</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.2773740054139364</t>
+          <t>1.2802175397184747</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.73331457067624</t>
+          <t>9.727256792443308</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.6699410504004</t>
+          <t>2.662755031353509</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.394470447357204</t>
+          <t>24.407113438424492</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.1393086630784675</t>
+          <t>7.127010725970761</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.32568842583122</t>
+          <t>40.19242108016971</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.8741683962756355</t>
+          <t>6.85533490579601</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.385471906796866</t>
+          <t>22.34176106137726</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.952974355555727</t>
+          <t>3.945229612868607</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.700939811512467</t>
+          <t>5.73562871380233</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.72226447011987</t>
+          <t>20.53854485614647</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1671306784512687</t>
+          <t>1.1670251293044718</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.42863570533424217</t>
+          <t>0.42575198181422813</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.292078616747048</t>
+          <t>2.28746993334709</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.086885316461945</t>
+          <t>5.09197268785061</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.25628439118298</t>
+          <t>9.254617263976998</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.9699876882149603</t>
+          <t>1.95070100058037</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.4952538844550782</t>
+          <t>1.4867817415782805</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3646659370464228</t>
+          <t>0.36271995833314513</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.569452076842946</t>
+          <t>4.577154571608736</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.28953390457891637</t>
+          <t>0.2888948090435106</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.7752299789332078</t>
+          <t>2.769701129387432</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5405794164196758</t>
+          <t>1.5335149713641565</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8588578166572205</t>
+          <t>1.8561857265346617</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.837911913934768</t>
+          <t>1.8249597928856305</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5703941998119855</t>
+          <t>2.5705162587520896</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.927702078788279</t>
+          <t>4.943733007236769</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.714127879685252</t>
+          <t>3.730517488403736</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.5790811366399407</t>
+          <t>2.5830098804224004</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.3586022179077406</t>
+          <t>2.35110205339861</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.581544516435581</t>
+          <t>2.578507305376714</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.09442866479277</t>
+          <t>15.91952811876748</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.132311536934552</t>
+          <t>9.133940736434642</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11.767612348524938</t>
+          <t>11.774826206985512</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.612058552793911</t>
+          <t>8.537087790352942</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.26312054861664</t>
+          <t>19.266593360210194</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.33938226100928</t>
+          <t>14.38637762556562</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.8036560248374474</t>
+          <t>2.8018570270631704</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.21105772737175</t>
+          <t>18.12971536886753</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.517590653794161</t>
+          <t>6.512118813350172</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.3118859217946195</t>
+          <t>5.313512560091958</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.1697667648707197</t>
+          <t>1.168902502418523</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.3629369710683066</t>
+          <t>2.373360523249684</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.6924498408200123</t>
+          <t>0.6912866627073113</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.721877585410958</t>
+          <t>2.716646426484445</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4621859600262628</t>
+          <t>2.4690431560469346</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.9047785773041968</t>
+          <t>2.8782977113309807</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.28788642909844087</t>
+          <t>0.28707406833839955</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.36440565465395625</t>
+          <t>0.36330149736105855</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.6473173923297697</t>
+          <t>0.6482138192907776</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3654983433760393</t>
+          <t>1.3621073559153398</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.529806423338707</t>
+          <t>1.538443165003261</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.350181289122239</t>
+          <t>0.3488490274794336</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8467162812669354</t>
+          <t>0.8443234103511326</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.109464576823973</t>
+          <t>12.108026872889452</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.57753665429692</t>
+          <t>83.51968800609593</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.96412808624451</t>
+          <t>18.06876637487641</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.57477246978912</t>
+          <t>16.535620643718804</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.48693558295376</t>
+          <t>95.48386506375664</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.68491054074687</t>
+          <t>6.724168294220314</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1195104047103641</t>
+          <t>1.1225672156071296</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1631527449973917</t>
+          <t>1.1616092181773223</t>
         </is>
       </c>
     </row>
@@ -5462,12 +5462,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>1.0960402331273116</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.4622349747431294</t>
+          <t>3.4748629908767406</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.766094900227</t>
+          <t>63.72728811026222</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.118400432365031</t>
+          <t>4.105335093526613</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22.84769220628832</t>
+          <t>22.85000487164185</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>24.18639538682225</t>
+          <t>24.16530135561232</t>
         </is>
       </c>
     </row>
@@ -5600,6 +5600,182 @@
       <c r="D235" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_Cyborg_Tao</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>0.9523597765956043</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_Cell_Perfect</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>F2P_STR_SS2_Great_Saiyaman</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BU_AGL_Margarita</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>3.610958487977693</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Kyawei</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BU_INT_Cocotte</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>3.463730656213336</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Mai</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>14.78089073715648</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>LR_STR_Team_Turles</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>8.789498404718787</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.126409615703768</t>
+          <t>6.139187248922411</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.299025608177714</t>
+          <t>6.299252947052693</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.551940117044956</t>
+          <t>2.550440564538791</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5567069214352767</t>
+          <t>1.5638155202842765</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.4400677834812505</t>
+          <t>4.45878644481067</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3089630611547722</t>
+          <t>2.316705278844881</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.438720539843782</t>
+          <t>5.458490992683864</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.431256229306559</t>
+          <t>6.448982713151821</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.649024600226481</t>
+          <t>5.659956984522379</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.059622672872867</t>
+          <t>2.0657664196040004</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.900908065753761</t>
+          <t>11.91705747038271</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7582921951485071</t>
+          <t>0.7631217896196449</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.8046969361695275</t>
+          <t>6.828444916708278</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.057325323279041</t>
+          <t>10.074871387836708</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.30835842789118</t>
+          <t>5.324663511065344</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.66104025001445</t>
+          <t>13.625070099797988</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.924395186439783</t>
+          <t>6.940239084363435</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.092286234370638</t>
+          <t>7.092492268063044</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.89522762875426</t>
+          <t>12.94681927865114</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.302908904314965</t>
+          <t>6.307336815643707</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.8670281694194908</t>
+          <t>0.872476553881592</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.538160886955179</t>
+          <t>7.559263188369169</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.1673975032969413</t>
+          <t>2.181871335400589</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.086198149983105</t>
+          <t>5.104466944348533</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.758451177709153</t>
+          <t>3.7754910853667396</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.29012463323369</t>
+          <t>18.36624211695437</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.842934517501716</t>
+          <t>12.847084081328298</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.785995248542182</t>
+          <t>12.802063428896101</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.64113372913355</t>
+          <t>4.644025760502991</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.90139506024834</t>
+          <t>4.918895131342344</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9900661890465906</t>
+          <t>0.9907969195193295</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.9371523073015595</t>
+          <t>6.926561291691385</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.42020587100708</t>
+          <t>15.44001656524471</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.9813752129402813</t>
+          <t>1.9869563239945651</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.385520699568108</t>
+          <t>5.402236243701537</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.964555768226057</t>
+          <t>5.970765865259975</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.681720034147137</t>
+          <t>3.690460081922671</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.695692827540766</t>
+          <t>5.707702608445341</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.54881142933445</t>
+          <t>16.53938918826345</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.326244459100528</t>
+          <t>2.319147478378109</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1147665768293678</t>
+          <t>2.1156345751100005</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.065172888453759</t>
+          <t>4.066872442469233</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.674298041111967</t>
+          <t>20.693688200157062</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.4318649802935806</t>
+          <t>1.4390032128066501</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.975056973014276</t>
+          <t>14.921779324807789</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.172683459669571</t>
+          <t>2.165978224523357</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.504903565657519</t>
+          <t>4.526041727350825</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.9705835036177435</t>
+          <t>5.998706346952921</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.4902994596248655</t>
+          <t>4.511356410298207</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.7807307691137515</t>
+          <t>5.811342098454194</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.583253009680035</t>
+          <t>9.619963275700336</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.957342976306959</t>
+          <t>5.988242591301891</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.06474430829893</t>
+          <t>4.083712514845842</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.951665907740321</t>
+          <t>6.986453669886759</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.016148483738107</t>
+          <t>10.054401063901981</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.559923807801083</t>
+          <t>5.5880804407076194</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.698555100013008</t>
+          <t>0.7003229135392982</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.41543408372273</t>
+          <t>22.4665348785196</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.6277405106475955</t>
+          <t>6.64447598658541</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.9399113517551285</t>
+          <t>1.9421795582701122</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42.7413615362914</t>
+          <t>42.61502106224913</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.94913843781582</t>
+          <t>11.92892515186385</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.626087734619789</t>
+          <t>5.631115153920776</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1076350430196484</t>
+          <t>2.1118098995514942</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.501551590677523</t>
+          <t>0.5036889623490559</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.419123308367877</t>
+          <t>2.4296087760503817</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.2802175397184747</t>
+          <t>1.284580260784546</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.727256792443308</t>
+          <t>9.734242536085787</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.662755031353509</t>
+          <t>2.6739551634150907</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.407113438424492</t>
+          <t>24.472467565623347</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.127010725970761</t>
+          <t>7.162944270766605</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.19242108016971</t>
+          <t>40.15589117356571</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.85533490579601</t>
+          <t>6.857380409802685</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.34176106137726</t>
+          <t>22.336005402446638</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.945229612868607</t>
+          <t>3.952111760008849</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.73562871380233</t>
+          <t>5.76940050110566</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.53854485614647</t>
+          <t>20.49242591562365</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1670251293044718</t>
+          <t>1.1699285959969288</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.42575198181422813</t>
+          <t>0.4267223156846239</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.28746993334709</t>
+          <t>2.2937221340903804</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.09197268785061</t>
+          <t>5.106976026784182</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.254617263976998</t>
+          <t>9.274883747889975</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.95070100058037</t>
+          <t>1.9567379787105104</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.4867817415782805</t>
+          <t>1.4897124396696813</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.36271995833314513</t>
+          <t>0.36408159941510554</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.577154571608736</t>
+          <t>4.597811242606415</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2888948090435106</t>
+          <t>0.2895863641272225</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.769701129387432</t>
+          <t>2.776964792931107</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5335149713641565</t>
+          <t>1.5381899971039779</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8561857265346617</t>
+          <t>1.8543667734045215</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8249597928856305</t>
+          <t>1.8315466354785563</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5705162587520896</t>
+          <t>2.5828724620759247</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.943733007236769</t>
+          <t>4.970218964301331</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.730517488403736</t>
+          <t>3.74166576990495</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.5830098804224004</t>
+          <t>2.5839983187972813</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.35110205339861</t>
+          <t>2.3593819591171354</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.578507305376714</t>
+          <t>2.5821160962015046</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>15.91952811876748</t>
+          <t>15.977242179068417</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.133940736434642</t>
+          <t>9.14010952826337</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11.774826206985512</t>
+          <t>11.810951666129451</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.537087790352942</t>
+          <t>8.518475146912962</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.266593360210194</t>
+          <t>19.258436497742636</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.38637762556562</t>
+          <t>14.4278972227444</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.8018570270631704</t>
+          <t>2.8034719683155913</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.12971536886753</t>
+          <t>18.1841111734711</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.512118813350172</t>
+          <t>6.526503692515929</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.313512560091958</t>
+          <t>5.3192563247689115</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.168902502418523</t>
+          <t>1.173478565158951</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.373360523249684</t>
+          <t>2.385417302576425</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.6912866627073113</t>
+          <t>0.6940123891396761</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.716646426484445</t>
+          <t>2.7177053905664437</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.4690431560469346</t>
+          <t>2.480946525749612</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.8782977113309807</t>
+          <t>2.8739256230049524</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.28707406833839955</t>
+          <t>0.2881046890303508</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.36330149736105855</t>
+          <t>0.3639387552098146</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.6482138192907776</t>
+          <t>0.6509053371819391</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3621073559153398</t>
+          <t>1.3687424350434405</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.538443165003261</t>
+          <t>1.5464764274893295</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3488490274794336</t>
+          <t>0.34913852280593916</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8443234103511326</t>
+          <t>0.8472346096249985</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.108026872889452</t>
+          <t>12.153908579282296</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.51968800609593</t>
+          <t>83.61409325510712</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.06876637487641</t>
+          <t>18.17057213535799</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.535620643718804</t>
+          <t>16.58286775663775</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.48386506375664</t>
+          <t>95.47701527595419</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.724168294220314</t>
+          <t>6.715618877039381</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1225672156071296</t>
+          <t>1.1289840818987298</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1616092181773223</t>
+          <t>1.1671052274681861</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.4748629908767406</t>
+          <t>3.493344367139362</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.72728811026222</t>
+          <t>63.842521077989495</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.105335093526613</t>
+          <t>4.0977566023258625</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22.85000487164185</t>
+          <t>22.84587198105828</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>24.16530135561232</t>
+          <t>24.25976922473372</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.9523597765956043</t>
+          <t>0.9583773125760349</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.610958487977693</t>
+          <t>3.612378878172543</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.463730656213336</t>
+          <t>3.478336067007227</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14.78089073715648</t>
+          <t>14.87333252412737</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,29 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.789498404718787</t>
+          <t>8.78950483384065</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>F2P_STR_Devilman</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D244"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.139187248922411</t>
+          <t>6.10332848139182</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.299252947052693</t>
+          <t>6.280041866329029</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.550440564538791</t>
+          <t>2.512869479171063</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5638155202842765</t>
+          <t>1.5452756306663638</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.45878644481067</t>
+          <t>4.41881545820895</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.316705278844881</t>
+          <t>2.2989555404356685</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.458490992683864</t>
+          <t>5.428707323666461</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.448982713151821</t>
+          <t>6.414820669898379</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.659956984522379</t>
+          <t>5.613517563180679</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.0657664196040004</t>
+          <t>2.034250836198688</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.91705747038271</t>
+          <t>11.81644303907821</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7631217896196449</t>
+          <t>0.7507450396765443</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.828444916708278</t>
+          <t>6.787839591532972</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.074871387836708</t>
+          <t>10.014015689877528</t>
         </is>
       </c>
     </row>
@@ -864,12 +864,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.324663511065344</t>
+          <t>6.22273997052508</t>
         </is>
       </c>
     </row>
@@ -908,12 +908,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.625070099797988</t>
+          <t>11.02723780829681</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.940239084363435</t>
+          <t>6.851508965080237</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.092492268063044</t>
+          <t>7.108857276391911</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.94681927865114</t>
+          <t>12.846109206336271</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.307336815643707</t>
+          <t>6.268051209730277</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.872476553881592</t>
+          <t>0.853442001262307</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.559263188369169</t>
+          <t>7.538742779127972</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.181871335400589</t>
+          <t>2.1541910564754527</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.104466944348533</t>
+          <t>5.030420694834435</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.7754910853667396</t>
+          <t>3.739932615689259</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.36624211695437</t>
+          <t>18.25287623026298</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.847084081328298</t>
+          <t>12.87419044127104</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.802063428896101</t>
+          <t>12.762350519660338</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.644025760502991</t>
+          <t>4.641186469070703</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.918895131342344</t>
+          <t>4.828481433651991</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9907969195193295</t>
+          <t>0.9821933667525898</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.926561291691385</t>
+          <t>6.939891642288529</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.44001656524471</t>
+          <t>15.25901006231217</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.9869563239945651</t>
+          <t>1.9573903129269339</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.402236243701537</t>
+          <t>5.343835950570838</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.970765865259975</t>
+          <t>5.978166137261814</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.690460081922671</t>
+          <t>3.644224005403892</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.707702608445341</t>
+          <t>5.5763215515892</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.53938918826345</t>
+          <t>16.480452329711582</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.319147478378109</t>
+          <t>2.334902623385265</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.1156345751100005</t>
+          <t>2.112675817536136</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.066872442469233</t>
+          <t>4.073878863934269</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.693688200157062</t>
+          <t>20.64098526872162</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1.4390032128066501</t>
+          <t>1.4502347177253796</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.921779324807789</t>
+          <t>14.92622992584356</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.165978224523357</t>
+          <t>2.1936125185446116</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.526041727350825</t>
+          <t>4.475276112782738</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.998706346952921</t>
+          <t>5.946508447639517</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.511356410298207</t>
+          <t>4.472919338455605</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.811342098454194</t>
+          <t>5.747967983381748</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.619963275700336</t>
+          <t>9.60583521141338</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.988242591301891</t>
+          <t>5.927873950295335</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.083712514845842</t>
+          <t>4.037234671719593</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.986453669886759</t>
+          <t>6.922401905783619</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.054401063901981</t>
+          <t>10.038010791072908</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.5880804407076194</t>
+          <t>5.525162887370714</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7003229135392982</t>
+          <t>0.6963686896147615</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>22.4665348785196</t>
+          <t>22.37327928285422</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.64447598658541</t>
+          <t>6.603568039349812</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.9421795582701122</t>
+          <t>1.9347704109346182</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42.61502106224913</t>
+          <t>42.45367512101686</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.92892515186385</t>
+          <t>12.00357083486945</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.631115153920776</t>
+          <t>5.617943678802034</t>
         </is>
       </c>
     </row>
@@ -2338,12 +2338,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.1118098995514942</t>
+          <t>2.84331960429437</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5036889623490559</t>
+          <t>0.498945556604923</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4296087760503817</t>
+          <t>2.4065614521114846</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.284580260784546</t>
+          <t>1.2683330871607388</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.734242536085787</t>
+          <t>9.74745316010219</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.6739551634150907</t>
+          <t>2.6656510172797176</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.472467565623347</t>
+          <t>24.429022790796843</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.162944270766605</t>
+          <t>7.1515456565821856</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.15589117356571</t>
+          <t>40.41893799228164</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.857380409802685</t>
+          <t>6.81642238217982</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.336005402446638</t>
+          <t>22.43612567560573</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.952111760008849</t>
+          <t>3.9108535838908454</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.76940050110566</t>
+          <t>5.68617749663851</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.49242591562365</t>
+          <t>20.69651920909193</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.1699285959969288</t>
+          <t>1.1631554204409298</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.4267223156846239</t>
+          <t>0.42459236681076484</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2937221340903804</t>
+          <t>2.282565943431969</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.106976026784182</t>
+          <t>5.051797613194903</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.274883747889975</t>
+          <t>9.24749760814373</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1.9567379787105104</t>
+          <t>1.9635499559566298</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1.4897124396696813</t>
+          <t>1.47782354004584</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.36408159941510554</t>
+          <t>0.3608121381905599</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.597811242606415</t>
+          <t>4.579743754572341</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2895863641272225</t>
+          <t>0.28489529655445467</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.776964792931107</t>
+          <t>2.7865955151186306</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5381899971039779</t>
+          <t>1.5335166763873815</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8543667734045215</t>
+          <t>1.8531788718306572</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8315466354785563</t>
+          <t>1.8488694227852511</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5828724620759247</t>
+          <t>2.5546173702409987</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.970218964301331</t>
+          <t>4.93812781484254</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.74166576990495</t>
+          <t>3.6841227318376</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.5839983187972813</t>
+          <t>2.5722022748193893</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2.3593819591171354</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5821160962015046</t>
+          <t>2.5729886994198377</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>15.977242179068417</t>
+          <t>16.04605869974741</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.14010952826337</t>
+          <t>9.14689358327923</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>11.810951666129451</t>
+          <t>6.990127255245245</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.518475146912962</t>
+          <t>8.574754100611244</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.258436497742636</t>
+          <t>19.325681046458826</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.4278972227444</t>
+          <t>14.26295495813661</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2.8034719683155913</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.1841111734711</t>
+          <t>18.11599402966833</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>6.526503692515929</t>
+          <t>3.17400645252544</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.3192563247689115</t>
+          <t>5.321035001877178</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.173478565158951</t>
+          <t>1.167507325214574</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.385417302576425</t>
+          <t>2.367411323579353</t>
         </is>
       </c>
     </row>
@@ -4516,12 +4516,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>0.6940123891396761</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.7177053905664437</t>
+          <t>2.7238144437730014</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.480946525749612</t>
+          <t>2.453424879964466</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.8739256230049524</t>
+          <t>2.908680451989164</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>0.2881046890303508</t>
+          <t>0.2868837868354621</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3639387552098146</t>
+          <t>0.3614515082459389</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.6509053371819391</t>
+          <t>0.6439553072134512</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3687424350434405</t>
+          <t>1.3637711177969898</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.5464764274893295</t>
+          <t>1.5321059936125934</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.34913852280593916</t>
+          <t>0.34717247886533187</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8472346096249985</t>
+          <t>0.8388906027276298</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.153908579282296</t>
+          <t>12.124252889212551</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.61409325510712</t>
+          <t>83.62309607317087</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.17057213535799</t>
+          <t>17.99882418623362</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.58286775663775</t>
+          <t>16.476914775049327</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.47701527595419</t>
+          <t>95.50291878992604</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.715618877039381</t>
+          <t>6.723502003696333</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1289840818987298</t>
+          <t>1.1231601619714413</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1671052274681861</t>
+          <t>1.164260631406662</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.493344367139362</t>
+          <t>3.468631665205498</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.842521077989495</t>
+          <t>63.93528625728262</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.0977566023258625</t>
+          <t>4.124106878103634</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22.84587198105828</t>
+          <t>22.84135163782062</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>24.25976922473372</t>
+          <t>24.11918487665256</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.9583773125760349</t>
+          <t>0.954511881999852</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.612378878172543</t>
+          <t>3.629992359832616</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.478336067007227</t>
+          <t>3.445266143081698</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14.87333252412737</t>
+          <t>14.8573286447566</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.78950483384065</t>
+          <t>8.783635765169224</t>
         </is>
       </c>
     </row>
@@ -5798,6 +5798,28 @@
       <c r="D244" t="inlineStr">
         <is>
           <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>F2PLR_AGL_Babidi_Dabura</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>3.1172435908541343</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -644,12 +644,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.4261805799195315</t>
+          <t>5.695148896877898</t>
         </is>
       </c>
     </row>
@@ -666,12 +666,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.6666666666666665</t>
+          <t>1.6670987360597267</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1282,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4.816917251021962</t>
+          <t>2.090047064893623</t>
         </is>
       </c>
     </row>
@@ -1458,12 +1458,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.37868219872724</t>
+          <t>1.1220472257210616</t>
         </is>
       </c>
     </row>
@@ -2492,12 +2492,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>9.704702442568381</t>
+          <t>4.978165499669231</t>
         </is>
       </c>
     </row>
@@ -2558,12 +2558,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2.6494449831686815</t>
+          <t>3.7018811824373583</t>
         </is>
       </c>
     </row>
@@ -3416,12 +3416,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>1.5353784851468808</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>7.006568229970867</t>
+          <t>4.80077492567851</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.172336447791892</t>
+          <t>6.1761997561382</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.261893174463381</t>
+          <t>6.261533567078409</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.285957966333072</t>
+          <t>25.29252225921852</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.547369276236341</t>
+          <t>1.5498837160909842</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.6332882198624805</t>
+          <t>4.639710239535049</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3021208978734737</t>
+          <t>2.3014882487834023</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.659354391453373</t>
+          <t>5.662844386804879</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.6666666666666665</t>
+          <t>1.6682649272004906</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.446535053353571</t>
+          <t>6.450576435437661</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.646440047163759</t>
+          <t>5.646585011273011</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.0448672639817262</t>
+          <t>2.0459997236190732</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.79637808551397</t>
+          <t>11.7772644682311</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7378140480777011</t>
+          <t>0.7386760762670153</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.785870508441178</t>
+          <t>6.78819350685281</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.067923049062717</t>
+          <t>10.06924993843175</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.245463028353722</t>
+          <t>6.248983935516343</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.863018203944431</t>
+          <t>10.852321928038528</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.18982884235807</t>
+          <t>7.179150673394268</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.106064951947953</t>
+          <t>7.092374830228623</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.724583139937272</t>
+          <t>12.71228262309772</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.263508180932039</t>
+          <t>6.2691140747968115</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.236347668152124</t>
+          <t>1.238472485079381</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.590260313894369</t>
+          <t>7.59295532382119</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.1565973186584726</t>
+          <t>2.1580349465042445</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.991438474196622</t>
+          <t>4.989669282024708</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.7502388060994623</t>
+          <t>3.7538260956315868</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.23575090797894</t>
+          <t>18.26035709095147</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.797395663370338</t>
+          <t>12.801121936850805</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.838990990724458</t>
+          <t>12.844309569735099</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.642842564813378</t>
+          <t>4.6399962271022375</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.093233283415155</t>
+          <t>2.095053477143238</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9889263998399614</t>
+          <t>0.9889577913475308</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.862375021698824</t>
+          <t>6.85646429257421</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.25760131208693</t>
+          <t>15.26035289368773</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.7023872912911955</t>
+          <t>2.704734241624033</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.1109551899556926</t>
+          <t>1.11056472217928</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.987941400974985</t>
+          <t>5.992725044456816</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.537310102413221</t>
+          <t>4.543503104997161</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.562130220648162</t>
+          <t>5.562074645318099</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.48004716518832</t>
+          <t>16.470868659171213</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.392310364790404</t>
+          <t>2.3954207443646083</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0829033240966197</t>
+          <t>2.08230582741443</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.043876463031893</t>
+          <t>4.043039430907342</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.624264758758258</t>
+          <t>20.662354919418917</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.4706272362253703</t>
+          <t>2.46839831241463</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.509729301132808</t>
+          <t>14.53443631087714</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.191414910061525</t>
+          <t>2.1888533436486597</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.442128793856599</t>
+          <t>4.439294500472511</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.910245244473286</t>
+          <t>5.906425715555656</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.430939288457147</t>
+          <t>4.428806794912898</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.712654040817193</t>
+          <t>5.708933336395822</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.572746899311811</t>
+          <t>9.554413401793552</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.9038405322617</t>
+          <t>5.899945382444045</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.000578316891791</t>
+          <t>3.9986486214845383</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.885982816936005</t>
+          <t>6.880349416533448</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.0224351260018</t>
+          <t>10.004390013316739</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.47121971697825</t>
+          <t>5.468555844262781</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.6933608029045973</t>
+          <t>0.6931906373157</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.10000421761275</t>
+          <t>16.088607900086814</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.586975318708656</t>
+          <t>6.590764467129763</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.9080694436270849</t>
+          <t>1.9086324655969236</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42.3983244412424</t>
+          <t>42.21861929290034</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.7907848996533</t>
+          <t>11.69235026401818</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.582160036297336</t>
+          <t>5.567557255538703</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.8530479600301493</t>
+          <t>2.8500657330338663</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5002033925338267</t>
+          <t>0.5001274064732879</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.4274378154885397</t>
+          <t>2.432346245031103</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.26238868459038</t>
+          <t>1.263149006081679</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.95679369907088</t>
+          <t>4.954103614129071</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.698419869248298</t>
+          <t>3.6944051059227117</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.939867695600448</t>
+          <t>23.910040862609627</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.16809638795761</t>
+          <t>7.159998116193362</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>39.89998478787663</t>
+          <t>39.74682088549973</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.818478637034029</t>
+          <t>6.818563855402165</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.570062882455996</t>
+          <t>22.578436279623165</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.898423153694397</t>
+          <t>3.901208753740585</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.664990996124739</t>
+          <t>5.673410506115455</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.66110244169991</t>
+          <t>20.5905538170784</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2248042756556998</t>
+          <t>1.2246648890901497</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.4248382646133777</t>
+          <t>0.42496004143048177</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2735069199131317</t>
+          <t>2.2707863268986586</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.074579903888424</t>
+          <t>5.0802461053922565</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.291638351692585</t>
+          <t>9.29488343825488</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.041500981817231</t>
+          <t>2.0399371109842495</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.746366383432811</t>
+          <t>2.7436300837727607</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.35572282343704154</t>
+          <t>0.35574497887034207</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.578483986477674</t>
+          <t>4.574557058192846</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2831527076548088</t>
+          <t>0.28312762457201096</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.8048099916708615</t>
+          <t>2.803245667292572</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8846124009622613</t>
+          <t>1.8839221834923452</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8563643993842565</t>
+          <t>1.8544828357978655</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.542135319030067</t>
+          <t>2.5444742245384457</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.887156315024429</t>
+          <t>4.890499804244268</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.6494800207731926</t>
+          <t>3.6519374677714573</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.5847115964023093</t>
+          <t>2.589455714009901</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5334838950533283</t>
+          <t>2.533407238995632</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>18.49635596704188</t>
+          <t>18.46453656667308</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.97828548902255</t>
+          <t>8.979214768157831</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.77074873134373</t>
+          <t>4.769281485517219</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.146287481903201</t>
+          <t>8.14265052912603</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.284664244474023</t>
+          <t>19.331218435085987</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.2586084191539</t>
+          <t>14.23323565739505</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.85240882563945</t>
+          <t>17.81147002240777</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.2067778182874553</t>
+          <t>3.2038219189706223</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.369415919685608</t>
+          <t>5.375815492396679</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.2280430285793065</t>
+          <t>1.22689666526421</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.383255789166354</t>
+          <t>2.385440245042159</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.685808352859034</t>
+          <t>2.6844575702526257</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.457154542046151</t>
+          <t>2.462364049782618</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.907588351364068</t>
+          <t>2.893057428532037</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3654615652067713</t>
+          <t>0.36507196013697446</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.4774784348565593</t>
+          <t>0.4778751028623507</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3503620296992498</t>
+          <t>1.3487512833959112</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.5435806111747081</t>
+          <t>1.547474822455846</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3507396660051795</t>
+          <t>0.3510948308949001</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8782970875266491</t>
+          <t>0.8773572779953638</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.06601003283557</t>
+          <t>12.05255854912553</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>84.59110441936174</t>
+          <t>84.5756457248159</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.76806824780736</t>
+          <t>17.79793497765765</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.14006830231512</t>
+          <t>16.120820923335085</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.50680281249417</t>
+          <t>95.49524167861007</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.818444977549753</t>
+          <t>6.83298784665584</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.11566835536908</t>
+          <t>1.1149665067994852</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1732756260479944</t>
+          <t>1.1721546610747886</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.4817276304981</t>
+          <t>3.483334870108532</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.88112576486282</t>
+          <t>63.84580545753785</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.083894610850283</t>
+          <t>4.082706881167346</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22.73245096876275</t>
+          <t>22.72852118755638</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>24.00076998511071</t>
+          <t>23.959037259042</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.949028330797039</t>
+          <t>0.948280582427203</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.6641540344347203</t>
+          <t>3.6608538314544132</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.37090896206719</t>
+          <t>3.367530525655629</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14.09686039546028</t>
+          <t>14.12487146318295</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.78789386251985</t>
+          <t>8.808238971407485</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.133654558767525</t>
+          <t>3.1330972881954677</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.937752187720264</t>
+          <t>4.9481259939009306</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>73.61292302233345</t>
+          <t>73.58845485885423</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.308109611240573</t>
+          <t>9.290401318079923</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>3.162920100149786</t>
+          <t>5.074478867426137</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.1761997561382</t>
+          <t>6.27196838560652</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.261533567078409</t>
+          <t>6.136354835926184</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25.29252225921852</t>
+          <t>23.509476198650532</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.5498837160909842</t>
+          <t>1.584696893011312</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.639710239535049</t>
+          <t>4.688808836676181</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3014882487834023</t>
+          <t>2.2905643788719434</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.662844386804879</t>
+          <t>5.734912096518487</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.6682649272004906</t>
+          <t>1.6753556110092993</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.450576435437661</t>
+          <t>6.541911308728249</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.646585011273011</t>
+          <t>5.886762516609979</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.0459997236190732</t>
+          <t>2.146053574743428</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.7772644682311</t>
+          <t>12.98047152253207</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7386760762670153</t>
+          <t>0.7234971861536101</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.78819350685281</t>
+          <t>6.866365819764088</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.06924993843175</t>
+          <t>10.245469935640859</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.248983935516343</t>
+          <t>6.29160872534187</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>10.852321928038528</t>
+          <t>11.018468912105938</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.179150673394268</t>
+          <t>7.152297099787099</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.092374830228623</t>
+          <t>7.210113871109218</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.71228262309772</t>
+          <t>12.09374316632322</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.2691140747968115</t>
+          <t>6.332326452833407</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.238472485079381</t>
+          <t>1.2635684915844116</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.59295532382119</t>
+          <t>7.781611118422028</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.1580349465042445</t>
+          <t>2.1513597362620587</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.989669282024708</t>
+          <t>5.171761187494893</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.7538260956315868</t>
+          <t>3.9636913462593437</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.26035709095147</t>
+          <t>18.19400847987445</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.801121936850805</t>
+          <t>12.884274223427347</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.844309569735099</t>
+          <t>13.200514128466672</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.6399962271022375</t>
+          <t>4.66039607279675</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.095053477143238</t>
+          <t>2.1230975901873697</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9889577913475308</t>
+          <t>1.0040445720405273</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.85646429257421</t>
+          <t>6.83738540339381</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.26035289368773</t>
+          <t>15.28445289821045</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.704734241624033</t>
+          <t>2.7130868873672878</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.11056472217928</t>
+          <t>1.0755411064328406</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5.992725044456816</t>
+          <t>6.00906215503591</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.543503104997161</t>
+          <t>4.62968795413693</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.562074645318099</t>
+          <t>5.542216299404848</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.470868659171213</t>
+          <t>16.74742378176302</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.3954207443646083</t>
+          <t>2.3076328123176046</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.08230582741443</t>
+          <t>2.106622385789791</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.043039430907342</t>
+          <t>4.0286901508141995</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.662354919418917</t>
+          <t>20.442903340017985</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.46839831241463</t>
+          <t>2.5501419271780286</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.53443631087714</t>
+          <t>13.6804682030198</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.1888533436486597</t>
+          <t>2.4220035393696264</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.439294500472511</t>
+          <t>4.68156252986687</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>5.906425715555656</t>
+          <t>6.233351105632052</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.428806794912898</t>
+          <t>4.7339543508277915</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.708933336395822</t>
+          <t>6.024746763569873</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>9.554413401793552</t>
+          <t>10.07837979450683</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5.899945382444045</t>
+          <t>6.224482556918865</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.9986486214845383</t>
+          <t>4.2155511352192905</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>6.880349416533448</t>
+          <t>7.263918479230486</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.004390013316739</t>
+          <t>10.545856472532163</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.468555844262781</t>
+          <t>5.7748675265611285</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.6931906373157</t>
+          <t>0.7016824516676934</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.088607900086814</t>
+          <t>16.295305005463423</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.590764467129763</t>
+          <t>6.708318540976928</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.9086324655969236</t>
+          <t>1.944378707467905</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>42.21861929290034</t>
+          <t>44.86763513446393</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.69235026401818</t>
+          <t>12.27101897339271</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.567557255538703</t>
+          <t>5.615344696420776</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.8500657330338663</t>
+          <t>2.8789061091526285</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5001274064732879</t>
+          <t>0.5238995814089504</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.432346245031103</t>
+          <t>2.548417848004698</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.263149006081679</t>
+          <t>1.303295730612597</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.954103614129071</t>
+          <t>4.972152807475088</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.6944051059227117</t>
+          <t>3.817697154822909</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.910040862609627</t>
+          <t>24.136761557510074</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.159998116193362</t>
+          <t>7.723549321351261</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>39.74682088549973</t>
+          <t>40.04055738608627</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.818563855402165</t>
+          <t>6.923468572478091</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.578436279623165</t>
+          <t>22.95258299768636</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.901208753740585</t>
+          <t>3.948770294332424</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.673410506115455</t>
+          <t>5.655213602373385</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.5905538170784</t>
+          <t>21.08525021080629</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2246648890901497</t>
+          <t>1.211713364778042</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.42496004143048177</t>
+          <t>0.4316869338532308</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2707863268986586</t>
+          <t>2.2165629762473387</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.0802461053922565</t>
+          <t>5.116751283827598</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.29488343825488</t>
+          <t>9.13877082498881</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.0399371109842495</t>
+          <t>2.050253205115359</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.7436300837727607</t>
+          <t>2.7813885309813706</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.35574497887034207</t>
+          <t>0.3606149969140208</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.574557058192846</t>
+          <t>4.5615814147754</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.28312762457201096</t>
+          <t>0.2858987981237951</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.803245667292572</t>
+          <t>2.8559498374146486</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8839221834923452</t>
+          <t>1.8763862501753152</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8544828357978655</t>
+          <t>1.8762912529329743</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5444742245384457</t>
+          <t>2.5397560042832317</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.890499804244268</t>
+          <t>4.91254881570476</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.6519374677714573</t>
+          <t>3.758994919541685</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.589455714009901</t>
+          <t>2.585438973340029</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.533407238995632</t>
+          <t>2.5719140803979985</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>18.46453656667308</t>
+          <t>19.73902752452125</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.979214768157831</t>
+          <t>9.085272102455669</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.769281485517219</t>
+          <t>4.823494542553675</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.14265052912603</t>
+          <t>8.401665664951665</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.331218435085987</t>
+          <t>19.35952627242804</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.23323565739505</t>
+          <t>14.40774155666486</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.81147002240777</t>
+          <t>18.03923170433676</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.2038219189706223</t>
+          <t>3.283483355697279</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.375815492396679</t>
+          <t>5.673571529756462</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.22689666526421</t>
+          <t>1.2321072374476332</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.385440245042159</t>
+          <t>2.3721855991535024</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.6844575702526257</t>
+          <t>2.724837940032252</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.462364049782618</t>
+          <t>2.465922202199149</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.893057428532037</t>
+          <t>2.9631810104565535</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.36507196013697446</t>
+          <t>0.3684931111189188</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.4778751028623507</t>
+          <t>0.4772027855296699</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3487512833959112</t>
+          <t>1.3493201348164785</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.547474822455846</t>
+          <t>1.5453943695395924</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3510948308949001</t>
+          <t>0.36384741130444404</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8773572779953638</t>
+          <t>0.8825986555297346</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.05255854912553</t>
+          <t>12.674799649278976</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>84.5756457248159</t>
+          <t>83.75348144104282</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.79793497765765</t>
+          <t>17.75948706024397</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.120820923335085</t>
+          <t>17.27012310781259</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>95.49524167861007</t>
+          <t>96.04541329955238</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.83298784665584</t>
+          <t>6.80218405877913</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1149665067994852</t>
+          <t>1.1094086786473205</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.1721546610747886</t>
+          <t>1.2057971265882266</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.483334870108532</t>
+          <t>3.630183782833331</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>63.84580545753785</t>
+          <t>64.60298952384126</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.082706881167346</t>
+          <t>4.080301201502997</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>22.72852118755638</t>
+          <t>23.8292651689578</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>23.959037259042</t>
+          <t>25.20227357153311</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.948280582427203</t>
+          <t>0.9435133914578074</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.6608538314544132</t>
+          <t>3.7856456702044596</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.367530525655629</t>
+          <t>3.44777946826958</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14.12487146318295</t>
+          <t>14.85533565172542</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.808238971407485</t>
+          <t>8.739159796001914</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.1330972881954677</t>
+          <t>3.186022020299646</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.9481259939009306</t>
+          <t>4.847212550506001</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>73.58845485885423</t>
+          <t>75.77554007213239</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.290401318079923</t>
+          <t>9.310338775294527</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.074478867426137</t>
+          <t>5.393747368852728</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.27196838560652</t>
+          <t>6.525446309428482</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.136354835926184</t>
+          <t>6.12283996708873</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.509476198650532</t>
+          <t>24.07901700901522</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.584696893011312</t>
+          <t>1.6591243518350087</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.688808836676181</t>
+          <t>4.894293641717779</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.2905643788719434</t>
+          <t>2.3873054722869282</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.734912096518487</t>
+          <t>5.775333304074687</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.6753556110092993</t>
+          <t>1.7597894285564788</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.541911308728249</t>
+          <t>6.7507173058079815</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>5.886762516609979</t>
+          <t>6.090588316164828</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.146053574743428</t>
+          <t>2.2477922555422927</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.98047152253207</t>
+          <t>13.472781447188382</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.7234971861536101</t>
+          <t>0.9966412097860848</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.866365819764088</t>
+          <t>6.987125121900121</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.245469935640859</t>
+          <t>10.534763272763051</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.29160872534187</t>
+          <t>6.48210817626091</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>11.018468912105938</t>
+          <t>13.180987269809801</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.152297099787099</t>
+          <t>7.367444392558819</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.210113871109218</t>
+          <t>7.255018640009988</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.09374316632322</t>
+          <t>12.04000949933341</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.332326452833407</t>
+          <t>6.539850645952338</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.2635684915844116</t>
+          <t>1.3237258215702883</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>7.781611118422028</t>
+          <t>8.007819921185948</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.1513597362620587</t>
+          <t>2.2424413963298075</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.171761187494893</t>
+          <t>5.304374593269801</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.9636913462593437</t>
+          <t>4.121399538145251</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.19400847987445</t>
+          <t>18.71856962756515</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.884274223427347</t>
+          <t>12.689524701425924</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.200514128466672</t>
+          <t>13.536546834960017</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.66039607279675</t>
+          <t>4.681571561371264</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.1230975901873697</t>
+          <t>2.2276080980223227</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0040445720405273</t>
+          <t>1.0229670289648105</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.83738540339381</t>
+          <t>6.580944791499362</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.28445289821045</t>
+          <t>15.74358863479754</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.7130868873672878</t>
+          <t>2.791274307234599</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.0755411064328406</t>
+          <t>1.0518003716632407</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.00906215503591</t>
+          <t>6.009971373783835</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.62968795413693</t>
+          <t>4.865297703740092</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.542216299404848</t>
+          <t>5.690965972609246</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.74742378176302</t>
+          <t>16.81870916682927</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.3076328123176046</t>
+          <t>2.378367045934429</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.106622385789791</t>
+          <t>2.0448720261453843</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4.0286901508141995</t>
+          <t>3.9189143495104304</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.442903340017985</t>
+          <t>20.63828742558917</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.5501419271780286</t>
+          <t>2.66056087715792</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>13.6804682030198</t>
+          <t>14.07948236652743</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.4220035393696264</t>
+          <t>2.392812167441278</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.68156252986687</t>
+          <t>4.823339027898354</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.233351105632052</t>
+          <t>6.4421537722563915</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.7339543508277915</t>
+          <t>4.882789399650141</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.024746763569873</t>
+          <t>6.217545488433899</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.07837979450683</t>
+          <t>10.323304910829842</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.224482556918865</t>
+          <t>6.445473822702514</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.2155511352192905</t>
+          <t>4.336667250860061</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.263918479230486</t>
+          <t>7.4927266690205485</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.545856472532163</t>
+          <t>10.841141758211196</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.7748675265611285</t>
+          <t>5.926659911376415</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7016824516676934</t>
+          <t>0.7079114386864416</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.295305005463423</t>
+          <t>16.151812493625492</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.708318540976928</t>
+          <t>6.8901987309710835</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.944378707467905</t>
+          <t>1.7849693915882485</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>44.86763513446393</t>
+          <t>45.14681460468135</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>12.27101897339271</t>
+          <t>11.26608992253163</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.615344696420776</t>
+          <t>5.78589378449458</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.8789061091526285</t>
+          <t>2.911992841472477</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5238995814089504</t>
+          <t>0.5416297089954529</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.548417848004698</t>
+          <t>2.695361892592096</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.303295730612597</t>
+          <t>1.3552227802515624</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.972152807475088</t>
+          <t>4.8539777888834905</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.817697154822909</t>
+          <t>3.8900755768479023</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>24.136761557510074</t>
+          <t>23.493812926118434</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>7.723549321351261</t>
+          <t>5.521678412594641</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.04055738608627</t>
+          <t>40.46241618302366</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>6.923468572478091</t>
+          <t>7.013646797639535</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>22.95258299768636</t>
+          <t>23.313360038170917</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3.948770294332424</t>
+          <t>4.041011725575863</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.655213602373385</t>
+          <t>5.890710160523357</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>21.08525021080629</t>
+          <t>20.94928054224733</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.211713364778042</t>
+          <t>1.2366722975958417</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.4316869338532308</t>
+          <t>0.44433831693908055</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2165629762473387</t>
+          <t>2.2327374081813574</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.116751283827598</t>
+          <t>5.28709930758283</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.13877082498881</t>
+          <t>9.30219302553109</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.050253205115359</t>
+          <t>2.05877945694845</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.7813885309813706</t>
+          <t>2.8669965648578994</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3606149969140208</t>
+          <t>0.3599559774660876</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.5615814147754</t>
+          <t>4.658142473119466</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2858987981237951</t>
+          <t>0.2874672852040364</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.8559498374146486</t>
+          <t>2.904101978689379</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8763862501753152</t>
+          <t>1.8992018093490017</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.8762912529329743</t>
+          <t>1.9016682743830664</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5397560042832317</t>
+          <t>2.601008706931075</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.91254881570476</t>
+          <t>4.93729897540544</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.758994919541685</t>
+          <t>3.8133906457950846</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.585438973340029</t>
+          <t>2.7344127862223786</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5719140803979985</t>
+          <t>2.498343107681827</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.73902752452125</t>
+          <t>19.44469748924468</t>
         </is>
       </c>
     </row>
@@ -3922,12 +3922,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>9.085272102455669</t>
+          <t>8.873336372313059</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.823494542553675</t>
+          <t>4.747015760166519</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.401665664951665</t>
+          <t>8.988861843597306</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.35952627242804</t>
+          <t>19.225811384188752</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.40774155666486</t>
+          <t>14.80286427318633</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.03923170433676</t>
+          <t>18.06658262851633</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.283483355697279</t>
+          <t>3.239022274879819</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.673571529756462</t>
+          <t>5.919824642808887</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.2321072374476332</t>
+          <t>1.2533747184746282</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.3721855991535024</t>
+          <t>2.4915096580535008</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.724837940032252</t>
+          <t>2.6436612782417797</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.465922202199149</t>
+          <t>2.5741550569648286</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.9631810104565535</t>
+          <t>3.022797857773991</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3684931111189188</t>
+          <t>0.3859726387935686</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.4772027855296699</t>
+          <t>0.48470352702605085</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3493201348164785</t>
+          <t>1.3601019457387</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.5453943695395924</t>
+          <t>1.6426579956910305</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.36384741130444404</t>
+          <t>0.3778104660033768</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8825986555297346</t>
+          <t>0.9031908349920355</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.674799649278976</t>
+          <t>12.808628662092161</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.75348144104282</t>
+          <t>83.24210055600378</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.75948706024397</t>
+          <t>18.14172886945773</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.27012310781259</t>
+          <t>17.02798293070925</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96.04541329955238</t>
+          <t>96.03066983995409</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.80218405877913</t>
+          <t>7.016108817829608</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1094086786473205</t>
+          <t>1.1382138960210535</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.2057971265882266</t>
+          <t>1.2553792952109</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.630183782833331</t>
+          <t>3.81134449550348</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>64.60298952384126</t>
+          <t>64.70181680229997</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>4.080301201502997</t>
+          <t>3.9302116488884895</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>23.8292651689578</t>
+          <t>24.51219212266003</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25.20227357153311</t>
+          <t>25.45964101432818</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.9435133914578074</t>
+          <t>0.9585914635699481</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.7856456702044596</t>
+          <t>3.8745551041720114</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.44777946826958</t>
+          <t>3.467854425044929</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>14.85533565172542</t>
+          <t>15.993539568184561</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.739159796001914</t>
+          <t>8.750067970690319</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.186022020299646</t>
+          <t>3.21045644343578</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.847212550506001</t>
+          <t>4.543407357126412</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>75.77554007213239</t>
+          <t>76.28842232722829</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.310338775294527</t>
+          <t>9.425227136699865</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,139 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.393747368852728</t>
+          <t>5.561728683046777</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>LR_TEQ_SS_Broly</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2.5350429099764415</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>F2P_STR_Videl</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>F2P_INT_SS_Kid_Trunks</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BU_TEQ_Videl</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>8.224652948271498</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>DFLR_INT_LSS_Broly</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>73.9449107286265</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>CLR_STR_Family_Kamehameha</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>88.59428482332015</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.525446309428482</t>
+          <t>6.532097912144348</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.12283996708873</t>
+          <t>6.1185753047954705</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.07901700901522</t>
+          <t>24.1044764457208</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.6591243518350087</t>
+          <t>1.66109084435451</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.894293641717779</t>
+          <t>4.899124111562918</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.3873054722869282</t>
+          <t>2.391064981540675</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.775333304074687</t>
+          <t>5.777058481424932</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.7597894285564788</t>
+          <t>1.7619653347809006</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.7507173058079815</t>
+          <t>6.757259371553971</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.090588316164828</t>
+          <t>6.095866907044419</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.2477922555422927</t>
+          <t>2.2506954423964878</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.472781447188382</t>
+          <t>13.495746711497098</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9966412097860848</t>
+          <t>0.9973132621780622</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6.987125121900121</t>
+          <t>3.0960676064294077</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.534763272763051</t>
+          <t>10.542707061894259</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.48210817626091</t>
+          <t>6.486718439631948</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.180987269809801</t>
+          <t>13.177952263332507</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.367444392558819</t>
+          <t>7.376201085506856</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.255018640009988</t>
+          <t>7.262169126411971</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.04000949933341</t>
+          <t>12.04442581535722</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.539850645952338</t>
+          <t>6.544230095380251</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.3237258215702883</t>
+          <t>1.325232323190407</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.007819921185948</t>
+          <t>8.017290647891809</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.2424413963298075</t>
+          <t>2.24530855556801</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.304374593269801</t>
+          <t>5.309654265246396</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.121399538145251</t>
+          <t>4.125556113884608</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.71856962756515</t>
+          <t>18.73159784924375</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.689524701425924</t>
+          <t>12.683497822768274</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.536546834960017</t>
+          <t>13.546296632430654</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.681571561371264</t>
+          <t>4.680423751418978</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.2276080980223227</t>
+          <t>2.2301561029249752</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0229670289648105</t>
+          <t>1.023274851384297</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.580944791499362</t>
+          <t>6.5749433213936115</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.74358863479754</t>
+          <t>15.76164643526912</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.791274307234599</t>
+          <t>2.7935961621815792</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.0518003716632407</t>
+          <t>1.0511696492260612</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.009971373783835</t>
+          <t>6.009379799424788</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.865297703740092</t>
+          <t>4.87046983314775</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.690965972609246</t>
+          <t>5.695233237717906</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.81870916682927</t>
+          <t>16.821696900496562</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.378367045934429</t>
+          <t>2.3787192200218743</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0448720261453843</t>
+          <t>2.0436903022972857</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.9189143495104304</t>
+          <t>3.9153661153617207</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.63828742558917</t>
+          <t>20.628975979189462</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.66056087715792</t>
+          <t>2.663144669908851</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.07948236652743</t>
+          <t>14.082434873791485</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.392812167441278</t>
+          <t>2.3898313934951005</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.823339027898354</t>
+          <t>4.831211639508874</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.4421537722563915</t>
+          <t>6.452931467752634</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.882789399650141</t>
+          <t>4.890863319126827</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.217545488433899</t>
+          <t>6.2279038297910505</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.323304910829842</t>
+          <t>10.338038542945107</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.445473822702514</t>
+          <t>6.456768111510102</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.336667250860061</t>
+          <t>4.34342322778801</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.4927266690205485</t>
+          <t>7.50540754998706</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.841141758211196</t>
+          <t>10.856928025203255</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.926659911376415</t>
+          <t>5.935526025830192</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7079114386864416</t>
+          <t>0.708793888770283</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.151812493625492</t>
+          <t>16.15250816835222</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.8901987309710835</t>
+          <t>6.893866078227113</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.7849693915882485</t>
+          <t>1.7827112184927785</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>45.14681460468135</t>
+          <t>45.17930475542471</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.26608992253163</t>
+          <t>11.25086830230064</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.78589378449458</t>
+          <t>5.7941455266323345</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.911992841472477</t>
+          <t>2.914146879981678</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5416297089954529</t>
+          <t>0.5423788338682742</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.695361892592096</t>
+          <t>2.698862527778246</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3552227802515624</t>
+          <t>1.3567545087037023</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.8539777888834905</t>
+          <t>4.851232673048549</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.8900755768479023</t>
+          <t>3.8918198172620113</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.493812926118434</t>
+          <t>23.489768029053064</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.521678412594641</t>
+          <t>5.528810399594072</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.46241618302366</t>
+          <t>40.48509610543491</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.013646797639535</t>
+          <t>7.014609362395526</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>23.313360038170917</t>
+          <t>23.327094145686658</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.041011725575863</t>
+          <t>4.044170774139035</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.890710160523357</t>
+          <t>5.897134033900437</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.94928054224733</t>
+          <t>20.984591602457886</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2366722975958417</t>
+          <t>1.2378545835933714</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.44433831693908055</t>
+          <t>0.44503857881724657</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2327374081813574</t>
+          <t>2.2354560965968986</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.28709930758283</t>
+          <t>5.2919875165065955</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.30219302553109</t>
+          <t>9.306865810217934</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.05877945694845</t>
+          <t>2.0615262509526016</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.8669965648578994</t>
+          <t>2.8676667012095507</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3599559774660876</t>
+          <t>0.36015950345797976</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.658142473119466</t>
+          <t>4.663191924801999</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2874672852040364</t>
+          <t>0.2875729255010363</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.904101978689379</t>
+          <t>2.9065284824623987</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.8992018093490017</t>
+          <t>1.9002730929298721</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.9016682743830664</t>
+          <t>1.90495757162501</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.601008706931075</t>
+          <t>2.6029496383916393</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.93729897540544</t>
+          <t>4.937534662111988</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.8133906457950846</t>
+          <t>3.8135795328073954</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.7344127862223786</t>
+          <t>2.7391455078970406</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.498343107681827</t>
+          <t>2.496230436528427</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.44469748924468</t>
+          <t>19.46704139179722</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.873336372313059</t>
+          <t>8.869895466818669</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.747015760166519</t>
+          <t>4.7449391144619995</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.988861843597306</t>
+          <t>8.978464822155075</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.225811384188752</t>
+          <t>19.221129592321233</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.80286427318633</t>
+          <t>14.815084432194359</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.06658262851633</t>
+          <t>18.08328489070793</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.239022274879819</t>
+          <t>3.239029478445685</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.919824642808887</t>
+          <t>5.924568221669322</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.2533747184746282</t>
+          <t>1.2546467277599556</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.4915096580535008</t>
+          <t>2.494855276059369</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.6436612782417797</t>
+          <t>2.64150276882593</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.5741550569648286</t>
+          <t>2.57642112196031</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.022797857773991</t>
+          <t>3.028164545219866</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.3859726387935686</t>
+          <t>0.386455720795972</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.48470352702605085</t>
+          <t>0.48489442094367874</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3601019457387</t>
+          <t>1.3607019814420909</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.6426579956910305</t>
+          <t>1.6448080728836125</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3778104660033768</t>
+          <t>0.3780769326643371</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.9031908349920355</t>
+          <t>0.9042301169099426</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.808628662092161</t>
+          <t>12.818211257274093</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.24210055600378</t>
+          <t>83.25446529394458</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.14172886945773</t>
+          <t>18.15105780256082</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.02798293070925</t>
+          <t>17.041614858872922</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96.03066983995409</t>
+          <t>96.03034510197094</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>7.016108817829608</t>
+          <t>7.020123465867872</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1382138960210535</t>
+          <t>1.1392245759681712</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.2553792952109</t>
+          <t>1.2573681705695496</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.81134449550348</t>
+          <t>3.8167932011056003</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>64.70181680229997</t>
+          <t>64.70870312618534</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>3.9302116488884895</t>
+          <t>3.9247783287488245</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>24.51219212266003</t>
+          <t>24.53410747685975</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25.45964101432818</t>
+          <t>25.48776281591797</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.9585914635699481</t>
+          <t>0.9594397682888318</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.8745551041720114</t>
+          <t>3.877733930771451</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.467854425044929</t>
+          <t>3.470660256656277</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>15.993539568184561</t>
+          <t>16.00464926198048</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.750067970690319</t>
+          <t>8.744805916726326</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.21045644343578</t>
+          <t>3.2116510924006088</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.543407357126412</t>
+          <t>4.542295363892109</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>76.28842232722829</t>
+          <t>76.34493440433562</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.425227136699865</t>
+          <t>9.427616506753552</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.561728683046777</t>
+          <t>5.55922564513967</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2.5350429099764415</t>
+          <t>2.5403157414771522</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>8.224652948271498</t>
+          <t>8.236224616278205</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>73.9449107286265</t>
+          <t>73.98549511002581</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>88.59428482332015</t>
+          <t>88.4655648350996</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.532097912144348</t>
+          <t>6.588489773018072</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.1185753047954705</t>
+          <t>6.138873516523034</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.1044764457208</t>
+          <t>24.13839393462588</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.66109084435451</t>
+          <t>1.6731089232797383</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.899124111562918</t>
+          <t>4.937189882331779</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.391064981540675</t>
+          <t>2.4070760405555847</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.777058481424932</t>
+          <t>5.821125271954079</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.7619653347809006</t>
+          <t>1.7781134026329182</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.757259371553971</t>
+          <t>6.806433710340688</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.095866907044419</t>
+          <t>6.144300401298402</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.2506954423964878</t>
+          <t>2.2642596055627324</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.495746711497098</t>
+          <t>13.57131802037169</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9973132621780622</t>
+          <t>1.0019894308785688</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.0960676064294077</t>
+          <t>3.1118694493901415</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.542707061894259</t>
+          <t>10.623998291357339</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.486718439631948</t>
+          <t>6.54573109349913</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.177952263332507</t>
+          <t>13.202326856444671</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.376201085506856</t>
+          <t>7.421948233073227</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.262169126411971</t>
+          <t>7.306806477638686</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.04442581535722</t>
+          <t>12.07271683575804</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.544230095380251</t>
+          <t>6.576730781047388</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.325232323190407</t>
+          <t>1.3353539985523653</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.017290647891809</t>
+          <t>8.07274046593798</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.24530855556801</t>
+          <t>2.264946657132045</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.309654265246396</t>
+          <t>5.339860334353114</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.125556113884608</t>
+          <t>4.171494808247731</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.73159784924375</t>
+          <t>18.85286707098303</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.683497822768274</t>
+          <t>12.705833456306934</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.546296632430654</t>
+          <t>13.582042702670954</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.680423751418978</t>
+          <t>4.692950606339664</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.2301561029249752</t>
+          <t>2.251861271459487</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.023274851384297</t>
+          <t>1.0296623406761718</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.5749433213936115</t>
+          <t>6.543978574915521</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.76164643526912</t>
+          <t>15.87703076358941</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.7935961621815792</t>
+          <t>2.8194830913623967</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.0511696492260612</t>
+          <t>1.0583345485765605</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.009379799424788</t>
+          <t>6.017588242346716</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.87046983314775</t>
+          <t>4.9239787178633385</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.695233237717906</t>
+          <t>5.731665892771907</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.821696900496562</t>
+          <t>16.912966694361277</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.3787192200218743</t>
+          <t>2.3724125495382355</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0436903022972857</t>
+          <t>2.0462350951786874</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.9153661153617207</t>
+          <t>3.9071887568299815</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.628975979189462</t>
+          <t>20.630349962903672</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2.663144669908851</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.082434873791485</t>
+          <t>14.018362946255479</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.3898313934951005</t>
+          <t>2.386377834563717</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.831211639508874</t>
+          <t>4.855929339443489</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.452931467752634</t>
+          <t>6.486861464734464</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.890863319126827</t>
+          <t>4.912724307075841</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.2279038297910505</t>
+          <t>6.264902385755968</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.338038542945107</t>
+          <t>10.386078890851438</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.456768111510102</t>
+          <t>6.496559275256606</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.34342322778801</t>
+          <t>4.36374666072943</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.50540754998706</t>
+          <t>7.551272999107969</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.856928025203255</t>
+          <t>10.912072830062359</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.935526025830192</t>
+          <t>5.966931042271041</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.708793888770283</t>
+          <t>0.714858015751422</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.15250816835222</t>
+          <t>16.232852018931013</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.893866078227113</t>
+          <t>6.944088348329615</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.7827112184927785</t>
+          <t>1.7903664473377605</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>45.17930475542471</t>
+          <t>45.13344444642775</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.25086830230064</t>
+          <t>11.22888526417971</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.7941455266323345</t>
+          <t>5.827339433668018</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.914146879981678</t>
+          <t>2.933595092226567</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5423788338682742</t>
+          <t>0.5465379383844873</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.698862527778246</t>
+          <t>2.7210585493595825</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3567545087037023</t>
+          <t>1.3634846356015706</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.851232673048549</t>
+          <t>4.847539157346202</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.8918198172620113</t>
+          <t>3.9140689018751615</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.489768029053064</t>
+          <t>23.58333826905048</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.528810399594072</t>
+          <t>5.56814919434413</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.48509610543491</t>
+          <t>40.56028399299774</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.014609362395526</t>
+          <t>7.042643397660522</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>23.327094145686658</t>
+          <t>23.40617099915209</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.044170774139035</t>
+          <t>4.070233328564397</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.897134033900437</t>
+          <t>5.926455459701896</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.984591602457886</t>
+          <t>20.9126691885107</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2378545835933714</t>
+          <t>1.2421881367762495</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.44503857881724657</t>
+          <t>0.44762004320722626</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2354560965968986</t>
+          <t>2.2495291722169917</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.2919875165065955</t>
+          <t>5.327671242403071</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.306865810217934</t>
+          <t>9.356525195844839</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.0615262509526016</t>
+          <t>2.067588300331799</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.8676667012095507</t>
+          <t>2.8913558873103895</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.36015950345797976</t>
+          <t>0.3617834999955206</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.663191924801999</t>
+          <t>4.700713670135861</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.2875729255010363</t>
+          <t>0.28972392100975697</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.9065284824623987</t>
+          <t>2.924878090313861</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.9002730929298721</t>
+          <t>1.9034625267765009</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.90495757162501</t>
+          <t>1.91886890855052</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.6029496383916393</t>
+          <t>2.6271074239201138</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.937534662111988</t>
+          <t>4.970147715135521</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.8135795328073954</t>
+          <t>3.838918091295837</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.7391455078970406</t>
+          <t>2.7564275083223304</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.496230436528427</t>
+          <t>2.500516409284034</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.46704139179722</t>
+          <t>19.51434342647379</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.869895466818669</t>
+          <t>8.881110747059022</t>
         </is>
       </c>
     </row>
@@ -3944,12 +3944,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.7449391144619995</t>
+          <t>3.5835823594877496</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.978464822155075</t>
+          <t>8.995709925169635</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.221129592321233</t>
+          <t>19.182404934355617</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.815084432194359</t>
+          <t>14.922367403307048</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.08328489070793</t>
+          <t>18.15068362989649</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.239029478445685</t>
+          <t>3.24670125602922</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.924568221669322</t>
+          <t>5.95709318993109</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.2546467277599556</t>
+          <t>1.260885723956922</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.494855276059369</t>
+          <t>2.514014251941823</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.64150276882593</t>
+          <t>2.642374201489126</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.57642112196031</t>
+          <t>2.5955735248152685</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.028164545219866</t>
+          <t>3.0289445573172102</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.386455720795972</t>
+          <t>0.38939137390697154</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.48489442094367874</t>
+          <t>0.4877403055413101</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3607019814420909</t>
+          <t>1.3669955403056395</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.6448080728836125</t>
+          <t>1.65816298766691</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3780769326643371</t>
+          <t>0.380280080471399</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.9042301169099426</t>
+          <t>0.9097086659546751</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.818211257274093</t>
+          <t>12.892198095470297</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.25446529394458</t>
+          <t>83.21614745836443</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.15105780256082</t>
+          <t>18.2486454741055</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.041614858872922</t>
+          <t>17.05380692754235</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96.03034510197094</t>
+          <t>96.0953362818046</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>7.020123465867872</t>
+          <t>7.018888714931197</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1392245759681712</t>
+          <t>1.1457577670551498</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.2573681705695496</t>
+          <t>1.2671835706965349</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.8167932011056003</t>
+          <t>3.846279271979826</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>64.70870312618534</t>
+          <t>65.08119302503536</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>3.9247783287488245</t>
+          <t>3.902961983530052</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>24.53410747685975</t>
+          <t>24.55160854135024</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25.48776281591797</t>
+          <t>25.63474080440414</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.9594397682888318</t>
+          <t>0.965583433013196</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.877733930771451</t>
+          <t>3.8907081373191517</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.470660256656277</t>
+          <t>3.470701528774042</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>16.00464926198048</t>
+          <t>16.06980818656114</t>
         </is>
       </c>
     </row>
@@ -5770,12 +5770,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>8.744805916726326</t>
+          <t>6.507931759469589</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.2116510924006088</t>
+          <t>3.2234551293160165</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.542295363892109</t>
+          <t>4.496126695255256</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>76.34493440433562</t>
+          <t>76.45650890130331</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.427616506753552</t>
+          <t>9.475404455764444</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.55922564513967</t>
+          <t>5.548004490311764</t>
         </is>
       </c>
     </row>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2.5403157414771522</t>
+          <t>2.5278791684449846</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>8.236224616278205</t>
+          <t>8.294705025331924</t>
         </is>
       </c>
     </row>
@@ -6012,12 +6012,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>73.98549511002581</t>
+          <t>12.076891905876593</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,73 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>88.4655648350996</t>
+          <t>88.65762561049841</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>F2P_TEQ_Bio_Broly</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>F2PLR_PHY_Bio_Broly</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>DF_PHY_SS_Goten_Trunks</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>12.250712153635334</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -1084,12 +1084,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.264946657132045</t>
+          <t>2.3369175545322847</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.588489773018072</t>
+          <t>6.599805895685819</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.138873516523034</t>
+          <t>6.33786684508793</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.13839393462588</t>
+          <t>23.608710583607387</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.6731089232797383</t>
+          <t>1.6532659461647108</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.937189882331779</t>
+          <t>4.917344669443619</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.4070760405555847</t>
+          <t>2.373680861398485</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.821125271954079</t>
+          <t>5.797938165167306</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.7781134026329182</t>
+          <t>1.749737728718192</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.806433710340688</t>
+          <t>6.826689895812802</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.144300401298402</t>
+          <t>6.095267811371291</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.2642596055627324</t>
+          <t>2.2175117435623575</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.57131802037169</t>
+          <t>13.34739888588179</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.0019894308785688</t>
+          <t>0.9766276203501788</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.1118694493901415</t>
+          <t>3.0816333303643013</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.623998291357339</t>
+          <t>10.583701668654431</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.54573109349913</t>
+          <t>6.444881087529609</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13.202326856444671</t>
+          <t>15.10969851404193</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.421948233073227</t>
+          <t>7.215810658879968</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.306806477638686</t>
+          <t>7.298433995962389</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.07271683575804</t>
+          <t>11.730003650095828</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.576730781047388</t>
+          <t>6.491843086612766</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.3353539985523653</t>
+          <t>1.3111680006992974</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.07274046593798</t>
+          <t>8.054668776533461</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.3369175545322847</t>
+          <t>2.3224842152890774</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.339860334353114</t>
+          <t>5.1677299134616135</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.171494808247731</t>
+          <t>4.142631944231834</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.85286707098303</t>
+          <t>18.63016963474275</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.705833456306934</t>
+          <t>12.808614005308009</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.582042702670954</t>
+          <t>13.46705668519827</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.692950606339664</t>
+          <t>4.736617939473504</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.251861271459487</t>
+          <t>2.214162527065426</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0296623406761718</t>
+          <t>1.0119057050647307</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.543978574915521</t>
+          <t>6.513511360611119</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.87703076358941</t>
+          <t>15.59844166100343</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.8194830913623967</t>
+          <t>2.6876153728143106</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.0583345485765605</t>
+          <t>1.0390471551574585</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.017588242346716</t>
+          <t>6.068088190187828</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.9239787178633385</t>
+          <t>4.9185996013624</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.731665892771907</t>
+          <t>5.554405762745057</t>
         </is>
       </c>
     </row>
@@ -1612,12 +1612,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>16.912966694361277</t>
+          <t>13.354621229040688</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.3724125495382355</t>
+          <t>2.45643914080791</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0462350951786874</t>
+          <t>2.0305644116491095</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.9071887568299815</t>
+          <t>3.9223137021693475</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.630349962903672</t>
+          <t>20.691393323934825</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.018362946255479</t>
+          <t>14.236476035237956</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.386377834563717</t>
+          <t>2.461301789144244</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.855929339443489</t>
+          <t>4.754777688237148</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.486861464734464</t>
+          <t>6.368275286389505</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.912724307075841</t>
+          <t>4.8047524600718585</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.264902385755968</t>
+          <t>6.144091191807918</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.386078890851438</t>
+          <t>10.175938275818869</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.496559275256606</t>
+          <t>6.380543475692143</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.36374666072943</t>
+          <t>4.2667994001834515</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.551272999107969</t>
+          <t>7.413271808087515</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.912072830062359</t>
+          <t>10.7207671676183</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.966931042271041</t>
+          <t>5.841463684173789</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.714858015751422</t>
+          <t>0.7405049694130668</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.232852018931013</t>
+          <t>16.059136167240275</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.944088348329615</t>
+          <t>6.909310974878297</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.7903664473377605</t>
+          <t>1.8155160523332086</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>45.13344444642775</t>
+          <t>44.28330208727196</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.22888526417971</t>
+          <t>11.01851725048976</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.827339433668018</t>
+          <t>5.6293782307592855</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.933595092226567</t>
+          <t>2.9369603008316654</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5465379383844873</t>
+          <t>0.5417984253335657</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.7210585493595825</t>
+          <t>2.70603126943525</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3634846356015706</t>
+          <t>1.3351010789641018</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.847539157346202</t>
+          <t>4.864245593705683</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.9140689018751615</t>
+          <t>3.9209052361595087</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.58333826905048</t>
+          <t>23.137836937170793</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.56814919434413</t>
+          <t>5.572914836589412</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>40.56028399299774</t>
+          <t>39.92899775325088</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.042643397660522</t>
+          <t>7.048924266157867</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>23.40617099915209</t>
+          <t>23.538160775180234</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.070233328564397</t>
+          <t>4.0171137771036545</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.926455459701896</t>
+          <t>5.808809253893911</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.9126691885107</t>
+          <t>20.31567411113982</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>1.2421881367762495</t>
+          <t>0.8187009638536883</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.44762004320722626</t>
+          <t>0.44413220940132675</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2495291722169917</t>
+          <t>2.2279080073324096</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.327671242403071</t>
+          <t>5.32798702369764</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.356525195844839</t>
+          <t>9.383745960031412</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.067588300331799</t>
+          <t>2.0460059531044905</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2.8913558873103895</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.3617834999955206</t>
+          <t>0.34687678192472554</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.700713670135861</t>
+          <t>4.653557934561389</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.28972392100975697</t>
+          <t>0.28287465094681963</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.924878090313861</t>
+          <t>2.9563498417210496</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.9034625267765009</t>
+          <t>1.919278359016026</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.91886890855052</t>
+          <t>1.9096029655235842</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.6271074239201138</t>
+          <t>2.5740916616891742</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.970147715135521</t>
+          <t>4.989922924331468</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.838918091295837</t>
+          <t>3.75262224070943</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.7564275083223304</t>
+          <t>2.745516927853121</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.500516409284034</t>
+          <t>2.5087932002373248</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>19.51434342647379</t>
+          <t>23.07221220945623</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.881110747059022</t>
+          <t>8.85817571241094</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>3.5835823594877496</t>
+          <t>4.5989530548314335</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.995709925169635</t>
+          <t>8.242598104451105</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.182404934355617</t>
+          <t>19.10120143931851</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.922367403307048</t>
+          <t>14.68030868821745</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>18.15068362989649</t>
+          <t>17.73410086909772</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.24670125602922</t>
+          <t>3.2616620224731476</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.95709318993109</t>
+          <t>5.127241742008955</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.260885723956922</t>
+          <t>1.2453676289113353</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.514014251941823</t>
+          <t>2.5088902065274454</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.642374201489126</t>
+          <t>2.6343401786147638</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.5955735248152685</t>
+          <t>2.583946123327806</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>3.0289445573172102</t>
+          <t>2.9883349814791877</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.38939137390697154</t>
+          <t>0.388904434654253</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.4877403055413101</t>
+          <t>0.4815082082677602</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.3669955403056395</t>
+          <t>1.34818364362906</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.65816298766691</t>
+          <t>1.6566271468296974</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.380280080471399</t>
+          <t>0.3840165057521574</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.9097086659546751</t>
+          <t>0.8983777963591959</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.892198095470297</t>
+          <t>12.788541159785753</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>83.21614745836443</t>
+          <t>82.96851358345265</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>18.2486454741055</t>
+          <t>17.950231640022</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>17.05380692754235</t>
+          <t>16.60839091105607</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96.0953362818046</t>
+          <t>96.06767319494347</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>7.018888714931197</t>
+          <t>6.476031629796835</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.1457577670551498</t>
+          <t>1.126440893421561</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.2671835706965349</t>
+          <t>1.268011246955787</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.846279271979826</t>
+          <t>3.81958819753649</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>65.08119302503536</t>
+          <t>65.20342034434954</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>3.902961983530052</t>
+          <t>3.9053241617194487</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>24.55160854135024</t>
+          <t>24.23344262603563</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25.63474080440414</t>
+          <t>25.27421134121377</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.965583433013196</t>
+          <t>0.953210403340447</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.8907081373191517</t>
+          <t>3.696482920017597</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.470701528774042</t>
+          <t>3.349623542455086</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>16.06980818656114</t>
+          <t>16.93787039925294</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.507931759469589</t>
+          <t>6.565181347342754</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.2234551293160165</t>
+          <t>3.9447896200567243</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.496126695255256</t>
+          <t>4.4907362435494775</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>76.45650890130331</t>
+          <t>75.61366375654603</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.475404455764444</t>
+          <t>9.305788708799742</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.548004490311764</t>
+          <t>5.251401291442665</t>
         </is>
       </c>
     </row>
@@ -5924,12 +5924,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>2.5278791684449846</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>8.294705025331924</t>
+          <t>8.144903522606509</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>12.076891905876593</t>
+          <t>12.064477343969756</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>88.65762561049841</t>
+          <t>88.49634639410735</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,51 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>12.250712153635334</t>
+          <t>12.253446515942306</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>DF_STR_LSS_Broly</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>11.00872975685784</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DFLR_TEQ_Super_Gogeta</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2.2157112287780962</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D260"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.599805895685819</t>
+          <t>6.764286426815431</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.33786684508793</t>
+          <t>6.1817129646508135</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.608710583607387</t>
+          <t>24.35571383799089</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.6532659461647108</t>
+          <t>0.23033670526926464</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.917344669443619</t>
+          <t>5.027395618743078</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.373680861398485</t>
+          <t>2.4532206266032146</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5.797938165167306</t>
+          <t>5.931785772848117</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.749737728718192</t>
+          <t>1.7926344278254607</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.826689895812802</t>
+          <t>6.993232642959899</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.095267811371291</t>
+          <t>6.309700395997011</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.2175117435623575</t>
+          <t>2.2924963113136885</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13.34739888588179</t>
+          <t>14.00133120825383</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.9766276203501788</t>
+          <t>0.9935471644381146</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.0816333303643013</t>
+          <t>3.162000971851441</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10.583701668654431</t>
+          <t>10.840254949478833</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.444881087529609</t>
+          <t>6.647042758588121</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15.10969851404193</t>
+          <t>15.531960847450367</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>7.215810658879968</t>
+          <t>7.457323231351388</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.298433995962389</t>
+          <t>7.551267388584552</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>11.730003650095828</t>
+          <t>12.17155932833326</t>
         </is>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.491843086612766</t>
+          <t>6.662369148555069</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.3111680006992974</t>
+          <t>1.3445739701888073</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.054668776533461</t>
+          <t>8.25826067066032</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2.3224842152890774</t>
+          <t>2.2963364722310953</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.1677299134616135</t>
+          <t>3.600480817052625</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.142631944231834</t>
+          <t>4.284010500940239</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18.63016963474275</t>
+          <t>19.12340472509633</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12.808614005308009</t>
+          <t>12.81222506680318</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13.46705668519827</t>
+          <t>13.790357777623452</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.736617939473504</t>
+          <t>4.660087357455119</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2.214162527065426</t>
+          <t>2.2835036243966806</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1.0119057050647307</t>
+          <t>1.0394080466498394</t>
         </is>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6.513511360611119</t>
+          <t>6.467505212719714</t>
         </is>
       </c>
     </row>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.59844166100343</t>
+          <t>16.02039945639612</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.6876153728143106</t>
+          <t>2.757842661242679</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1.0390471551574585</t>
+          <t>1.0651629523751502</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.068088190187828</t>
+          <t>6.0500343022260985</t>
         </is>
       </c>
     </row>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4.9185996013624</t>
+          <t>5.04958999102268</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.554405762745057</t>
+          <t>5.732971026795274</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>13.354621229040688</t>
+          <t>13.47079749595315</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.45643914080791</t>
+          <t>2.3954671179520806</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2.0305644116491095</t>
+          <t>2.0469011510479547</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3.9223137021693475</t>
+          <t>3.8741935823998968</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>20.691393323934825</t>
+          <t>20.802662650399924</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>14.236476035237956</t>
+          <t>13.335644579666734</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2.461301789144244</t>
+          <t>2.323249024297297</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4.754777688237148</t>
+          <t>4.91324144413195</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.368275286389505</t>
+          <t>6.5847795270510945</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.8047524600718585</t>
+          <t>4.969600239107989</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>6.144091191807918</t>
+          <t>6.354910876789661</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10.175938275818869</t>
+          <t>9.366064373771376</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6.380543475692143</t>
+          <t>6.605260181090085</t>
         </is>
       </c>
     </row>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4.2667994001834515</t>
+          <t>4.40237157424198</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7.413271808087515</t>
+          <t>7.681373485018978</t>
         </is>
       </c>
     </row>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10.7207671676183</t>
+          <t>9.943541193853985</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5.841463684173789</t>
+          <t>6.030270631339654</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.7405049694130668</t>
+          <t>0.7641274829075921</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>16.059136167240275</t>
+          <t>16.38689794448838</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>6.909310974878297</t>
+          <t>7.075105763017285</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>1.8155160523332086</t>
+          <t>1.8348904734315286</t>
         </is>
       </c>
     </row>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>44.28330208727196</t>
+          <t>45.12275259784289</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.01851725048976</t>
+          <t>11.59701360076687</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.6293782307592855</t>
+          <t>5.902555549828604</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.9369603008316654</t>
+          <t>3.022593424395093</t>
         </is>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.5417984253335657</t>
+          <t>0.5610464906894679</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.70603126943525</t>
+          <t>2.7787486492889406</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>1.3351010789641018</t>
+          <t>1.373833711654925</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>4.864245593705683</t>
+          <t>4.860695958043604</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>3.9209052361595087</t>
+          <t>3.8323114464031</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>23.137836937170793</t>
+          <t>23.649269101358893</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5.572914836589412</t>
+          <t>5.7583296902364385</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>39.92899775325088</t>
+          <t>20.206535434077573</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7.048924266157867</t>
+          <t>7.226008089281518</t>
         </is>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>23.538160775180234</t>
+          <t>23.74532238537856</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4.0171137771036545</t>
+          <t>4.130035289067659</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5.808809253893911</t>
+          <t>5.919405841734281</t>
         </is>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>20.31567411113982</t>
+          <t>19.86092092240629</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0.8187009638536883</t>
+          <t>0.8220727904158066</t>
         </is>
       </c>
     </row>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0.44413220940132675</t>
+          <t>0.4597888021525398</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2.2279080073324096</t>
+          <t>2.3043854654970204</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5.32798702369764</t>
+          <t>5.423081927692978</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>9.383745960031412</t>
+          <t>9.562337836055649</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2.0460059531044905</t>
+          <t>2.1159100117637806</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>0.34687678192472554</t>
+          <t>0.35830727485436825</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>4.653557934561389</t>
+          <t>4.815354536634739</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>0.28287465094681963</t>
+          <t>0.29252828040500944</t>
         </is>
       </c>
     </row>
@@ -3399,7 +3399,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2.9563498417210496</t>
+          <t>3.0246137426063093</t>
         </is>
       </c>
     </row>
@@ -3531,7 +3531,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>1.919278359016026</t>
+          <t>1.9428067579498958</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>1.9096029655235842</t>
+          <t>1.9810814955680003</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2.5740916616891742</t>
+          <t>2.6523646425345846</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>4.989922924331468</t>
+          <t>5.091228215359189</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>3.75262224070943</t>
+          <t>3.8585489647738864</t>
         </is>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2.745516927853121</t>
+          <t>2.6667219865637097</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2.5087932002373248</t>
+          <t>2.5334662492747118</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>23.07221220945623</t>
+          <t>23.99794638930764</t>
         </is>
       </c>
     </row>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8.85817571241094</t>
+          <t>8.973886485465478</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.5989530548314335</t>
+          <t>4.658297463398334</t>
         </is>
       </c>
     </row>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>8.242598104451105</t>
+          <t>8.479215848694551</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>19.10120143931851</t>
+          <t>18.717816078010877</t>
         </is>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>14.68030868821745</t>
+          <t>15.21362749085407</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>17.73410086909772</t>
+          <t>18.30225035902524</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>3.2616620224731476</t>
+          <t>3.30504429507049</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>5.127241742008955</t>
+          <t>5.230208373339572</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>1.2453676289113353</t>
+          <t>1.285065200459833</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4499,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2.5088902065274454</t>
+          <t>2.5799198919381685</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2.6343401786147638</t>
+          <t>2.6638538310697513</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2.583946123327806</t>
+          <t>2.6402753388584603</t>
         </is>
       </c>
     </row>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2.9883349814791877</t>
+          <t>2.6049474466754363</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>0.388904434654253</t>
+          <t>0.3676194973547138</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>0.4815082082677602</t>
+          <t>0.49488124109310055</t>
         </is>
       </c>
     </row>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>1.34818364362906</t>
+          <t>1.3360795152305904</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>1.6566271468296974</t>
+          <t>1.6905543425437546</t>
         </is>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>0.3840165057521574</t>
+          <t>0.39567481479786026</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>0.8983777963591959</t>
+          <t>0.9311728407676392</t>
         </is>
       </c>
     </row>
@@ -5093,7 +5093,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>12.788541159785753</t>
+          <t>13.26555134409995</t>
         </is>
       </c>
     </row>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>82.96851358345265</t>
+          <t>83.17628156409101</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>17.950231640022</t>
+          <t>18.25622529626355</t>
         </is>
       </c>
     </row>
@@ -5225,7 +5225,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>16.60839091105607</t>
+          <t>17.267957011602668</t>
         </is>
       </c>
     </row>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>96.06767319494347</t>
+          <t>96.37421395157912</t>
         </is>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>6.476031629796835</t>
+          <t>6.97775729106462</t>
         </is>
       </c>
     </row>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>1.126440893421561</t>
+          <t>1.161463703993732</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>1.268011246955787</t>
+          <t>1.314634950606334</t>
         </is>
       </c>
     </row>
@@ -5489,7 +5489,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>3.81958819753649</t>
+          <t>3.9359788749232827</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>65.20342034434954</t>
+          <t>65.87914455879961</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>3.9053241617194487</t>
+          <t>3.710267492139073</t>
         </is>
       </c>
     </row>
@@ -5555,7 +5555,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>24.23344262603563</t>
+          <t>24.94340579844543</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>25.27421134121377</t>
+          <t>26.23907694553633</t>
         </is>
       </c>
     </row>
@@ -5621,7 +5621,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>0.953210403340447</t>
+          <t>0.9870233066559937</t>
         </is>
       </c>
     </row>
@@ -5687,7 +5687,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>3.696482920017597</t>
+          <t>3.784525155131287</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>3.349623542455086</t>
+          <t>3.436992760894653</t>
         </is>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>16.93787039925294</t>
+          <t>17.37798495930441</t>
         </is>
       </c>
     </row>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>6.565181347342754</t>
+          <t>6.667698954862906</t>
         </is>
       </c>
     </row>
@@ -5819,7 +5819,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>3.9447896200567243</t>
+          <t>4.0084476265737</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>4.4907362435494775</t>
+          <t>4.6473266800687725</t>
         </is>
       </c>
     </row>
@@ -5863,7 +5863,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>75.61366375654603</t>
+          <t>74.01451644441562</t>
         </is>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>9.305788708799742</t>
+          <t>9.658645736624182</t>
         </is>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>5.251401291442665</t>
+          <t>4.9341370586747395</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>8.144903522606509</t>
+          <t>8.355174015666055</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>12.064477343969756</t>
+          <t>12.202991941213028</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>88.49634639410735</t>
+          <t>89.05122692974402</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>12.253446515942306</t>
+          <t>12.098167095599822</t>
         </is>
       </c>
     </row>
@@ -6127,7 +6127,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>11.00872975685784</t>
+          <t>11.011418394711072</t>
         </is>
       </c>
     </row>
@@ -6149,7 +6149,117 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>2.2157112287780962</t>
+          <t>2.139766719159573</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DF_AGL_Dirty_Fireworks_Vegeta</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>58.34455620081922</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BU_INT_Cui</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>3.1263399803904584</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>DF_PHY_Full_Power_Frieza</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>BU_STR_SS_Namek_Goku</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BU_AGL_Nail</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>0.2</t>
         </is>
       </c>
     </row>

--- a/SummonRating.xlsx
+++ b/SummonRating.xlsx
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.600480817052625</t>
+          <t>5.233906821501709</t>
         </is>
       </c>
     </row>
@@ -2646,12 +2646,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>20.206535434077573</t>
+          <t>11.497509829856869</t>
         </is>
       </c>
     </row>
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>58.34455620081922</t>
+          <t>6.273954516817895</t>
         </is>
       </c>
     </row>
